--- a/src/test/resources/unittesting/artifact/script/unitTest_word.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_word.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
     <sheet name="Scenario" sheetId="2" r:id="rId2"/>
+    <sheet name="showcase" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="657">
   <si>
     <t>target</t>
   </si>
@@ -2021,6 +2022,30 @@
   </si>
   <si>
     <t>now we are back</t>
+  </si>
+  <si>
+    <t>out-path</t>
+  </si>
+  <si>
+    <t>1pager</t>
+  </si>
+  <si>
+    <t>${file-path}/test4.docx</t>
+  </si>
+  <si>
+    <t>${out-path}/test4.txt</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>readOnly</t>
+  </si>
+  <si>
+    <t>crypt:c7e659d3c0a4655e98fa054c4c1441f495e09f7de4cfd64b</t>
+  </si>
+  <si>
+    <t>remove protected</t>
   </si>
 </sst>
 </file>
@@ -2076,14 +2101,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
+      <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -2808,13 +2833,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2837,9 +2855,16 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -5381,10 +5406,10 @@
   <sheetPr/>
   <dimension ref="A1:O201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
@@ -5427,14 +5452,14 @@
       <c r="I1" s="13" t="s">
         <v>587</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="21"/>
       <c r="L1" s="13" t="s">
         <v>588</v>
       </c>
       <c r="M1" s="13"/>
       <c r="N1" s="13"/>
-      <c r="O1" s="29"/>
+      <c r="O1" s="27"/>
     </row>
     <row r="2" ht="93" customHeight="1" spans="1:15">
       <c r="A2" s="14" t="s">
@@ -5450,12 +5475,12 @@
       <c r="I2" s="17" t="s">
         <v>590</v>
       </c>
-      <c r="J2" s="28"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="21"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
     </row>
     <row r="3" ht="10" customHeight="1" spans="1:15">
       <c r="A3" s="18"/>
@@ -5467,7 +5492,7 @@
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="32"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="21"/>
       <c r="L3" s="22"/>
       <c r="M3" s="20"/>
@@ -5502,10 +5527,10 @@
       <c r="I4" s="23" t="s">
         <v>598</v>
       </c>
-      <c r="J4" s="33" t="s">
+      <c r="J4" s="31" t="s">
         <v>599</v>
       </c>
-      <c r="K4" s="34"/>
+      <c r="K4" s="32"/>
       <c r="L4" s="23" t="s">
         <v>600</v>
       </c>
@@ -5539,7 +5564,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
       <c r="M5" s="20"/>
@@ -5566,7 +5591,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
       <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="21"/>
       <c r="L6" s="22"/>
       <c r="M6" s="20"/>
@@ -5593,7 +5618,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="J7" s="33"/>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="20"/>
@@ -5620,7 +5645,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
       <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="J8" s="33"/>
       <c r="K8" s="21"/>
       <c r="L8" s="22"/>
       <c r="M8" s="20"/>
@@ -5645,7 +5670,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
       <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
+      <c r="J9" s="33"/>
       <c r="K9" s="21"/>
       <c r="L9" s="22"/>
       <c r="M9" s="20"/>
@@ -5672,7 +5697,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="33"/>
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
       <c r="M10" s="20"/>
@@ -5699,7 +5724,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
+      <c r="J11" s="33"/>
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="20"/>
@@ -5726,7 +5751,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
+      <c r="J12" s="33"/>
       <c r="K12" s="21"/>
       <c r="L12" s="22"/>
       <c r="M12" s="20"/>
@@ -5753,7 +5778,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
       <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="J13" s="33"/>
       <c r="K13" s="21"/>
       <c r="L13" s="22"/>
       <c r="M13" s="20"/>
@@ -5780,7 +5805,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
       <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="J14" s="33"/>
       <c r="K14" s="21"/>
       <c r="L14" s="22"/>
       <c r="M14" s="20"/>
@@ -5807,7 +5832,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
       <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="J15" s="33"/>
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
       <c r="M15" s="20"/>
@@ -5834,7 +5859,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="J16" s="33"/>
       <c r="K16" s="21"/>
       <c r="L16" s="22"/>
       <c r="M16" s="20"/>
@@ -5855,13 +5880,13 @@
       <c r="E17" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="33" t="s">
         <v>631</v>
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
+      <c r="J17" s="33"/>
       <c r="K17" s="21"/>
       <c r="L17" s="22"/>
       <c r="M17" s="20"/>
@@ -5882,13 +5907,13 @@
       <c r="E18" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="33" t="s">
         <v>633</v>
       </c>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
       <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
+      <c r="J18" s="33"/>
       <c r="K18" s="21"/>
       <c r="L18" s="22"/>
       <c r="M18" s="20"/>
@@ -5909,13 +5934,13 @@
       <c r="E19" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="33" t="s">
         <v>634</v>
       </c>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
       <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
+      <c r="J19" s="33"/>
       <c r="K19" s="21"/>
       <c r="L19" s="22"/>
       <c r="M19" s="20"/>
@@ -5936,13 +5961,13 @@
       <c r="E20" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="33" t="s">
         <v>636</v>
       </c>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
+      <c r="J20" s="33"/>
       <c r="K20" s="21"/>
       <c r="L20" s="22"/>
       <c r="M20" s="20"/>
@@ -5969,7 +5994,7 @@
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
+      <c r="J21" s="33"/>
       <c r="K21" s="21"/>
       <c r="L21" s="22"/>
       <c r="M21" s="20"/>
@@ -5990,13 +6015,13 @@
       <c r="E22" s="25" t="s">
         <v>611</v>
       </c>
-      <c r="F22" s="26" t="s">
+      <c r="F22" s="33" t="s">
         <v>639</v>
       </c>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
+      <c r="J22" s="33"/>
       <c r="K22" s="21"/>
       <c r="L22" s="22"/>
       <c r="M22" s="20"/>
@@ -6017,13 +6042,13 @@
       <c r="E23" s="25" t="s">
         <v>641</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="33" t="s">
         <v>642</v>
       </c>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
+      <c r="J23" s="33"/>
       <c r="K23" s="21"/>
       <c r="L23" s="22"/>
       <c r="M23" s="20"/>
@@ -6048,7 +6073,7 @@
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="J24" s="33"/>
       <c r="K24" s="21"/>
       <c r="L24" s="22"/>
       <c r="M24" s="20"/>
@@ -6073,7 +6098,7 @@
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="J25" s="33"/>
       <c r="K25" s="21"/>
       <c r="L25" s="22"/>
       <c r="M25" s="20"/>
@@ -6100,7 +6125,7 @@
       <c r="G26" s="25"/>
       <c r="H26" s="25"/>
       <c r="I26" s="25"/>
-      <c r="J26" s="26"/>
+      <c r="J26" s="33"/>
       <c r="K26" s="21"/>
       <c r="L26" s="22"/>
       <c r="M26" s="20"/>
@@ -6125,7 +6150,7 @@
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
+      <c r="J27" s="33"/>
       <c r="K27" s="21"/>
       <c r="L27" s="22"/>
       <c r="M27" s="20"/>
@@ -6148,7 +6173,7 @@
       <c r="G28" s="25"/>
       <c r="H28" s="25"/>
       <c r="I28" s="25"/>
-      <c r="J28" s="26"/>
+      <c r="J28" s="33"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
       <c r="M28" s="20"/>
@@ -6157,7 +6182,7 @@
     </row>
     <row r="29" ht="23" customHeight="1" spans="1:15">
       <c r="A29" s="18"/>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="34" t="s">
         <v>648</v>
       </c>
       <c r="C29" s="24" t="s">
@@ -6173,7 +6198,7 @@
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
+      <c r="J29" s="33"/>
       <c r="K29" s="21"/>
       <c r="L29" s="22"/>
       <c r="M29" s="20"/>
@@ -6190,7 +6215,7 @@
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="J30" s="33"/>
       <c r="K30" s="21"/>
       <c r="L30" s="22"/>
       <c r="M30" s="20"/>
@@ -6207,7 +6232,7 @@
       <c r="G31" s="25"/>
       <c r="H31" s="25"/>
       <c r="I31" s="25"/>
-      <c r="J31" s="26"/>
+      <c r="J31" s="33"/>
       <c r="K31" s="21"/>
       <c r="L31" s="22"/>
       <c r="M31" s="20"/>
@@ -6224,7 +6249,7 @@
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
       <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
+      <c r="J32" s="33"/>
       <c r="K32" s="21"/>
       <c r="L32" s="22"/>
       <c r="M32" s="20"/>
@@ -6241,7 +6266,7 @@
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
+      <c r="J33" s="33"/>
       <c r="K33" s="21"/>
       <c r="L33" s="22"/>
       <c r="M33" s="20"/>
@@ -6258,7 +6283,7 @@
       <c r="G34" s="25"/>
       <c r="H34" s="25"/>
       <c r="I34" s="25"/>
-      <c r="J34" s="26"/>
+      <c r="J34" s="33"/>
       <c r="K34" s="21"/>
       <c r="L34" s="22"/>
       <c r="M34" s="20"/>
@@ -6275,7 +6300,7 @@
       <c r="G35" s="25"/>
       <c r="H35" s="25"/>
       <c r="I35" s="25"/>
-      <c r="J35" s="26"/>
+      <c r="J35" s="33"/>
       <c r="K35" s="21"/>
       <c r="L35" s="22"/>
       <c r="M35" s="20"/>
@@ -6292,7 +6317,7 @@
       <c r="G36" s="25"/>
       <c r="H36" s="25"/>
       <c r="I36" s="25"/>
-      <c r="J36" s="26"/>
+      <c r="J36" s="33"/>
       <c r="K36" s="21"/>
       <c r="L36" s="22"/>
       <c r="M36" s="20"/>
@@ -6309,7 +6334,7 @@
       <c r="G37" s="25"/>
       <c r="H37" s="25"/>
       <c r="I37" s="25"/>
-      <c r="J37" s="26"/>
+      <c r="J37" s="33"/>
       <c r="K37" s="21"/>
       <c r="L37" s="22"/>
       <c r="M37" s="20"/>
@@ -6326,7 +6351,7 @@
       <c r="G38" s="25"/>
       <c r="H38" s="25"/>
       <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
+      <c r="J38" s="33"/>
       <c r="K38" s="21"/>
       <c r="L38" s="22"/>
       <c r="M38" s="20"/>
@@ -6343,7 +6368,7 @@
       <c r="G39" s="25"/>
       <c r="H39" s="25"/>
       <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="J39" s="33"/>
       <c r="K39" s="21"/>
       <c r="L39" s="22"/>
       <c r="M39" s="20"/>
@@ -6360,7 +6385,7 @@
       <c r="G40" s="25"/>
       <c r="H40" s="25"/>
       <c r="I40" s="25"/>
-      <c r="J40" s="26"/>
+      <c r="J40" s="33"/>
       <c r="K40" s="21"/>
       <c r="L40" s="22"/>
       <c r="M40" s="20"/>
@@ -6377,7 +6402,7 @@
       <c r="G41" s="25"/>
       <c r="H41" s="25"/>
       <c r="I41" s="25"/>
-      <c r="J41" s="26"/>
+      <c r="J41" s="33"/>
       <c r="K41" s="21"/>
       <c r="L41" s="22"/>
       <c r="M41" s="20"/>
@@ -6394,7 +6419,7 @@
       <c r="G42" s="25"/>
       <c r="H42" s="25"/>
       <c r="I42" s="25"/>
-      <c r="J42" s="26"/>
+      <c r="J42" s="33"/>
       <c r="K42" s="21"/>
       <c r="L42" s="22"/>
       <c r="M42" s="20"/>
@@ -6411,7 +6436,7 @@
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
       <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
+      <c r="J43" s="33"/>
       <c r="K43" s="21"/>
       <c r="L43" s="22"/>
       <c r="M43" s="20"/>
@@ -6428,7 +6453,7 @@
       <c r="G44" s="25"/>
       <c r="H44" s="25"/>
       <c r="I44" s="25"/>
-      <c r="J44" s="26"/>
+      <c r="J44" s="33"/>
       <c r="K44" s="21"/>
       <c r="L44" s="22"/>
       <c r="M44" s="20"/>
@@ -6445,7 +6470,7 @@
       <c r="G45" s="25"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
-      <c r="J45" s="26"/>
+      <c r="J45" s="33"/>
       <c r="K45" s="21"/>
       <c r="L45" s="22"/>
       <c r="M45" s="20"/>
@@ -6462,7 +6487,7 @@
       <c r="G46" s="25"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
-      <c r="J46" s="26"/>
+      <c r="J46" s="33"/>
       <c r="K46" s="21"/>
       <c r="L46" s="22"/>
       <c r="M46" s="20"/>
@@ -6479,7 +6504,7 @@
       <c r="G47" s="25"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
-      <c r="J47" s="26"/>
+      <c r="J47" s="33"/>
       <c r="K47" s="21"/>
       <c r="L47" s="22"/>
       <c r="M47" s="20"/>
@@ -6496,7 +6521,7 @@
       <c r="G48" s="25"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
-      <c r="J48" s="26"/>
+      <c r="J48" s="33"/>
       <c r="K48" s="21"/>
       <c r="L48" s="22"/>
       <c r="M48" s="20"/>
@@ -6513,7 +6538,7 @@
       <c r="G49" s="25"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
-      <c r="J49" s="26"/>
+      <c r="J49" s="33"/>
       <c r="K49" s="21"/>
       <c r="L49" s="22"/>
       <c r="M49" s="20"/>
@@ -6530,7 +6555,7 @@
       <c r="G50" s="25"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
-      <c r="J50" s="26"/>
+      <c r="J50" s="33"/>
       <c r="K50" s="21"/>
       <c r="L50" s="22"/>
       <c r="M50" s="20"/>
@@ -6547,7 +6572,7 @@
       <c r="G51" s="25"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="J51" s="33"/>
       <c r="K51" s="21"/>
       <c r="L51" s="22"/>
       <c r="M51" s="20"/>
@@ -6564,7 +6589,7 @@
       <c r="G52" s="25"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="J52" s="33"/>
       <c r="K52" s="21"/>
       <c r="L52" s="22"/>
       <c r="M52" s="20"/>
@@ -6581,7 +6606,7 @@
       <c r="G53" s="25"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
+      <c r="J53" s="33"/>
       <c r="K53" s="21"/>
       <c r="L53" s="22"/>
       <c r="M53" s="20"/>
@@ -6598,7 +6623,7 @@
       <c r="G54" s="25"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
-      <c r="J54" s="26"/>
+      <c r="J54" s="33"/>
       <c r="K54" s="21"/>
       <c r="L54" s="22"/>
       <c r="M54" s="20"/>
@@ -6615,7 +6640,7 @@
       <c r="G55" s="25"/>
       <c r="H55" s="25"/>
       <c r="I55" s="25"/>
-      <c r="J55" s="26"/>
+      <c r="J55" s="33"/>
       <c r="K55" s="21"/>
       <c r="L55" s="22"/>
       <c r="M55" s="20"/>
@@ -6632,7 +6657,7 @@
       <c r="G56" s="25"/>
       <c r="H56" s="25"/>
       <c r="I56" s="25"/>
-      <c r="J56" s="26"/>
+      <c r="J56" s="33"/>
       <c r="K56" s="21"/>
       <c r="L56" s="22"/>
       <c r="M56" s="20"/>
@@ -6649,7 +6674,7 @@
       <c r="G57" s="25"/>
       <c r="H57" s="25"/>
       <c r="I57" s="25"/>
-      <c r="J57" s="26"/>
+      <c r="J57" s="33"/>
       <c r="K57" s="21"/>
       <c r="L57" s="22"/>
       <c r="M57" s="20"/>
@@ -6666,7 +6691,7 @@
       <c r="G58" s="25"/>
       <c r="H58" s="25"/>
       <c r="I58" s="25"/>
-      <c r="J58" s="26"/>
+      <c r="J58" s="33"/>
       <c r="K58" s="21"/>
       <c r="L58" s="22"/>
       <c r="M58" s="20"/>
@@ -6683,7 +6708,7 @@
       <c r="G59" s="25"/>
       <c r="H59" s="25"/>
       <c r="I59" s="25"/>
-      <c r="J59" s="26"/>
+      <c r="J59" s="33"/>
       <c r="K59" s="21"/>
       <c r="L59" s="22"/>
       <c r="M59" s="20"/>
@@ -6700,7 +6725,7 @@
       <c r="G60" s="25"/>
       <c r="H60" s="25"/>
       <c r="I60" s="25"/>
-      <c r="J60" s="26"/>
+      <c r="J60" s="33"/>
       <c r="K60" s="21"/>
       <c r="L60" s="22"/>
       <c r="M60" s="20"/>
@@ -6717,7 +6742,7 @@
       <c r="G61" s="25"/>
       <c r="H61" s="25"/>
       <c r="I61" s="25"/>
-      <c r="J61" s="26"/>
+      <c r="J61" s="33"/>
       <c r="K61" s="21"/>
       <c r="L61" s="22"/>
       <c r="M61" s="20"/>
@@ -6734,7 +6759,7 @@
       <c r="G62" s="25"/>
       <c r="H62" s="25"/>
       <c r="I62" s="25"/>
-      <c r="J62" s="26"/>
+      <c r="J62" s="33"/>
       <c r="K62" s="21"/>
       <c r="L62" s="22"/>
       <c r="M62" s="20"/>
@@ -6751,7 +6776,7 @@
       <c r="G63" s="25"/>
       <c r="H63" s="25"/>
       <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
+      <c r="J63" s="33"/>
       <c r="K63" s="21"/>
       <c r="L63" s="22"/>
       <c r="M63" s="20"/>
@@ -6768,7 +6793,7 @@
       <c r="G64" s="25"/>
       <c r="H64" s="25"/>
       <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
+      <c r="J64" s="33"/>
       <c r="K64" s="21"/>
       <c r="L64" s="22"/>
       <c r="M64" s="20"/>
@@ -6785,7 +6810,7 @@
       <c r="G65" s="25"/>
       <c r="H65" s="25"/>
       <c r="I65" s="25"/>
-      <c r="J65" s="26"/>
+      <c r="J65" s="33"/>
       <c r="K65" s="21"/>
       <c r="L65" s="22"/>
       <c r="M65" s="20"/>
@@ -6802,7 +6827,7 @@
       <c r="G66" s="25"/>
       <c r="H66" s="25"/>
       <c r="I66" s="25"/>
-      <c r="J66" s="26"/>
+      <c r="J66" s="33"/>
       <c r="K66" s="21"/>
       <c r="L66" s="22"/>
       <c r="M66" s="20"/>
@@ -6819,7 +6844,7 @@
       <c r="G67" s="25"/>
       <c r="H67" s="25"/>
       <c r="I67" s="25"/>
-      <c r="J67" s="26"/>
+      <c r="J67" s="33"/>
       <c r="K67" s="21"/>
       <c r="L67" s="22"/>
       <c r="M67" s="20"/>
@@ -6836,7 +6861,7 @@
       <c r="G68" s="25"/>
       <c r="H68" s="25"/>
       <c r="I68" s="25"/>
-      <c r="J68" s="26"/>
+      <c r="J68" s="33"/>
       <c r="K68" s="21"/>
       <c r="L68" s="22"/>
       <c r="M68" s="20"/>
@@ -6853,7 +6878,7 @@
       <c r="G69" s="25"/>
       <c r="H69" s="25"/>
       <c r="I69" s="25"/>
-      <c r="J69" s="26"/>
+      <c r="J69" s="33"/>
       <c r="K69" s="21"/>
       <c r="L69" s="22"/>
       <c r="M69" s="20"/>
@@ -6870,7 +6895,7 @@
       <c r="G70" s="25"/>
       <c r="H70" s="25"/>
       <c r="I70" s="25"/>
-      <c r="J70" s="26"/>
+      <c r="J70" s="33"/>
       <c r="K70" s="21"/>
       <c r="L70" s="22"/>
       <c r="M70" s="20"/>
@@ -6887,7 +6912,7 @@
       <c r="G71" s="25"/>
       <c r="H71" s="25"/>
       <c r="I71" s="25"/>
-      <c r="J71" s="26"/>
+      <c r="J71" s="33"/>
       <c r="K71" s="21"/>
       <c r="L71" s="22"/>
       <c r="M71" s="20"/>
@@ -6904,7 +6929,7 @@
       <c r="G72" s="25"/>
       <c r="H72" s="25"/>
       <c r="I72" s="25"/>
-      <c r="J72" s="26"/>
+      <c r="J72" s="33"/>
       <c r="K72" s="21"/>
       <c r="L72" s="22"/>
       <c r="M72" s="20"/>
@@ -6921,7 +6946,7 @@
       <c r="G73" s="25"/>
       <c r="H73" s="25"/>
       <c r="I73" s="25"/>
-      <c r="J73" s="26"/>
+      <c r="J73" s="33"/>
       <c r="K73" s="21"/>
       <c r="L73" s="22"/>
       <c r="M73" s="20"/>
@@ -6938,7 +6963,7 @@
       <c r="G74" s="25"/>
       <c r="H74" s="25"/>
       <c r="I74" s="25"/>
-      <c r="J74" s="26"/>
+      <c r="J74" s="33"/>
       <c r="K74" s="21"/>
       <c r="L74" s="22"/>
       <c r="M74" s="20"/>
@@ -6955,7 +6980,7 @@
       <c r="G75" s="25"/>
       <c r="H75" s="25"/>
       <c r="I75" s="25"/>
-      <c r="J75" s="26"/>
+      <c r="J75" s="33"/>
       <c r="K75" s="21"/>
       <c r="L75" s="22"/>
       <c r="M75" s="20"/>
@@ -6972,7 +6997,7 @@
       <c r="G76" s="25"/>
       <c r="H76" s="25"/>
       <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
+      <c r="J76" s="33"/>
       <c r="K76" s="21"/>
       <c r="L76" s="22"/>
       <c r="M76" s="20"/>
@@ -6989,7 +7014,7 @@
       <c r="G77" s="25"/>
       <c r="H77" s="25"/>
       <c r="I77" s="25"/>
-      <c r="J77" s="26"/>
+      <c r="J77" s="33"/>
       <c r="K77" s="21"/>
       <c r="L77" s="22"/>
       <c r="M77" s="20"/>
@@ -7006,7 +7031,7 @@
       <c r="G78" s="25"/>
       <c r="H78" s="25"/>
       <c r="I78" s="25"/>
-      <c r="J78" s="26"/>
+      <c r="J78" s="33"/>
       <c r="K78" s="21"/>
       <c r="L78" s="22"/>
       <c r="M78" s="20"/>
@@ -7023,7 +7048,7 @@
       <c r="G79" s="25"/>
       <c r="H79" s="25"/>
       <c r="I79" s="25"/>
-      <c r="J79" s="26"/>
+      <c r="J79" s="33"/>
       <c r="K79" s="21"/>
       <c r="L79" s="22"/>
       <c r="M79" s="20"/>
@@ -7040,7 +7065,7 @@
       <c r="G80" s="25"/>
       <c r="H80" s="25"/>
       <c r="I80" s="25"/>
-      <c r="J80" s="26"/>
+      <c r="J80" s="33"/>
       <c r="K80" s="21"/>
       <c r="L80" s="22"/>
       <c r="M80" s="20"/>
@@ -7057,7 +7082,7 @@
       <c r="G81" s="25"/>
       <c r="H81" s="25"/>
       <c r="I81" s="25"/>
-      <c r="J81" s="26"/>
+      <c r="J81" s="33"/>
       <c r="K81" s="21"/>
       <c r="L81" s="22"/>
       <c r="M81" s="20"/>
@@ -7074,7 +7099,7 @@
       <c r="G82" s="25"/>
       <c r="H82" s="25"/>
       <c r="I82" s="25"/>
-      <c r="J82" s="26"/>
+      <c r="J82" s="33"/>
       <c r="K82" s="21"/>
       <c r="L82" s="22"/>
       <c r="M82" s="20"/>
@@ -7091,7 +7116,7 @@
       <c r="G83" s="25"/>
       <c r="H83" s="25"/>
       <c r="I83" s="25"/>
-      <c r="J83" s="26"/>
+      <c r="J83" s="33"/>
       <c r="K83" s="21"/>
       <c r="L83" s="22"/>
       <c r="M83" s="20"/>
@@ -7108,7 +7133,7 @@
       <c r="G84" s="25"/>
       <c r="H84" s="25"/>
       <c r="I84" s="25"/>
-      <c r="J84" s="26"/>
+      <c r="J84" s="33"/>
       <c r="K84" s="21"/>
       <c r="L84" s="22"/>
       <c r="M84" s="20"/>
@@ -7125,7 +7150,7 @@
       <c r="G85" s="25"/>
       <c r="H85" s="25"/>
       <c r="I85" s="25"/>
-      <c r="J85" s="26"/>
+      <c r="J85" s="33"/>
       <c r="K85" s="21"/>
       <c r="L85" s="22"/>
       <c r="M85" s="20"/>
@@ -7142,7 +7167,7 @@
       <c r="G86" s="25"/>
       <c r="H86" s="25"/>
       <c r="I86" s="25"/>
-      <c r="J86" s="26"/>
+      <c r="J86" s="33"/>
       <c r="K86" s="21"/>
       <c r="L86" s="22"/>
       <c r="M86" s="20"/>
@@ -7159,7 +7184,7 @@
       <c r="G87" s="25"/>
       <c r="H87" s="25"/>
       <c r="I87" s="25"/>
-      <c r="J87" s="26"/>
+      <c r="J87" s="33"/>
       <c r="K87" s="21"/>
       <c r="L87" s="22"/>
       <c r="M87" s="20"/>
@@ -7176,7 +7201,7 @@
       <c r="G88" s="25"/>
       <c r="H88" s="25"/>
       <c r="I88" s="25"/>
-      <c r="J88" s="26"/>
+      <c r="J88" s="33"/>
       <c r="K88" s="21"/>
       <c r="L88" s="22"/>
       <c r="M88" s="20"/>
@@ -7193,7 +7218,7 @@
       <c r="G89" s="25"/>
       <c r="H89" s="25"/>
       <c r="I89" s="25"/>
-      <c r="J89" s="26"/>
+      <c r="J89" s="33"/>
       <c r="K89" s="21"/>
       <c r="L89" s="22"/>
       <c r="M89" s="20"/>
@@ -7210,7 +7235,7 @@
       <c r="G90" s="25"/>
       <c r="H90" s="25"/>
       <c r="I90" s="25"/>
-      <c r="J90" s="26"/>
+      <c r="J90" s="33"/>
       <c r="K90" s="21"/>
       <c r="L90" s="22"/>
       <c r="M90" s="20"/>
@@ -7227,7 +7252,7 @@
       <c r="G91" s="25"/>
       <c r="H91" s="25"/>
       <c r="I91" s="25"/>
-      <c r="J91" s="26"/>
+      <c r="J91" s="33"/>
       <c r="K91" s="21"/>
       <c r="L91" s="22"/>
       <c r="M91" s="20"/>
@@ -7244,7 +7269,7 @@
       <c r="G92" s="25"/>
       <c r="H92" s="25"/>
       <c r="I92" s="25"/>
-      <c r="J92" s="26"/>
+      <c r="J92" s="33"/>
       <c r="K92" s="21"/>
       <c r="L92" s="22"/>
       <c r="M92" s="20"/>
@@ -7261,7 +7286,7 @@
       <c r="G93" s="25"/>
       <c r="H93" s="25"/>
       <c r="I93" s="25"/>
-      <c r="J93" s="26"/>
+      <c r="J93" s="33"/>
       <c r="K93" s="21"/>
       <c r="L93" s="22"/>
       <c r="M93" s="20"/>
@@ -7278,7 +7303,7 @@
       <c r="G94" s="25"/>
       <c r="H94" s="25"/>
       <c r="I94" s="25"/>
-      <c r="J94" s="26"/>
+      <c r="J94" s="33"/>
       <c r="K94" s="21"/>
       <c r="L94" s="22"/>
       <c r="M94" s="20"/>
@@ -7295,7 +7320,7 @@
       <c r="G95" s="25"/>
       <c r="H95" s="25"/>
       <c r="I95" s="25"/>
-      <c r="J95" s="26"/>
+      <c r="J95" s="33"/>
       <c r="K95" s="21"/>
       <c r="L95" s="22"/>
       <c r="M95" s="20"/>
@@ -7312,7 +7337,7 @@
       <c r="G96" s="25"/>
       <c r="H96" s="25"/>
       <c r="I96" s="25"/>
-      <c r="J96" s="26"/>
+      <c r="J96" s="33"/>
       <c r="K96" s="21"/>
       <c r="L96" s="22"/>
       <c r="M96" s="20"/>
@@ -7329,7 +7354,7 @@
       <c r="G97" s="25"/>
       <c r="H97" s="25"/>
       <c r="I97" s="25"/>
-      <c r="J97" s="26"/>
+      <c r="J97" s="33"/>
       <c r="K97" s="21"/>
       <c r="L97" s="22"/>
       <c r="M97" s="20"/>
@@ -7346,7 +7371,7 @@
       <c r="G98" s="25"/>
       <c r="H98" s="25"/>
       <c r="I98" s="25"/>
-      <c r="J98" s="26"/>
+      <c r="J98" s="33"/>
       <c r="K98" s="21"/>
       <c r="L98" s="22"/>
       <c r="M98" s="20"/>
@@ -7363,7 +7388,7 @@
       <c r="G99" s="25"/>
       <c r="H99" s="25"/>
       <c r="I99" s="25"/>
-      <c r="J99" s="26"/>
+      <c r="J99" s="33"/>
       <c r="K99" s="21"/>
       <c r="L99" s="22"/>
       <c r="M99" s="20"/>
@@ -7380,7 +7405,7 @@
       <c r="G100" s="25"/>
       <c r="H100" s="25"/>
       <c r="I100" s="25"/>
-      <c r="J100" s="26"/>
+      <c r="J100" s="33"/>
       <c r="K100" s="21"/>
       <c r="L100" s="22"/>
       <c r="M100" s="20"/>
@@ -7397,7 +7422,7 @@
       <c r="G101" s="25"/>
       <c r="H101" s="25"/>
       <c r="I101" s="25"/>
-      <c r="J101" s="26"/>
+      <c r="J101" s="33"/>
       <c r="K101" s="21"/>
       <c r="L101" s="22"/>
       <c r="M101" s="20"/>
@@ -7414,7 +7439,7 @@
       <c r="G102" s="25"/>
       <c r="H102" s="25"/>
       <c r="I102" s="25"/>
-      <c r="J102" s="26"/>
+      <c r="J102" s="33"/>
       <c r="K102" s="21"/>
       <c r="L102" s="22"/>
       <c r="M102" s="20"/>
@@ -7431,7 +7456,7 @@
       <c r="G103" s="25"/>
       <c r="H103" s="25"/>
       <c r="I103" s="25"/>
-      <c r="J103" s="26"/>
+      <c r="J103" s="33"/>
       <c r="K103" s="21"/>
       <c r="L103" s="22"/>
       <c r="M103" s="20"/>
@@ -7448,7 +7473,7 @@
       <c r="G104" s="25"/>
       <c r="H104" s="25"/>
       <c r="I104" s="25"/>
-      <c r="J104" s="26"/>
+      <c r="J104" s="33"/>
       <c r="K104" s="21"/>
       <c r="L104" s="22"/>
       <c r="M104" s="20"/>
@@ -7465,7 +7490,7 @@
       <c r="G105" s="25"/>
       <c r="H105" s="25"/>
       <c r="I105" s="25"/>
-      <c r="J105" s="26"/>
+      <c r="J105" s="33"/>
       <c r="K105" s="21"/>
       <c r="L105" s="22"/>
       <c r="M105" s="20"/>
@@ -7482,7 +7507,7 @@
       <c r="G106" s="25"/>
       <c r="H106" s="25"/>
       <c r="I106" s="25"/>
-      <c r="J106" s="26"/>
+      <c r="J106" s="33"/>
       <c r="K106" s="21"/>
       <c r="L106" s="22"/>
       <c r="M106" s="20"/>
@@ -7499,7 +7524,7 @@
       <c r="G107" s="25"/>
       <c r="H107" s="25"/>
       <c r="I107" s="25"/>
-      <c r="J107" s="26"/>
+      <c r="J107" s="33"/>
       <c r="K107" s="21"/>
       <c r="L107" s="22"/>
       <c r="M107" s="20"/>
@@ -7516,7 +7541,7 @@
       <c r="G108" s="25"/>
       <c r="H108" s="25"/>
       <c r="I108" s="25"/>
-      <c r="J108" s="26"/>
+      <c r="J108" s="33"/>
       <c r="K108" s="21"/>
       <c r="L108" s="22"/>
       <c r="M108" s="20"/>
@@ -7533,7 +7558,7 @@
       <c r="G109" s="25"/>
       <c r="H109" s="25"/>
       <c r="I109" s="25"/>
-      <c r="J109" s="26"/>
+      <c r="J109" s="33"/>
       <c r="K109" s="21"/>
       <c r="L109" s="22"/>
       <c r="M109" s="20"/>
@@ -7550,7 +7575,7 @@
       <c r="G110" s="25"/>
       <c r="H110" s="25"/>
       <c r="I110" s="25"/>
-      <c r="J110" s="26"/>
+      <c r="J110" s="33"/>
       <c r="K110" s="21"/>
       <c r="L110" s="22"/>
       <c r="M110" s="20"/>
@@ -7567,7 +7592,7 @@
       <c r="G111" s="25"/>
       <c r="H111" s="25"/>
       <c r="I111" s="25"/>
-      <c r="J111" s="26"/>
+      <c r="J111" s="33"/>
       <c r="K111" s="21"/>
       <c r="L111" s="22"/>
       <c r="M111" s="20"/>
@@ -7584,7 +7609,7 @@
       <c r="G112" s="25"/>
       <c r="H112" s="25"/>
       <c r="I112" s="25"/>
-      <c r="J112" s="26"/>
+      <c r="J112" s="33"/>
       <c r="K112" s="21"/>
       <c r="L112" s="22"/>
       <c r="M112" s="20"/>
@@ -7601,7 +7626,7 @@
       <c r="G113" s="25"/>
       <c r="H113" s="25"/>
       <c r="I113" s="25"/>
-      <c r="J113" s="26"/>
+      <c r="J113" s="33"/>
       <c r="K113" s="21"/>
       <c r="L113" s="22"/>
       <c r="M113" s="20"/>
@@ -7618,7 +7643,7 @@
       <c r="G114" s="25"/>
       <c r="H114" s="25"/>
       <c r="I114" s="25"/>
-      <c r="J114" s="26"/>
+      <c r="J114" s="33"/>
       <c r="K114" s="21"/>
       <c r="L114" s="22"/>
       <c r="M114" s="20"/>
@@ -7635,7 +7660,7 @@
       <c r="G115" s="25"/>
       <c r="H115" s="25"/>
       <c r="I115" s="25"/>
-      <c r="J115" s="26"/>
+      <c r="J115" s="33"/>
       <c r="K115" s="21"/>
       <c r="L115" s="22"/>
       <c r="M115" s="20"/>
@@ -7652,7 +7677,7 @@
       <c r="G116" s="25"/>
       <c r="H116" s="25"/>
       <c r="I116" s="25"/>
-      <c r="J116" s="26"/>
+      <c r="J116" s="33"/>
       <c r="K116" s="21"/>
       <c r="L116" s="22"/>
       <c r="M116" s="20"/>
@@ -7669,7 +7694,7 @@
       <c r="G117" s="25"/>
       <c r="H117" s="25"/>
       <c r="I117" s="25"/>
-      <c r="J117" s="26"/>
+      <c r="J117" s="33"/>
       <c r="K117" s="21"/>
       <c r="L117" s="22"/>
       <c r="M117" s="20"/>
@@ -7686,7 +7711,7 @@
       <c r="G118" s="25"/>
       <c r="H118" s="25"/>
       <c r="I118" s="25"/>
-      <c r="J118" s="26"/>
+      <c r="J118" s="33"/>
       <c r="K118" s="21"/>
       <c r="L118" s="22"/>
       <c r="M118" s="20"/>
@@ -7703,7 +7728,7 @@
       <c r="G119" s="25"/>
       <c r="H119" s="25"/>
       <c r="I119" s="25"/>
-      <c r="J119" s="26"/>
+      <c r="J119" s="33"/>
       <c r="K119" s="21"/>
       <c r="L119" s="22"/>
       <c r="M119" s="20"/>
@@ -7720,7 +7745,7 @@
       <c r="G120" s="25"/>
       <c r="H120" s="25"/>
       <c r="I120" s="25"/>
-      <c r="J120" s="26"/>
+      <c r="J120" s="33"/>
       <c r="K120" s="21"/>
       <c r="L120" s="22"/>
       <c r="M120" s="20"/>
@@ -7737,7 +7762,7 @@
       <c r="G121" s="25"/>
       <c r="H121" s="25"/>
       <c r="I121" s="25"/>
-      <c r="J121" s="26"/>
+      <c r="J121" s="33"/>
       <c r="K121" s="21"/>
       <c r="L121" s="22"/>
       <c r="M121" s="20"/>
@@ -7754,7 +7779,7 @@
       <c r="G122" s="25"/>
       <c r="H122" s="25"/>
       <c r="I122" s="25"/>
-      <c r="J122" s="26"/>
+      <c r="J122" s="33"/>
       <c r="K122" s="21"/>
       <c r="L122" s="22"/>
       <c r="M122" s="20"/>
@@ -7771,7 +7796,7 @@
       <c r="G123" s="25"/>
       <c r="H123" s="25"/>
       <c r="I123" s="25"/>
-      <c r="J123" s="26"/>
+      <c r="J123" s="33"/>
       <c r="K123" s="21"/>
       <c r="L123" s="22"/>
       <c r="M123" s="20"/>
@@ -7788,7 +7813,7 @@
       <c r="G124" s="25"/>
       <c r="H124" s="25"/>
       <c r="I124" s="25"/>
-      <c r="J124" s="26"/>
+      <c r="J124" s="33"/>
       <c r="K124" s="21"/>
       <c r="L124" s="22"/>
       <c r="M124" s="20"/>
@@ -7805,7 +7830,7 @@
       <c r="G125" s="25"/>
       <c r="H125" s="25"/>
       <c r="I125" s="25"/>
-      <c r="J125" s="26"/>
+      <c r="J125" s="33"/>
       <c r="K125" s="21"/>
       <c r="L125" s="22"/>
       <c r="M125" s="20"/>
@@ -7822,7 +7847,7 @@
       <c r="G126" s="25"/>
       <c r="H126" s="25"/>
       <c r="I126" s="25"/>
-      <c r="J126" s="26"/>
+      <c r="J126" s="33"/>
       <c r="K126" s="21"/>
       <c r="L126" s="22"/>
       <c r="M126" s="20"/>
@@ -7839,7 +7864,7 @@
       <c r="G127" s="25"/>
       <c r="H127" s="25"/>
       <c r="I127" s="25"/>
-      <c r="J127" s="26"/>
+      <c r="J127" s="33"/>
       <c r="K127" s="21"/>
       <c r="L127" s="22"/>
       <c r="M127" s="20"/>
@@ -7856,7 +7881,7 @@
       <c r="G128" s="25"/>
       <c r="H128" s="25"/>
       <c r="I128" s="25"/>
-      <c r="J128" s="26"/>
+      <c r="J128" s="33"/>
       <c r="K128" s="21"/>
       <c r="L128" s="22"/>
       <c r="M128" s="20"/>
@@ -7873,7 +7898,7 @@
       <c r="G129" s="25"/>
       <c r="H129" s="25"/>
       <c r="I129" s="25"/>
-      <c r="J129" s="26"/>
+      <c r="J129" s="33"/>
       <c r="K129" s="21"/>
       <c r="L129" s="22"/>
       <c r="M129" s="20"/>
@@ -7890,7 +7915,7 @@
       <c r="G130" s="25"/>
       <c r="H130" s="25"/>
       <c r="I130" s="25"/>
-      <c r="J130" s="26"/>
+      <c r="J130" s="33"/>
       <c r="K130" s="21"/>
       <c r="L130" s="22"/>
       <c r="M130" s="20"/>
@@ -7907,7 +7932,7 @@
       <c r="G131" s="25"/>
       <c r="H131" s="25"/>
       <c r="I131" s="25"/>
-      <c r="J131" s="26"/>
+      <c r="J131" s="33"/>
       <c r="K131" s="21"/>
       <c r="L131" s="22"/>
       <c r="M131" s="20"/>
@@ -7924,7 +7949,7 @@
       <c r="G132" s="25"/>
       <c r="H132" s="25"/>
       <c r="I132" s="25"/>
-      <c r="J132" s="26"/>
+      <c r="J132" s="33"/>
       <c r="K132" s="21"/>
       <c r="L132" s="22"/>
       <c r="M132" s="20"/>
@@ -7941,7 +7966,7 @@
       <c r="G133" s="25"/>
       <c r="H133" s="25"/>
       <c r="I133" s="25"/>
-      <c r="J133" s="26"/>
+      <c r="J133" s="33"/>
       <c r="K133" s="21"/>
       <c r="L133" s="22"/>
       <c r="M133" s="20"/>
@@ -7958,7 +7983,7 @@
       <c r="G134" s="25"/>
       <c r="H134" s="25"/>
       <c r="I134" s="25"/>
-      <c r="J134" s="26"/>
+      <c r="J134" s="33"/>
       <c r="K134" s="21"/>
       <c r="L134" s="22"/>
       <c r="M134" s="20"/>
@@ -7975,7 +8000,7 @@
       <c r="G135" s="25"/>
       <c r="H135" s="25"/>
       <c r="I135" s="25"/>
-      <c r="J135" s="26"/>
+      <c r="J135" s="33"/>
       <c r="K135" s="21"/>
       <c r="L135" s="22"/>
       <c r="M135" s="20"/>
@@ -7992,7 +8017,7 @@
       <c r="G136" s="25"/>
       <c r="H136" s="25"/>
       <c r="I136" s="25"/>
-      <c r="J136" s="26"/>
+      <c r="J136" s="33"/>
       <c r="K136" s="21"/>
       <c r="L136" s="22"/>
       <c r="M136" s="20"/>
@@ -8009,7 +8034,7 @@
       <c r="G137" s="25"/>
       <c r="H137" s="25"/>
       <c r="I137" s="25"/>
-      <c r="J137" s="26"/>
+      <c r="J137" s="33"/>
       <c r="K137" s="21"/>
       <c r="L137" s="22"/>
       <c r="M137" s="20"/>
@@ -8026,7 +8051,7 @@
       <c r="G138" s="25"/>
       <c r="H138" s="25"/>
       <c r="I138" s="25"/>
-      <c r="J138" s="26"/>
+      <c r="J138" s="33"/>
       <c r="K138" s="21"/>
       <c r="L138" s="22"/>
       <c r="M138" s="20"/>
@@ -8043,7 +8068,7 @@
       <c r="G139" s="25"/>
       <c r="H139" s="25"/>
       <c r="I139" s="25"/>
-      <c r="J139" s="26"/>
+      <c r="J139" s="33"/>
       <c r="K139" s="21"/>
       <c r="L139" s="22"/>
       <c r="M139" s="20"/>
@@ -8060,7 +8085,7 @@
       <c r="G140" s="25"/>
       <c r="H140" s="25"/>
       <c r="I140" s="25"/>
-      <c r="J140" s="26"/>
+      <c r="J140" s="33"/>
       <c r="K140" s="21"/>
       <c r="L140" s="22"/>
       <c r="M140" s="20"/>
@@ -8077,7 +8102,7 @@
       <c r="G141" s="25"/>
       <c r="H141" s="25"/>
       <c r="I141" s="25"/>
-      <c r="J141" s="26"/>
+      <c r="J141" s="33"/>
       <c r="K141" s="21"/>
       <c r="L141" s="22"/>
       <c r="M141" s="20"/>
@@ -8094,7 +8119,7 @@
       <c r="G142" s="25"/>
       <c r="H142" s="25"/>
       <c r="I142" s="25"/>
-      <c r="J142" s="26"/>
+      <c r="J142" s="33"/>
       <c r="K142" s="21"/>
       <c r="L142" s="22"/>
       <c r="M142" s="20"/>
@@ -8111,7 +8136,7 @@
       <c r="G143" s="25"/>
       <c r="H143" s="25"/>
       <c r="I143" s="25"/>
-      <c r="J143" s="26"/>
+      <c r="J143" s="33"/>
       <c r="K143" s="21"/>
       <c r="L143" s="22"/>
       <c r="M143" s="20"/>
@@ -8128,7 +8153,7 @@
       <c r="G144" s="25"/>
       <c r="H144" s="25"/>
       <c r="I144" s="25"/>
-      <c r="J144" s="26"/>
+      <c r="J144" s="33"/>
       <c r="K144" s="21"/>
       <c r="L144" s="22"/>
       <c r="M144" s="20"/>
@@ -8145,7 +8170,7 @@
       <c r="G145" s="25"/>
       <c r="H145" s="25"/>
       <c r="I145" s="25"/>
-      <c r="J145" s="26"/>
+      <c r="J145" s="33"/>
       <c r="K145" s="21"/>
       <c r="L145" s="22"/>
       <c r="M145" s="20"/>
@@ -8162,7 +8187,7 @@
       <c r="G146" s="25"/>
       <c r="H146" s="25"/>
       <c r="I146" s="25"/>
-      <c r="J146" s="26"/>
+      <c r="J146" s="33"/>
       <c r="K146" s="21"/>
       <c r="L146" s="22"/>
       <c r="M146" s="20"/>
@@ -8179,7 +8204,7 @@
       <c r="G147" s="25"/>
       <c r="H147" s="25"/>
       <c r="I147" s="25"/>
-      <c r="J147" s="26"/>
+      <c r="J147" s="33"/>
       <c r="K147" s="21"/>
       <c r="L147" s="22"/>
       <c r="M147" s="20"/>
@@ -8196,7 +8221,7 @@
       <c r="G148" s="25"/>
       <c r="H148" s="25"/>
       <c r="I148" s="25"/>
-      <c r="J148" s="26"/>
+      <c r="J148" s="33"/>
       <c r="K148" s="21"/>
       <c r="L148" s="22"/>
       <c r="M148" s="20"/>
@@ -8213,7 +8238,7 @@
       <c r="G149" s="25"/>
       <c r="H149" s="25"/>
       <c r="I149" s="25"/>
-      <c r="J149" s="26"/>
+      <c r="J149" s="33"/>
       <c r="K149" s="21"/>
       <c r="L149" s="22"/>
       <c r="M149" s="20"/>
@@ -8230,7 +8255,7 @@
       <c r="G150" s="25"/>
       <c r="H150" s="25"/>
       <c r="I150" s="25"/>
-      <c r="J150" s="26"/>
+      <c r="J150" s="33"/>
       <c r="K150" s="21"/>
       <c r="L150" s="22"/>
       <c r="M150" s="20"/>
@@ -8247,7 +8272,7 @@
       <c r="G151" s="25"/>
       <c r="H151" s="25"/>
       <c r="I151" s="25"/>
-      <c r="J151" s="26"/>
+      <c r="J151" s="33"/>
       <c r="K151" s="21"/>
       <c r="L151" s="22"/>
       <c r="M151" s="20"/>
@@ -8264,7 +8289,7 @@
       <c r="G152" s="25"/>
       <c r="H152" s="25"/>
       <c r="I152" s="25"/>
-      <c r="J152" s="26"/>
+      <c r="J152" s="33"/>
       <c r="K152" s="21"/>
       <c r="L152" s="22"/>
       <c r="M152" s="20"/>
@@ -8281,7 +8306,7 @@
       <c r="G153" s="25"/>
       <c r="H153" s="25"/>
       <c r="I153" s="25"/>
-      <c r="J153" s="26"/>
+      <c r="J153" s="33"/>
       <c r="K153" s="21"/>
       <c r="L153" s="22"/>
       <c r="M153" s="20"/>
@@ -8298,7 +8323,7 @@
       <c r="G154" s="25"/>
       <c r="H154" s="25"/>
       <c r="I154" s="25"/>
-      <c r="J154" s="26"/>
+      <c r="J154" s="33"/>
       <c r="K154" s="21"/>
       <c r="L154" s="22"/>
       <c r="M154" s="20"/>
@@ -8315,7 +8340,7 @@
       <c r="G155" s="25"/>
       <c r="H155" s="25"/>
       <c r="I155" s="25"/>
-      <c r="J155" s="26"/>
+      <c r="J155" s="33"/>
       <c r="K155" s="21"/>
       <c r="L155" s="22"/>
       <c r="M155" s="20"/>
@@ -8332,7 +8357,7 @@
       <c r="G156" s="25"/>
       <c r="H156" s="25"/>
       <c r="I156" s="25"/>
-      <c r="J156" s="26"/>
+      <c r="J156" s="33"/>
       <c r="K156" s="21"/>
       <c r="L156" s="22"/>
       <c r="M156" s="20"/>
@@ -8349,7 +8374,7 @@
       <c r="G157" s="25"/>
       <c r="H157" s="25"/>
       <c r="I157" s="25"/>
-      <c r="J157" s="26"/>
+      <c r="J157" s="33"/>
       <c r="K157" s="21"/>
       <c r="L157" s="22"/>
       <c r="M157" s="20"/>
@@ -8366,7 +8391,7 @@
       <c r="G158" s="25"/>
       <c r="H158" s="25"/>
       <c r="I158" s="25"/>
-      <c r="J158" s="26"/>
+      <c r="J158" s="33"/>
       <c r="K158" s="21"/>
       <c r="L158" s="22"/>
       <c r="M158" s="20"/>
@@ -8383,7 +8408,7 @@
       <c r="G159" s="25"/>
       <c r="H159" s="25"/>
       <c r="I159" s="25"/>
-      <c r="J159" s="26"/>
+      <c r="J159" s="33"/>
       <c r="K159" s="21"/>
       <c r="L159" s="22"/>
       <c r="M159" s="20"/>
@@ -8400,7 +8425,7 @@
       <c r="G160" s="25"/>
       <c r="H160" s="25"/>
       <c r="I160" s="25"/>
-      <c r="J160" s="26"/>
+      <c r="J160" s="33"/>
       <c r="K160" s="21"/>
       <c r="L160" s="22"/>
       <c r="M160" s="20"/>
@@ -8417,7 +8442,7 @@
       <c r="G161" s="25"/>
       <c r="H161" s="25"/>
       <c r="I161" s="25"/>
-      <c r="J161" s="26"/>
+      <c r="J161" s="33"/>
       <c r="K161" s="21"/>
       <c r="L161" s="22"/>
       <c r="M161" s="20"/>
@@ -8434,7 +8459,7 @@
       <c r="G162" s="25"/>
       <c r="H162" s="25"/>
       <c r="I162" s="25"/>
-      <c r="J162" s="26"/>
+      <c r="J162" s="33"/>
       <c r="K162" s="21"/>
       <c r="L162" s="22"/>
       <c r="M162" s="20"/>
@@ -8451,7 +8476,7 @@
       <c r="G163" s="25"/>
       <c r="H163" s="25"/>
       <c r="I163" s="25"/>
-      <c r="J163" s="26"/>
+      <c r="J163" s="33"/>
       <c r="K163" s="21"/>
       <c r="L163" s="22"/>
       <c r="M163" s="20"/>
@@ -8468,7 +8493,7 @@
       <c r="G164" s="25"/>
       <c r="H164" s="25"/>
       <c r="I164" s="25"/>
-      <c r="J164" s="26"/>
+      <c r="J164" s="33"/>
       <c r="K164" s="21"/>
       <c r="L164" s="22"/>
       <c r="M164" s="20"/>
@@ -8485,7 +8510,7 @@
       <c r="G165" s="25"/>
       <c r="H165" s="25"/>
       <c r="I165" s="25"/>
-      <c r="J165" s="26"/>
+      <c r="J165" s="33"/>
       <c r="K165" s="21"/>
       <c r="L165" s="22"/>
       <c r="M165" s="20"/>
@@ -8502,7 +8527,7 @@
       <c r="G166" s="25"/>
       <c r="H166" s="25"/>
       <c r="I166" s="25"/>
-      <c r="J166" s="26"/>
+      <c r="J166" s="33"/>
       <c r="K166" s="21"/>
       <c r="L166" s="22"/>
       <c r="M166" s="20"/>
@@ -8519,7 +8544,7 @@
       <c r="G167" s="25"/>
       <c r="H167" s="25"/>
       <c r="I167" s="25"/>
-      <c r="J167" s="26"/>
+      <c r="J167" s="33"/>
       <c r="K167" s="21"/>
       <c r="L167" s="22"/>
       <c r="M167" s="20"/>
@@ -8536,7 +8561,7 @@
       <c r="G168" s="25"/>
       <c r="H168" s="25"/>
       <c r="I168" s="25"/>
-      <c r="J168" s="26"/>
+      <c r="J168" s="33"/>
       <c r="K168" s="21"/>
       <c r="L168" s="22"/>
       <c r="M168" s="20"/>
@@ -8553,7 +8578,7 @@
       <c r="G169" s="25"/>
       <c r="H169" s="25"/>
       <c r="I169" s="25"/>
-      <c r="J169" s="26"/>
+      <c r="J169" s="33"/>
       <c r="K169" s="21"/>
       <c r="L169" s="22"/>
       <c r="M169" s="20"/>
@@ -8570,7 +8595,7 @@
       <c r="G170" s="25"/>
       <c r="H170" s="25"/>
       <c r="I170" s="25"/>
-      <c r="J170" s="26"/>
+      <c r="J170" s="33"/>
       <c r="K170" s="21"/>
       <c r="L170" s="22"/>
       <c r="M170" s="20"/>
@@ -8587,7 +8612,7 @@
       <c r="G171" s="25"/>
       <c r="H171" s="25"/>
       <c r="I171" s="25"/>
-      <c r="J171" s="26"/>
+      <c r="J171" s="33"/>
       <c r="K171" s="21"/>
       <c r="L171" s="22"/>
       <c r="M171" s="20"/>
@@ -8604,7 +8629,7 @@
       <c r="G172" s="25"/>
       <c r="H172" s="25"/>
       <c r="I172" s="25"/>
-      <c r="J172" s="26"/>
+      <c r="J172" s="33"/>
       <c r="K172" s="21"/>
       <c r="L172" s="22"/>
       <c r="M172" s="20"/>
@@ -8621,7 +8646,7 @@
       <c r="G173" s="25"/>
       <c r="H173" s="25"/>
       <c r="I173" s="25"/>
-      <c r="J173" s="26"/>
+      <c r="J173" s="33"/>
       <c r="K173" s="21"/>
       <c r="L173" s="22"/>
       <c r="M173" s="20"/>
@@ -8638,7 +8663,7 @@
       <c r="G174" s="25"/>
       <c r="H174" s="25"/>
       <c r="I174" s="25"/>
-      <c r="J174" s="26"/>
+      <c r="J174" s="33"/>
       <c r="K174" s="21"/>
       <c r="L174" s="22"/>
       <c r="M174" s="20"/>
@@ -8655,7 +8680,7 @@
       <c r="G175" s="25"/>
       <c r="H175" s="25"/>
       <c r="I175" s="25"/>
-      <c r="J175" s="26"/>
+      <c r="J175" s="33"/>
       <c r="K175" s="21"/>
       <c r="L175" s="22"/>
       <c r="M175" s="20"/>
@@ -8672,7 +8697,7 @@
       <c r="G176" s="25"/>
       <c r="H176" s="25"/>
       <c r="I176" s="25"/>
-      <c r="J176" s="26"/>
+      <c r="J176" s="33"/>
       <c r="K176" s="21"/>
       <c r="L176" s="22"/>
       <c r="M176" s="20"/>
@@ -8689,7 +8714,7 @@
       <c r="G177" s="25"/>
       <c r="H177" s="25"/>
       <c r="I177" s="25"/>
-      <c r="J177" s="26"/>
+      <c r="J177" s="33"/>
       <c r="K177" s="21"/>
       <c r="L177" s="22"/>
       <c r="M177" s="20"/>
@@ -8706,7 +8731,7 @@
       <c r="G178" s="25"/>
       <c r="H178" s="25"/>
       <c r="I178" s="25"/>
-      <c r="J178" s="26"/>
+      <c r="J178" s="33"/>
       <c r="K178" s="21"/>
       <c r="L178" s="22"/>
       <c r="M178" s="20"/>
@@ -8723,7 +8748,7 @@
       <c r="G179" s="25"/>
       <c r="H179" s="25"/>
       <c r="I179" s="25"/>
-      <c r="J179" s="26"/>
+      <c r="J179" s="33"/>
       <c r="K179" s="21"/>
       <c r="L179" s="22"/>
       <c r="M179" s="20"/>
@@ -8740,7 +8765,7 @@
       <c r="G180" s="25"/>
       <c r="H180" s="25"/>
       <c r="I180" s="25"/>
-      <c r="J180" s="26"/>
+      <c r="J180" s="33"/>
       <c r="K180" s="21"/>
       <c r="L180" s="22"/>
       <c r="M180" s="20"/>
@@ -8757,7 +8782,7 @@
       <c r="G181" s="25"/>
       <c r="H181" s="25"/>
       <c r="I181" s="25"/>
-      <c r="J181" s="26"/>
+      <c r="J181" s="33"/>
       <c r="K181" s="21"/>
       <c r="L181" s="22"/>
       <c r="M181" s="20"/>
@@ -8774,7 +8799,7 @@
       <c r="G182" s="25"/>
       <c r="H182" s="25"/>
       <c r="I182" s="25"/>
-      <c r="J182" s="26"/>
+      <c r="J182" s="33"/>
       <c r="K182" s="21"/>
       <c r="L182" s="22"/>
       <c r="M182" s="20"/>
@@ -8791,7 +8816,7 @@
       <c r="G183" s="25"/>
       <c r="H183" s="25"/>
       <c r="I183" s="25"/>
-      <c r="J183" s="26"/>
+      <c r="J183" s="33"/>
       <c r="K183" s="21"/>
       <c r="L183" s="22"/>
       <c r="M183" s="20"/>
@@ -8808,7 +8833,7 @@
       <c r="G184" s="25"/>
       <c r="H184" s="25"/>
       <c r="I184" s="25"/>
-      <c r="J184" s="26"/>
+      <c r="J184" s="33"/>
       <c r="K184" s="21"/>
       <c r="L184" s="22"/>
       <c r="M184" s="20"/>
@@ -8825,7 +8850,7 @@
       <c r="G185" s="25"/>
       <c r="H185" s="25"/>
       <c r="I185" s="25"/>
-      <c r="J185" s="26"/>
+      <c r="J185" s="33"/>
       <c r="K185" s="21"/>
       <c r="L185" s="22"/>
       <c r="M185" s="20"/>
@@ -8842,7 +8867,7 @@
       <c r="G186" s="25"/>
       <c r="H186" s="25"/>
       <c r="I186" s="25"/>
-      <c r="J186" s="26"/>
+      <c r="J186" s="33"/>
       <c r="K186" s="21"/>
       <c r="L186" s="22"/>
       <c r="M186" s="20"/>
@@ -8859,7 +8884,7 @@
       <c r="G187" s="25"/>
       <c r="H187" s="25"/>
       <c r="I187" s="25"/>
-      <c r="J187" s="26"/>
+      <c r="J187" s="33"/>
       <c r="K187" s="21"/>
       <c r="L187" s="22"/>
       <c r="M187" s="20"/>
@@ -8876,7 +8901,7 @@
       <c r="G188" s="25"/>
       <c r="H188" s="25"/>
       <c r="I188" s="25"/>
-      <c r="J188" s="26"/>
+      <c r="J188" s="33"/>
       <c r="K188" s="21"/>
       <c r="L188" s="22"/>
       <c r="M188" s="20"/>
@@ -8893,7 +8918,7 @@
       <c r="G189" s="25"/>
       <c r="H189" s="25"/>
       <c r="I189" s="25"/>
-      <c r="J189" s="26"/>
+      <c r="J189" s="33"/>
       <c r="K189" s="21"/>
       <c r="L189" s="22"/>
       <c r="M189" s="20"/>
@@ -8910,7 +8935,7 @@
       <c r="G190" s="25"/>
       <c r="H190" s="25"/>
       <c r="I190" s="25"/>
-      <c r="J190" s="26"/>
+      <c r="J190" s="33"/>
       <c r="K190" s="21"/>
       <c r="L190" s="22"/>
       <c r="M190" s="20"/>
@@ -8927,7 +8952,7 @@
       <c r="G191" s="25"/>
       <c r="H191" s="25"/>
       <c r="I191" s="25"/>
-      <c r="J191" s="26"/>
+      <c r="J191" s="33"/>
       <c r="K191" s="21"/>
       <c r="L191" s="22"/>
       <c r="M191" s="20"/>
@@ -8944,7 +8969,7 @@
       <c r="G192" s="25"/>
       <c r="H192" s="25"/>
       <c r="I192" s="25"/>
-      <c r="J192" s="26"/>
+      <c r="J192" s="33"/>
       <c r="K192" s="21"/>
       <c r="L192" s="22"/>
       <c r="M192" s="20"/>
@@ -8961,7 +8986,7 @@
       <c r="G193" s="25"/>
       <c r="H193" s="25"/>
       <c r="I193" s="25"/>
-      <c r="J193" s="26"/>
+      <c r="J193" s="33"/>
       <c r="K193" s="21"/>
       <c r="L193" s="22"/>
       <c r="M193" s="20"/>
@@ -8978,7 +9003,7 @@
       <c r="G194" s="25"/>
       <c r="H194" s="25"/>
       <c r="I194" s="25"/>
-      <c r="J194" s="26"/>
+      <c r="J194" s="33"/>
       <c r="K194" s="21"/>
       <c r="L194" s="22"/>
       <c r="M194" s="20"/>
@@ -8995,7 +9020,7 @@
       <c r="G195" s="25"/>
       <c r="H195" s="25"/>
       <c r="I195" s="25"/>
-      <c r="J195" s="26"/>
+      <c r="J195" s="33"/>
       <c r="K195" s="21"/>
       <c r="L195" s="22"/>
       <c r="M195" s="20"/>
@@ -9012,7 +9037,7 @@
       <c r="G196" s="25"/>
       <c r="H196" s="25"/>
       <c r="I196" s="25"/>
-      <c r="J196" s="26"/>
+      <c r="J196" s="33"/>
       <c r="K196" s="21"/>
       <c r="L196" s="22"/>
       <c r="M196" s="20"/>
@@ -9029,7 +9054,7 @@
       <c r="G197" s="25"/>
       <c r="H197" s="25"/>
       <c r="I197" s="25"/>
-      <c r="J197" s="26"/>
+      <c r="J197" s="33"/>
       <c r="K197" s="21"/>
       <c r="L197" s="22"/>
       <c r="M197" s="20"/>
@@ -9046,7 +9071,7 @@
       <c r="G198" s="25"/>
       <c r="H198" s="25"/>
       <c r="I198" s="25"/>
-      <c r="J198" s="26"/>
+      <c r="J198" s="33"/>
       <c r="K198" s="21"/>
       <c r="L198" s="22"/>
       <c r="M198" s="20"/>
@@ -9063,7 +9088,7 @@
       <c r="G199" s="25"/>
       <c r="H199" s="25"/>
       <c r="I199" s="25"/>
-      <c r="J199" s="26"/>
+      <c r="J199" s="33"/>
       <c r="K199" s="21"/>
       <c r="L199" s="22"/>
       <c r="M199" s="20"/>
@@ -9080,7 +9105,7 @@
       <c r="G200" s="25"/>
       <c r="H200" s="25"/>
       <c r="I200" s="25"/>
-      <c r="J200" s="26"/>
+      <c r="J200" s="33"/>
       <c r="K200" s="21"/>
       <c r="L200" s="22"/>
       <c r="M200" s="20"/>
@@ -9097,7 +9122,7 @@
       <c r="G201" s="25"/>
       <c r="H201" s="25"/>
       <c r="I201" s="25"/>
-      <c r="J201" s="26"/>
+      <c r="J201" s="33"/>
       <c r="K201" s="21"/>
       <c r="L201" s="22"/>
       <c r="M201" s="20"/>
@@ -9145,4 +9170,3204 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:O178"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="10" style="4" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
+    <col min="6" max="7" width="21.75" style="5" customWidth="1"/>
+    <col min="8" max="9" width="20" style="5" customWidth="1"/>
+    <col min="10" max="10" width="20" style="6" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
+    <col min="12" max="12" width="12" style="8" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
+    <col min="14" max="14" width="19" style="8" customWidth="1"/>
+    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
+    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A1" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13" t="s">
+        <v>583</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>584</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>585</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>586</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="J1" s="26"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="13" t="s">
+        <v>588</v>
+      </c>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" ht="93" customHeight="1" spans="1:15">
+      <c r="A2" s="14" t="s">
+        <v>589</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="J2" s="26"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+    </row>
+    <row r="3" ht="10" customHeight="1" spans="1:15">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="21"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+      <c r="A4" s="23" t="s">
+        <v>591</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>592</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>593</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>594</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>595</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>597</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>598</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>599</v>
+      </c>
+      <c r="K4" s="32"/>
+      <c r="L4" s="23" t="s">
+        <v>600</v>
+      </c>
+      <c r="M4" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>602</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="5" ht="23" customHeight="1" spans="1:15">
+      <c r="A5" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>606</v>
+      </c>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="21"/>
+    </row>
+    <row r="6" ht="23" customHeight="1" spans="1:15">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>649</v>
+      </c>
+      <c r="F6" s="25" t="s">
+        <v>642</v>
+      </c>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+    </row>
+    <row r="7" ht="23" customHeight="1" spans="1:15">
+      <c r="A7" s="18" t="s">
+        <v>650</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>608</v>
+      </c>
+      <c r="F7" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="21"/>
+    </row>
+    <row r="8" ht="23" customHeight="1" spans="1:15">
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>370</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>652</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>611</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>653</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="21"/>
+    </row>
+    <row r="9" ht="23" customHeight="1" spans="1:15">
+      <c r="A9" s="18" t="s">
+        <v>654</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>655</v>
+      </c>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="21"/>
+    </row>
+    <row r="10" ht="23" customHeight="1" spans="1:15">
+      <c r="A10" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>651</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="21"/>
+    </row>
+    <row r="11" ht="23" customHeight="1" spans="1:15">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="21"/>
+    </row>
+    <row r="12" ht="23" customHeight="1" spans="1:15">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="21"/>
+    </row>
+    <row r="13" ht="23" customHeight="1" spans="1:15">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="21"/>
+    </row>
+    <row r="14" ht="23" customHeight="1" spans="1:15">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="21"/>
+    </row>
+    <row r="15" ht="23" customHeight="1" spans="1:15">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="21"/>
+    </row>
+    <row r="16" ht="23" customHeight="1" spans="1:15">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="20"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
+    </row>
+    <row r="17" ht="23" customHeight="1" spans="1:15">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
+    </row>
+    <row r="18" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
+    </row>
+    <row r="19" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
+    </row>
+    <row r="20" ht="23" customHeight="1" spans="1:15">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
+    </row>
+    <row r="21" ht="23" customHeight="1" spans="1:15">
+      <c r="A21" s="18"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
+    </row>
+    <row r="22" ht="23" customHeight="1" spans="1:15">
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
+    </row>
+    <row r="23" ht="23" customHeight="1" spans="1:15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" ht="23" customHeight="1" spans="1:15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" ht="23" customHeight="1" spans="1:15">
+      <c r="A25" s="18"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="21"/>
+    </row>
+    <row r="26" ht="23" customHeight="1" spans="1:15">
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="20"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="21"/>
+    </row>
+    <row r="27" ht="23" customHeight="1" spans="1:15">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" ht="23" customHeight="1" spans="1:15">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="21"/>
+    </row>
+    <row r="29" ht="23" customHeight="1" spans="1:15">
+      <c r="A29" s="18"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="21"/>
+    </row>
+    <row r="30" ht="23" customHeight="1" spans="1:15">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" ht="23" customHeight="1" spans="1:15">
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="21"/>
+    </row>
+    <row r="32" ht="23" customHeight="1" spans="1:15">
+      <c r="A32" s="18"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="21"/>
+    </row>
+    <row r="33" ht="23" customHeight="1" spans="1:15">
+      <c r="A33" s="18"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="21"/>
+    </row>
+    <row r="34" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="18"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="21"/>
+    </row>
+    <row r="35" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="21"/>
+    </row>
+    <row r="36" ht="23" customHeight="1" spans="1:15">
+      <c r="A36" s="18"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="25"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="21"/>
+    </row>
+    <row r="37" ht="23" customHeight="1" spans="1:15">
+      <c r="A37" s="18"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="25"/>
+      <c r="F37" s="25"/>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="25"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="21"/>
+    </row>
+    <row r="38" ht="23" customHeight="1" spans="1:15">
+      <c r="A38" s="18"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="25"/>
+      <c r="E38" s="25"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="21"/>
+    </row>
+    <row r="39" ht="23" customHeight="1" spans="1:15">
+      <c r="A39" s="18"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="25"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="21"/>
+    </row>
+    <row r="40" ht="23" customHeight="1" spans="1:15">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="20"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="21"/>
+    </row>
+    <row r="41" ht="23" customHeight="1" spans="1:15">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="20"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="21"/>
+    </row>
+    <row r="42" ht="23" customHeight="1" spans="1:15">
+      <c r="A42" s="18"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="25"/>
+      <c r="H42" s="25"/>
+      <c r="I42" s="25"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="21"/>
+    </row>
+    <row r="43" ht="23" customHeight="1" spans="1:15">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="25"/>
+      <c r="E43" s="25"/>
+      <c r="F43" s="25"/>
+      <c r="G43" s="25"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="21"/>
+    </row>
+    <row r="44" ht="23" customHeight="1" spans="1:15">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="25"/>
+      <c r="E44" s="25"/>
+      <c r="F44" s="25"/>
+      <c r="G44" s="25"/>
+      <c r="H44" s="25"/>
+      <c r="I44" s="25"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="20"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="21"/>
+    </row>
+    <row r="45" ht="23" customHeight="1" spans="1:15">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="25"/>
+      <c r="F45" s="25"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="25"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="20"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="21"/>
+    </row>
+    <row r="46" ht="23" customHeight="1" spans="1:15">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="20"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="21"/>
+    </row>
+    <row r="47" ht="23" customHeight="1" spans="1:15">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="20"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="21"/>
+    </row>
+    <row r="48" ht="23" customHeight="1" spans="1:15">
+      <c r="A48" s="18"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="25"/>
+      <c r="I48" s="25"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="20"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="21"/>
+    </row>
+    <row r="49" ht="23" customHeight="1" spans="1:15">
+      <c r="A49" s="18"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="25"/>
+      <c r="E49" s="25"/>
+      <c r="F49" s="25"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="20"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="21"/>
+    </row>
+    <row r="50" ht="23" customHeight="1" spans="1:15">
+      <c r="A50" s="18"/>
+      <c r="B50" s="19"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="25"/>
+      <c r="I50" s="25"/>
+      <c r="J50" s="33"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="20"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="21"/>
+    </row>
+    <row r="51" ht="23" customHeight="1" spans="1:15">
+      <c r="A51" s="18"/>
+      <c r="B51" s="19"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="25"/>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="25"/>
+      <c r="I51" s="25"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="20"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="21"/>
+    </row>
+    <row r="52" ht="23" customHeight="1" spans="1:15">
+      <c r="A52" s="18"/>
+      <c r="B52" s="19"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+      <c r="I52" s="25"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="20"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="21"/>
+    </row>
+    <row r="53" ht="23" customHeight="1" spans="1:15">
+      <c r="A53" s="18"/>
+      <c r="B53" s="19"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="33"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="20"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="21"/>
+    </row>
+    <row r="54" ht="23" customHeight="1" spans="1:15">
+      <c r="A54" s="18"/>
+      <c r="B54" s="19"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="20"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="21"/>
+    </row>
+    <row r="55" ht="23" customHeight="1" spans="1:15">
+      <c r="A55" s="18"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="25"/>
+      <c r="F55" s="25"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="25"/>
+      <c r="J55" s="33"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="20"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="21"/>
+    </row>
+    <row r="56" ht="23" customHeight="1" spans="1:15">
+      <c r="A56" s="18"/>
+      <c r="B56" s="19"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="33"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="20"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="21"/>
+    </row>
+    <row r="57" ht="23" customHeight="1" spans="1:15">
+      <c r="A57" s="18"/>
+      <c r="B57" s="19"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="33"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="20"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="21"/>
+    </row>
+    <row r="58" ht="23" customHeight="1" spans="1:15">
+      <c r="A58" s="18"/>
+      <c r="B58" s="19"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="33"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="21"/>
+    </row>
+    <row r="59" ht="23" customHeight="1" spans="1:15">
+      <c r="A59" s="18"/>
+      <c r="B59" s="19"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="33"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="20"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="21"/>
+    </row>
+    <row r="60" ht="23" customHeight="1" spans="1:15">
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="33"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="20"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="21"/>
+    </row>
+    <row r="61" ht="23" customHeight="1" spans="1:15">
+      <c r="A61" s="18"/>
+      <c r="B61" s="19"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="33"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="21"/>
+    </row>
+    <row r="62" ht="23" customHeight="1" spans="1:15">
+      <c r="A62" s="18"/>
+      <c r="B62" s="19"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="33"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="20"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="21"/>
+    </row>
+    <row r="63" ht="23" customHeight="1" spans="1:15">
+      <c r="A63" s="18"/>
+      <c r="B63" s="19"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="20"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="21"/>
+    </row>
+    <row r="64" ht="23" customHeight="1" spans="1:15">
+      <c r="A64" s="18"/>
+      <c r="B64" s="19"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="21"/>
+    </row>
+    <row r="65" ht="23" customHeight="1" spans="1:15">
+      <c r="A65" s="18"/>
+      <c r="B65" s="19"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="33"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="20"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="21"/>
+    </row>
+    <row r="66" ht="23" customHeight="1" spans="1:15">
+      <c r="A66" s="18"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="20"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="21"/>
+    </row>
+    <row r="67" ht="23" customHeight="1" spans="1:15">
+      <c r="A67" s="18"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="33"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="21"/>
+    </row>
+    <row r="68" ht="23" customHeight="1" spans="1:15">
+      <c r="A68" s="18"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="33"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="20"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="21"/>
+    </row>
+    <row r="69" ht="23" customHeight="1" spans="1:15">
+      <c r="A69" s="18"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="33"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="20"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="21"/>
+    </row>
+    <row r="70" ht="23" customHeight="1" spans="1:15">
+      <c r="A70" s="18"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="33"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="20"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="21"/>
+    </row>
+    <row r="71" ht="23" customHeight="1" spans="1:15">
+      <c r="A71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="20"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="21"/>
+    </row>
+    <row r="72" ht="23" customHeight="1" spans="1:15">
+      <c r="A72" s="18"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="33"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="20"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="21"/>
+    </row>
+    <row r="73" ht="23" customHeight="1" spans="1:15">
+      <c r="A73" s="18"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="33"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="20"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="21"/>
+    </row>
+    <row r="74" ht="23" customHeight="1" spans="1:15">
+      <c r="A74" s="18"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="33"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="20"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="21"/>
+    </row>
+    <row r="75" ht="23" customHeight="1" spans="1:15">
+      <c r="A75" s="18"/>
+      <c r="B75" s="19"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="33"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="20"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="21"/>
+    </row>
+    <row r="76" ht="23" customHeight="1" spans="1:15">
+      <c r="A76" s="18"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="33"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="20"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="21"/>
+    </row>
+    <row r="77" ht="23" customHeight="1" spans="1:15">
+      <c r="A77" s="18"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="33"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="20"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="21"/>
+    </row>
+    <row r="78" ht="23" customHeight="1" spans="1:15">
+      <c r="A78" s="18"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="33"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22"/>
+      <c r="M78" s="20"/>
+      <c r="N78" s="22"/>
+      <c r="O78" s="21"/>
+    </row>
+    <row r="79" ht="23" customHeight="1" spans="1:15">
+      <c r="A79" s="18"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="33"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="22"/>
+      <c r="M79" s="20"/>
+      <c r="N79" s="22"/>
+      <c r="O79" s="21"/>
+    </row>
+    <row r="80" ht="23" customHeight="1" spans="1:15">
+      <c r="A80" s="18"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="33"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="22"/>
+      <c r="M80" s="20"/>
+      <c r="N80" s="22"/>
+      <c r="O80" s="21"/>
+    </row>
+    <row r="81" ht="23" customHeight="1" spans="1:15">
+      <c r="A81" s="18"/>
+      <c r="B81" s="19"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="33"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
+      <c r="M81" s="20"/>
+      <c r="N81" s="22"/>
+      <c r="O81" s="21"/>
+    </row>
+    <row r="82" ht="23" customHeight="1" spans="1:15">
+      <c r="A82" s="18"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="33"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
+      <c r="M82" s="20"/>
+      <c r="N82" s="22"/>
+      <c r="O82" s="21"/>
+    </row>
+    <row r="83" ht="23" customHeight="1" spans="1:15">
+      <c r="A83" s="18"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="33"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22"/>
+      <c r="M83" s="20"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="21"/>
+    </row>
+    <row r="84" ht="23" customHeight="1" spans="1:15">
+      <c r="A84" s="18"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="33"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
+      <c r="M84" s="20"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="21"/>
+    </row>
+    <row r="85" ht="23" customHeight="1" spans="1:15">
+      <c r="A85" s="18"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="33"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22"/>
+      <c r="M85" s="20"/>
+      <c r="N85" s="22"/>
+      <c r="O85" s="21"/>
+    </row>
+    <row r="86" ht="23" customHeight="1" spans="1:15">
+      <c r="A86" s="18"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
+      <c r="M86" s="20"/>
+      <c r="N86" s="22"/>
+      <c r="O86" s="21"/>
+    </row>
+    <row r="87" ht="23" customHeight="1" spans="1:15">
+      <c r="A87" s="18"/>
+      <c r="B87" s="19"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="33"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="20"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="21"/>
+    </row>
+    <row r="88" ht="23" customHeight="1" spans="1:15">
+      <c r="A88" s="18"/>
+      <c r="B88" s="19"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="33"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22"/>
+      <c r="M88" s="20"/>
+      <c r="N88" s="22"/>
+      <c r="O88" s="21"/>
+    </row>
+    <row r="89" ht="23" customHeight="1" spans="1:15">
+      <c r="A89" s="18"/>
+      <c r="B89" s="19"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="33"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
+      <c r="M89" s="20"/>
+      <c r="N89" s="22"/>
+      <c r="O89" s="21"/>
+    </row>
+    <row r="90" ht="23" customHeight="1" spans="1:15">
+      <c r="A90" s="18"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="33"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
+      <c r="M90" s="20"/>
+      <c r="N90" s="22"/>
+      <c r="O90" s="21"/>
+    </row>
+    <row r="91" ht="23" customHeight="1" spans="1:15">
+      <c r="A91" s="18"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="33"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22"/>
+      <c r="M91" s="20"/>
+      <c r="N91" s="22"/>
+      <c r="O91" s="21"/>
+    </row>
+    <row r="92" ht="23" customHeight="1" spans="1:15">
+      <c r="A92" s="18"/>
+      <c r="B92" s="19"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="33"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
+      <c r="M92" s="20"/>
+      <c r="N92" s="22"/>
+      <c r="O92" s="21"/>
+    </row>
+    <row r="93" ht="23" customHeight="1" spans="1:15">
+      <c r="A93" s="18"/>
+      <c r="B93" s="19"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22"/>
+      <c r="M93" s="20"/>
+      <c r="N93" s="22"/>
+      <c r="O93" s="21"/>
+    </row>
+    <row r="94" ht="23" customHeight="1" spans="1:15">
+      <c r="A94" s="18"/>
+      <c r="B94" s="19"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="33"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22"/>
+      <c r="M94" s="20"/>
+      <c r="N94" s="22"/>
+      <c r="O94" s="21"/>
+    </row>
+    <row r="95" ht="23" customHeight="1" spans="1:15">
+      <c r="A95" s="18"/>
+      <c r="B95" s="19"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="33"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
+      <c r="M95" s="20"/>
+      <c r="N95" s="22"/>
+      <c r="O95" s="21"/>
+    </row>
+    <row r="96" ht="23" customHeight="1" spans="1:15">
+      <c r="A96" s="18"/>
+      <c r="B96" s="19"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="33"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
+      <c r="M96" s="20"/>
+      <c r="N96" s="22"/>
+      <c r="O96" s="21"/>
+    </row>
+    <row r="97" ht="23" customHeight="1" spans="1:15">
+      <c r="A97" s="18"/>
+      <c r="B97" s="19"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="33"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
+      <c r="M97" s="20"/>
+      <c r="N97" s="22"/>
+      <c r="O97" s="21"/>
+    </row>
+    <row r="98" ht="23" customHeight="1" spans="1:15">
+      <c r="A98" s="18"/>
+      <c r="B98" s="19"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="33"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
+      <c r="M98" s="20"/>
+      <c r="N98" s="22"/>
+      <c r="O98" s="21"/>
+    </row>
+    <row r="99" ht="23" customHeight="1" spans="1:15">
+      <c r="A99" s="18"/>
+      <c r="B99" s="19"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="33"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
+      <c r="M99" s="20"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="21"/>
+    </row>
+    <row r="100" ht="23" customHeight="1" spans="1:15">
+      <c r="A100" s="18"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
+      <c r="M100" s="20"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="21"/>
+    </row>
+    <row r="101" ht="23" customHeight="1" spans="1:15">
+      <c r="A101" s="18"/>
+      <c r="B101" s="19"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="33"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
+      <c r="M101" s="20"/>
+      <c r="N101" s="22"/>
+      <c r="O101" s="21"/>
+    </row>
+    <row r="102" ht="23" customHeight="1" spans="1:15">
+      <c r="A102" s="18"/>
+      <c r="B102" s="19"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="33"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
+      <c r="M102" s="20"/>
+      <c r="N102" s="22"/>
+      <c r="O102" s="21"/>
+    </row>
+    <row r="103" ht="23" customHeight="1" spans="1:15">
+      <c r="A103" s="18"/>
+      <c r="B103" s="19"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="33"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22"/>
+      <c r="M103" s="20"/>
+      <c r="N103" s="22"/>
+      <c r="O103" s="21"/>
+    </row>
+    <row r="104" ht="23" customHeight="1" spans="1:15">
+      <c r="A104" s="18"/>
+      <c r="B104" s="19"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="33"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22"/>
+      <c r="M104" s="20"/>
+      <c r="N104" s="22"/>
+      <c r="O104" s="21"/>
+    </row>
+    <row r="105" ht="23" customHeight="1" spans="1:15">
+      <c r="A105" s="18"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="33"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22"/>
+      <c r="M105" s="20"/>
+      <c r="N105" s="22"/>
+      <c r="O105" s="21"/>
+    </row>
+    <row r="106" ht="23" customHeight="1" spans="1:15">
+      <c r="A106" s="18"/>
+      <c r="B106" s="19"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="33"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22"/>
+      <c r="M106" s="20"/>
+      <c r="N106" s="22"/>
+      <c r="O106" s="21"/>
+    </row>
+    <row r="107" ht="23" customHeight="1" spans="1:15">
+      <c r="A107" s="18"/>
+      <c r="B107" s="19"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="33"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22"/>
+      <c r="M107" s="20"/>
+      <c r="N107" s="22"/>
+      <c r="O107" s="21"/>
+    </row>
+    <row r="108" ht="23" customHeight="1" spans="1:15">
+      <c r="A108" s="18"/>
+      <c r="B108" s="19"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="33"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="20"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="21"/>
+    </row>
+    <row r="109" ht="23" customHeight="1" spans="1:15">
+      <c r="A109" s="18"/>
+      <c r="B109" s="19"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="33"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22"/>
+      <c r="M109" s="20"/>
+      <c r="N109" s="22"/>
+      <c r="O109" s="21"/>
+    </row>
+    <row r="110" ht="23" customHeight="1" spans="1:15">
+      <c r="A110" s="18"/>
+      <c r="B110" s="19"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="33"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="20"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="21"/>
+    </row>
+    <row r="111" ht="23" customHeight="1" spans="1:15">
+      <c r="A111" s="18"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="33"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="20"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="21"/>
+    </row>
+    <row r="112" ht="23" customHeight="1" spans="1:15">
+      <c r="A112" s="18"/>
+      <c r="B112" s="19"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="33"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22"/>
+      <c r="M112" s="20"/>
+      <c r="N112" s="22"/>
+      <c r="O112" s="21"/>
+    </row>
+    <row r="113" ht="23" customHeight="1" spans="1:15">
+      <c r="A113" s="18"/>
+      <c r="B113" s="19"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="33"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22"/>
+      <c r="M113" s="20"/>
+      <c r="N113" s="22"/>
+      <c r="O113" s="21"/>
+    </row>
+    <row r="114" ht="23" customHeight="1" spans="1:15">
+      <c r="A114" s="18"/>
+      <c r="B114" s="19"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22"/>
+      <c r="M114" s="20"/>
+      <c r="N114" s="22"/>
+      <c r="O114" s="21"/>
+    </row>
+    <row r="115" ht="23" customHeight="1" spans="1:15">
+      <c r="A115" s="18"/>
+      <c r="B115" s="19"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="33"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
+      <c r="M115" s="20"/>
+      <c r="N115" s="22"/>
+      <c r="O115" s="21"/>
+    </row>
+    <row r="116" ht="23" customHeight="1" spans="1:15">
+      <c r="A116" s="18"/>
+      <c r="B116" s="19"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="33"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22"/>
+      <c r="M116" s="20"/>
+      <c r="N116" s="22"/>
+      <c r="O116" s="21"/>
+    </row>
+    <row r="117" ht="23" customHeight="1" spans="1:15">
+      <c r="A117" s="18"/>
+      <c r="B117" s="19"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="33"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22"/>
+      <c r="M117" s="20"/>
+      <c r="N117" s="22"/>
+      <c r="O117" s="21"/>
+    </row>
+    <row r="118" ht="23" customHeight="1" spans="1:15">
+      <c r="A118" s="18"/>
+      <c r="B118" s="19"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="33"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
+      <c r="M118" s="20"/>
+      <c r="N118" s="22"/>
+      <c r="O118" s="21"/>
+    </row>
+    <row r="119" ht="23" customHeight="1" spans="1:15">
+      <c r="A119" s="18"/>
+      <c r="B119" s="19"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="33"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
+      <c r="M119" s="20"/>
+      <c r="N119" s="22"/>
+      <c r="O119" s="21"/>
+    </row>
+    <row r="120" ht="23" customHeight="1" spans="1:15">
+      <c r="A120" s="18"/>
+      <c r="B120" s="19"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="25"/>
+      <c r="E120" s="25"/>
+      <c r="F120" s="25"/>
+      <c r="G120" s="25"/>
+      <c r="H120" s="25"/>
+      <c r="I120" s="25"/>
+      <c r="J120" s="33"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
+      <c r="M120" s="20"/>
+      <c r="N120" s="22"/>
+      <c r="O120" s="21"/>
+    </row>
+    <row r="121" ht="23" customHeight="1" spans="1:15">
+      <c r="A121" s="18"/>
+      <c r="B121" s="19"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="25"/>
+      <c r="E121" s="25"/>
+      <c r="F121" s="25"/>
+      <c r="G121" s="25"/>
+      <c r="H121" s="25"/>
+      <c r="I121" s="25"/>
+      <c r="J121" s="33"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
+      <c r="M121" s="20"/>
+      <c r="N121" s="22"/>
+      <c r="O121" s="21"/>
+    </row>
+    <row r="122" ht="23" customHeight="1" spans="1:15">
+      <c r="A122" s="18"/>
+      <c r="B122" s="19"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="25"/>
+      <c r="E122" s="25"/>
+      <c r="F122" s="25"/>
+      <c r="G122" s="25"/>
+      <c r="H122" s="25"/>
+      <c r="I122" s="25"/>
+      <c r="J122" s="33"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
+      <c r="M122" s="20"/>
+      <c r="N122" s="22"/>
+      <c r="O122" s="21"/>
+    </row>
+    <row r="123" ht="23" customHeight="1" spans="1:15">
+      <c r="A123" s="18"/>
+      <c r="B123" s="19"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+      <c r="F123" s="25"/>
+      <c r="G123" s="25"/>
+      <c r="H123" s="25"/>
+      <c r="I123" s="25"/>
+      <c r="J123" s="33"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
+      <c r="M123" s="20"/>
+      <c r="N123" s="22"/>
+      <c r="O123" s="21"/>
+    </row>
+    <row r="124" ht="23" customHeight="1" spans="1:15">
+      <c r="A124" s="18"/>
+      <c r="B124" s="19"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+      <c r="F124" s="25"/>
+      <c r="G124" s="25"/>
+      <c r="H124" s="25"/>
+      <c r="I124" s="25"/>
+      <c r="J124" s="33"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22"/>
+      <c r="M124" s="20"/>
+      <c r="N124" s="22"/>
+      <c r="O124" s="21"/>
+    </row>
+    <row r="125" ht="23" customHeight="1" spans="1:15">
+      <c r="A125" s="18"/>
+      <c r="B125" s="19"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+      <c r="F125" s="25"/>
+      <c r="G125" s="25"/>
+      <c r="H125" s="25"/>
+      <c r="I125" s="25"/>
+      <c r="J125" s="33"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="20"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="21"/>
+    </row>
+    <row r="126" ht="23" customHeight="1" spans="1:15">
+      <c r="A126" s="18"/>
+      <c r="B126" s="19"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+      <c r="F126" s="25"/>
+      <c r="G126" s="25"/>
+      <c r="H126" s="25"/>
+      <c r="I126" s="25"/>
+      <c r="J126" s="33"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
+      <c r="M126" s="20"/>
+      <c r="N126" s="22"/>
+      <c r="O126" s="21"/>
+    </row>
+    <row r="127" ht="23" customHeight="1" spans="1:15">
+      <c r="A127" s="18"/>
+      <c r="B127" s="19"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+      <c r="F127" s="25"/>
+      <c r="G127" s="25"/>
+      <c r="H127" s="25"/>
+      <c r="I127" s="25"/>
+      <c r="J127" s="33"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
+      <c r="M127" s="20"/>
+      <c r="N127" s="22"/>
+      <c r="O127" s="21"/>
+    </row>
+    <row r="128" ht="23" customHeight="1" spans="1:15">
+      <c r="A128" s="18"/>
+      <c r="B128" s="19"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+      <c r="F128" s="25"/>
+      <c r="G128" s="25"/>
+      <c r="H128" s="25"/>
+      <c r="I128" s="25"/>
+      <c r="J128" s="33"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="22"/>
+      <c r="M128" s="20"/>
+      <c r="N128" s="22"/>
+      <c r="O128" s="21"/>
+    </row>
+    <row r="129" ht="23" customHeight="1" spans="1:15">
+      <c r="A129" s="18"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+      <c r="I129" s="25"/>
+      <c r="J129" s="33"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="22"/>
+      <c r="M129" s="20"/>
+      <c r="N129" s="22"/>
+      <c r="O129" s="21"/>
+    </row>
+    <row r="130" ht="23" customHeight="1" spans="1:15">
+      <c r="A130" s="18"/>
+      <c r="B130" s="19"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="25"/>
+      <c r="G130" s="25"/>
+      <c r="H130" s="25"/>
+      <c r="I130" s="25"/>
+      <c r="J130" s="33"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="22"/>
+      <c r="M130" s="20"/>
+      <c r="N130" s="22"/>
+      <c r="O130" s="21"/>
+    </row>
+    <row r="131" ht="23" customHeight="1" spans="1:15">
+      <c r="A131" s="18"/>
+      <c r="B131" s="19"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+      <c r="F131" s="25"/>
+      <c r="G131" s="25"/>
+      <c r="H131" s="25"/>
+      <c r="I131" s="25"/>
+      <c r="J131" s="33"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
+      <c r="M131" s="20"/>
+      <c r="N131" s="22"/>
+      <c r="O131" s="21"/>
+    </row>
+    <row r="132" ht="23" customHeight="1" spans="1:15">
+      <c r="A132" s="18"/>
+      <c r="B132" s="19"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="25"/>
+      <c r="G132" s="25"/>
+      <c r="H132" s="25"/>
+      <c r="I132" s="25"/>
+      <c r="J132" s="33"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
+      <c r="M132" s="20"/>
+      <c r="N132" s="22"/>
+      <c r="O132" s="21"/>
+    </row>
+    <row r="133" ht="23" customHeight="1" spans="1:15">
+      <c r="A133" s="18"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+      <c r="F133" s="25"/>
+      <c r="G133" s="25"/>
+      <c r="H133" s="25"/>
+      <c r="I133" s="25"/>
+      <c r="J133" s="33"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="22"/>
+      <c r="M133" s="20"/>
+      <c r="N133" s="22"/>
+      <c r="O133" s="21"/>
+    </row>
+    <row r="134" ht="23" customHeight="1" spans="1:15">
+      <c r="A134" s="18"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+      <c r="F134" s="25"/>
+      <c r="G134" s="25"/>
+      <c r="H134" s="25"/>
+      <c r="I134" s="25"/>
+      <c r="J134" s="33"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22"/>
+      <c r="M134" s="20"/>
+      <c r="N134" s="22"/>
+      <c r="O134" s="21"/>
+    </row>
+    <row r="135" ht="23" customHeight="1" spans="1:15">
+      <c r="A135" s="18"/>
+      <c r="B135" s="19"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+      <c r="F135" s="25"/>
+      <c r="G135" s="25"/>
+      <c r="H135" s="25"/>
+      <c r="I135" s="25"/>
+      <c r="J135" s="33"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22"/>
+      <c r="M135" s="20"/>
+      <c r="N135" s="22"/>
+      <c r="O135" s="21"/>
+    </row>
+    <row r="136" ht="23" customHeight="1" spans="1:15">
+      <c r="A136" s="18"/>
+      <c r="B136" s="19"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+      <c r="F136" s="25"/>
+      <c r="G136" s="25"/>
+      <c r="H136" s="25"/>
+      <c r="I136" s="25"/>
+      <c r="J136" s="33"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22"/>
+      <c r="M136" s="20"/>
+      <c r="N136" s="22"/>
+      <c r="O136" s="21"/>
+    </row>
+    <row r="137" ht="23" customHeight="1" spans="1:15">
+      <c r="A137" s="18"/>
+      <c r="B137" s="19"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+      <c r="F137" s="25"/>
+      <c r="G137" s="25"/>
+      <c r="H137" s="25"/>
+      <c r="I137" s="25"/>
+      <c r="J137" s="33"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22"/>
+      <c r="M137" s="20"/>
+      <c r="N137" s="22"/>
+      <c r="O137" s="21"/>
+    </row>
+    <row r="138" ht="23" customHeight="1" spans="1:15">
+      <c r="A138" s="18"/>
+      <c r="B138" s="19"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+      <c r="F138" s="25"/>
+      <c r="G138" s="25"/>
+      <c r="H138" s="25"/>
+      <c r="I138" s="25"/>
+      <c r="J138" s="33"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22"/>
+      <c r="M138" s="20"/>
+      <c r="N138" s="22"/>
+      <c r="O138" s="21"/>
+    </row>
+    <row r="139" ht="23" customHeight="1" spans="1:15">
+      <c r="A139" s="18"/>
+      <c r="B139" s="19"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+      <c r="F139" s="25"/>
+      <c r="G139" s="25"/>
+      <c r="H139" s="25"/>
+      <c r="I139" s="25"/>
+      <c r="J139" s="33"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22"/>
+      <c r="M139" s="20"/>
+      <c r="N139" s="22"/>
+      <c r="O139" s="21"/>
+    </row>
+    <row r="140" ht="23" customHeight="1" spans="1:15">
+      <c r="A140" s="18"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+      <c r="F140" s="25"/>
+      <c r="G140" s="25"/>
+      <c r="H140" s="25"/>
+      <c r="I140" s="25"/>
+      <c r="J140" s="33"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22"/>
+      <c r="M140" s="20"/>
+      <c r="N140" s="22"/>
+      <c r="O140" s="21"/>
+    </row>
+    <row r="141" ht="23" customHeight="1" spans="1:15">
+      <c r="A141" s="18"/>
+      <c r="B141" s="19"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+      <c r="F141" s="25"/>
+      <c r="G141" s="25"/>
+      <c r="H141" s="25"/>
+      <c r="I141" s="25"/>
+      <c r="J141" s="33"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22"/>
+      <c r="M141" s="20"/>
+      <c r="N141" s="22"/>
+      <c r="O141" s="21"/>
+    </row>
+    <row r="142" ht="23" customHeight="1" spans="1:15">
+      <c r="A142" s="18"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+      <c r="F142" s="25"/>
+      <c r="G142" s="25"/>
+      <c r="H142" s="25"/>
+      <c r="I142" s="25"/>
+      <c r="J142" s="33"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22"/>
+      <c r="M142" s="20"/>
+      <c r="N142" s="22"/>
+      <c r="O142" s="21"/>
+    </row>
+    <row r="143" ht="23" customHeight="1" spans="1:15">
+      <c r="A143" s="18"/>
+      <c r="B143" s="19"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="25"/>
+      <c r="G143" s="25"/>
+      <c r="H143" s="25"/>
+      <c r="I143" s="25"/>
+      <c r="J143" s="33"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
+      <c r="M143" s="20"/>
+      <c r="N143" s="22"/>
+      <c r="O143" s="21"/>
+    </row>
+    <row r="144" ht="23" customHeight="1" spans="1:15">
+      <c r="A144" s="18"/>
+      <c r="B144" s="19"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+      <c r="F144" s="25"/>
+      <c r="G144" s="25"/>
+      <c r="H144" s="25"/>
+      <c r="I144" s="25"/>
+      <c r="J144" s="33"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="22"/>
+      <c r="M144" s="20"/>
+      <c r="N144" s="22"/>
+      <c r="O144" s="21"/>
+    </row>
+    <row r="145" ht="23" customHeight="1" spans="1:15">
+      <c r="A145" s="18"/>
+      <c r="B145" s="19"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="25"/>
+      <c r="G145" s="25"/>
+      <c r="H145" s="25"/>
+      <c r="I145" s="25"/>
+      <c r="J145" s="33"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="22"/>
+      <c r="M145" s="20"/>
+      <c r="N145" s="22"/>
+      <c r="O145" s="21"/>
+    </row>
+    <row r="146" ht="23" customHeight="1" spans="1:15">
+      <c r="A146" s="18"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+      <c r="F146" s="25"/>
+      <c r="G146" s="25"/>
+      <c r="H146" s="25"/>
+      <c r="I146" s="25"/>
+      <c r="J146" s="33"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22"/>
+      <c r="M146" s="20"/>
+      <c r="N146" s="22"/>
+      <c r="O146" s="21"/>
+    </row>
+    <row r="147" ht="23" customHeight="1" spans="1:15">
+      <c r="A147" s="18"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25"/>
+      <c r="F147" s="25"/>
+      <c r="G147" s="25"/>
+      <c r="H147" s="25"/>
+      <c r="I147" s="25"/>
+      <c r="J147" s="33"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
+      <c r="M147" s="20"/>
+      <c r="N147" s="22"/>
+      <c r="O147" s="21"/>
+    </row>
+    <row r="148" ht="23" customHeight="1" spans="1:15">
+      <c r="A148" s="18"/>
+      <c r="B148" s="19"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25"/>
+      <c r="F148" s="25"/>
+      <c r="G148" s="25"/>
+      <c r="H148" s="25"/>
+      <c r="I148" s="25"/>
+      <c r="J148" s="33"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="22"/>
+      <c r="M148" s="20"/>
+      <c r="N148" s="22"/>
+      <c r="O148" s="21"/>
+    </row>
+    <row r="149" ht="23" customHeight="1" spans="1:15">
+      <c r="A149" s="18"/>
+      <c r="B149" s="19"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25"/>
+      <c r="F149" s="25"/>
+      <c r="G149" s="25"/>
+      <c r="H149" s="25"/>
+      <c r="I149" s="25"/>
+      <c r="J149" s="33"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="22"/>
+      <c r="M149" s="20"/>
+      <c r="N149" s="22"/>
+      <c r="O149" s="21"/>
+    </row>
+    <row r="150" ht="23" customHeight="1" spans="1:15">
+      <c r="A150" s="18"/>
+      <c r="B150" s="19"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="25"/>
+      <c r="E150" s="25"/>
+      <c r="F150" s="25"/>
+      <c r="G150" s="25"/>
+      <c r="H150" s="25"/>
+      <c r="I150" s="25"/>
+      <c r="J150" s="33"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="22"/>
+      <c r="M150" s="20"/>
+      <c r="N150" s="22"/>
+      <c r="O150" s="21"/>
+    </row>
+    <row r="151" ht="23" customHeight="1" spans="1:15">
+      <c r="A151" s="18"/>
+      <c r="B151" s="19"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="25"/>
+      <c r="E151" s="25"/>
+      <c r="F151" s="25"/>
+      <c r="G151" s="25"/>
+      <c r="H151" s="25"/>
+      <c r="I151" s="25"/>
+      <c r="J151" s="33"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="20"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="21"/>
+    </row>
+    <row r="152" ht="23" customHeight="1" spans="1:15">
+      <c r="A152" s="18"/>
+      <c r="B152" s="19"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="25"/>
+      <c r="E152" s="25"/>
+      <c r="F152" s="25"/>
+      <c r="G152" s="25"/>
+      <c r="H152" s="25"/>
+      <c r="I152" s="25"/>
+      <c r="J152" s="33"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="20"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="21"/>
+    </row>
+    <row r="153" ht="23" customHeight="1" spans="1:15">
+      <c r="A153" s="18"/>
+      <c r="B153" s="19"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="25"/>
+      <c r="F153" s="25"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="33"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="20"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="21"/>
+    </row>
+    <row r="154" ht="23" customHeight="1" spans="1:15">
+      <c r="A154" s="18"/>
+      <c r="B154" s="19"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="25"/>
+      <c r="F154" s="25"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="33"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="20"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="21"/>
+    </row>
+    <row r="155" ht="23" customHeight="1" spans="1:15">
+      <c r="A155" s="18"/>
+      <c r="B155" s="19"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="25"/>
+      <c r="F155" s="25"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="33"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="20"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="21"/>
+    </row>
+    <row r="156" ht="23" customHeight="1" spans="1:15">
+      <c r="A156" s="18"/>
+      <c r="B156" s="19"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="25"/>
+      <c r="F156" s="25"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="33"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="20"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="21"/>
+    </row>
+    <row r="157" ht="23" customHeight="1" spans="1:15">
+      <c r="A157" s="18"/>
+      <c r="B157" s="19"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="25"/>
+      <c r="F157" s="25"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="33"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="22"/>
+      <c r="M157" s="20"/>
+      <c r="N157" s="22"/>
+      <c r="O157" s="21"/>
+    </row>
+    <row r="158" ht="23" customHeight="1" spans="1:15">
+      <c r="A158" s="18"/>
+      <c r="B158" s="19"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="25"/>
+      <c r="F158" s="25"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="33"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22"/>
+      <c r="M158" s="20"/>
+      <c r="N158" s="22"/>
+      <c r="O158" s="21"/>
+    </row>
+    <row r="159" ht="23" customHeight="1" spans="1:15">
+      <c r="A159" s="18"/>
+      <c r="B159" s="19"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="25"/>
+      <c r="F159" s="25"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="33"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="22"/>
+      <c r="M159" s="20"/>
+      <c r="N159" s="22"/>
+      <c r="O159" s="21"/>
+    </row>
+    <row r="160" ht="23" customHeight="1" spans="1:15">
+      <c r="A160" s="18"/>
+      <c r="B160" s="19"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="25"/>
+      <c r="F160" s="25"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="33"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="22"/>
+      <c r="M160" s="20"/>
+      <c r="N160" s="22"/>
+      <c r="O160" s="21"/>
+    </row>
+    <row r="161" ht="23" customHeight="1" spans="1:15">
+      <c r="A161" s="18"/>
+      <c r="B161" s="19"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="25"/>
+      <c r="F161" s="25"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="33"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="22"/>
+      <c r="M161" s="20"/>
+      <c r="N161" s="22"/>
+      <c r="O161" s="21"/>
+    </row>
+    <row r="162" ht="23" customHeight="1" spans="1:15">
+      <c r="A162" s="18"/>
+      <c r="B162" s="19"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="25"/>
+      <c r="F162" s="25"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="33"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="22"/>
+      <c r="M162" s="20"/>
+      <c r="N162" s="22"/>
+      <c r="O162" s="21"/>
+    </row>
+    <row r="163" ht="23" customHeight="1" spans="1:15">
+      <c r="A163" s="18"/>
+      <c r="B163" s="19"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="25"/>
+      <c r="E163" s="25"/>
+      <c r="F163" s="25"/>
+      <c r="G163" s="25"/>
+      <c r="H163" s="25"/>
+      <c r="I163" s="25"/>
+      <c r="J163" s="33"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="22"/>
+      <c r="M163" s="20"/>
+      <c r="N163" s="22"/>
+      <c r="O163" s="21"/>
+    </row>
+    <row r="164" ht="23" customHeight="1" spans="1:15">
+      <c r="A164" s="18"/>
+      <c r="B164" s="19"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="25"/>
+      <c r="E164" s="25"/>
+      <c r="F164" s="25"/>
+      <c r="G164" s="25"/>
+      <c r="H164" s="25"/>
+      <c r="I164" s="25"/>
+      <c r="J164" s="33"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="22"/>
+      <c r="M164" s="20"/>
+      <c r="N164" s="22"/>
+      <c r="O164" s="21"/>
+    </row>
+    <row r="165" ht="23" customHeight="1" spans="1:15">
+      <c r="A165" s="18"/>
+      <c r="B165" s="19"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="25"/>
+      <c r="E165" s="25"/>
+      <c r="F165" s="25"/>
+      <c r="G165" s="25"/>
+      <c r="H165" s="25"/>
+      <c r="I165" s="25"/>
+      <c r="J165" s="33"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
+      <c r="M165" s="20"/>
+      <c r="N165" s="22"/>
+      <c r="O165" s="21"/>
+    </row>
+    <row r="166" ht="23" customHeight="1" spans="1:15">
+      <c r="A166" s="18"/>
+      <c r="B166" s="19"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="25"/>
+      <c r="E166" s="25"/>
+      <c r="F166" s="25"/>
+      <c r="G166" s="25"/>
+      <c r="H166" s="25"/>
+      <c r="I166" s="25"/>
+      <c r="J166" s="33"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
+      <c r="M166" s="20"/>
+      <c r="N166" s="22"/>
+      <c r="O166" s="21"/>
+    </row>
+    <row r="167" ht="23" customHeight="1" spans="1:15">
+      <c r="A167" s="18"/>
+      <c r="B167" s="19"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="25"/>
+      <c r="E167" s="25"/>
+      <c r="F167" s="25"/>
+      <c r="G167" s="25"/>
+      <c r="H167" s="25"/>
+      <c r="I167" s="25"/>
+      <c r="J167" s="33"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
+      <c r="M167" s="20"/>
+      <c r="N167" s="22"/>
+      <c r="O167" s="21"/>
+    </row>
+    <row r="168" ht="23" customHeight="1" spans="1:15">
+      <c r="A168" s="18"/>
+      <c r="B168" s="19"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="25"/>
+      <c r="E168" s="25"/>
+      <c r="F168" s="25"/>
+      <c r="G168" s="25"/>
+      <c r="H168" s="25"/>
+      <c r="I168" s="25"/>
+      <c r="J168" s="33"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
+      <c r="M168" s="20"/>
+      <c r="N168" s="22"/>
+      <c r="O168" s="21"/>
+    </row>
+    <row r="169" ht="23" customHeight="1" spans="1:15">
+      <c r="A169" s="18"/>
+      <c r="B169" s="19"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="25"/>
+      <c r="E169" s="25"/>
+      <c r="F169" s="25"/>
+      <c r="G169" s="25"/>
+      <c r="H169" s="25"/>
+      <c r="I169" s="25"/>
+      <c r="J169" s="33"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
+      <c r="M169" s="20"/>
+      <c r="N169" s="22"/>
+      <c r="O169" s="21"/>
+    </row>
+    <row r="170" ht="23" customHeight="1" spans="1:15">
+      <c r="A170" s="18"/>
+      <c r="B170" s="19"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="25"/>
+      <c r="E170" s="25"/>
+      <c r="F170" s="25"/>
+      <c r="G170" s="25"/>
+      <c r="H170" s="25"/>
+      <c r="I170" s="25"/>
+      <c r="J170" s="33"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
+      <c r="M170" s="20"/>
+      <c r="N170" s="22"/>
+      <c r="O170" s="21"/>
+    </row>
+    <row r="171" ht="23" customHeight="1" spans="1:15">
+      <c r="A171" s="18"/>
+      <c r="B171" s="19"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="25"/>
+      <c r="E171" s="25"/>
+      <c r="F171" s="25"/>
+      <c r="G171" s="25"/>
+      <c r="H171" s="25"/>
+      <c r="I171" s="25"/>
+      <c r="J171" s="33"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
+      <c r="M171" s="20"/>
+      <c r="N171" s="22"/>
+      <c r="O171" s="21"/>
+    </row>
+    <row r="172" ht="23" customHeight="1" spans="1:15">
+      <c r="A172" s="18"/>
+      <c r="B172" s="19"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="25"/>
+      <c r="E172" s="25"/>
+      <c r="F172" s="25"/>
+      <c r="G172" s="25"/>
+      <c r="H172" s="25"/>
+      <c r="I172" s="25"/>
+      <c r="J172" s="33"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="22"/>
+      <c r="M172" s="20"/>
+      <c r="N172" s="22"/>
+      <c r="O172" s="21"/>
+    </row>
+    <row r="173" ht="23" customHeight="1" spans="1:15">
+      <c r="A173" s="18"/>
+      <c r="B173" s="19"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="25"/>
+      <c r="E173" s="25"/>
+      <c r="F173" s="25"/>
+      <c r="G173" s="25"/>
+      <c r="H173" s="25"/>
+      <c r="I173" s="25"/>
+      <c r="J173" s="33"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="22"/>
+      <c r="M173" s="20"/>
+      <c r="N173" s="22"/>
+      <c r="O173" s="21"/>
+    </row>
+    <row r="174" ht="23" customHeight="1" spans="1:15">
+      <c r="A174" s="18"/>
+      <c r="B174" s="19"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="25"/>
+      <c r="E174" s="25"/>
+      <c r="F174" s="25"/>
+      <c r="G174" s="25"/>
+      <c r="H174" s="25"/>
+      <c r="I174" s="25"/>
+      <c r="J174" s="33"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="22"/>
+      <c r="M174" s="20"/>
+      <c r="N174" s="22"/>
+      <c r="O174" s="21"/>
+    </row>
+    <row r="175" ht="23" customHeight="1" spans="1:15">
+      <c r="A175" s="18"/>
+      <c r="B175" s="19"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="25"/>
+      <c r="E175" s="25"/>
+      <c r="F175" s="25"/>
+      <c r="G175" s="25"/>
+      <c r="H175" s="25"/>
+      <c r="I175" s="25"/>
+      <c r="J175" s="33"/>
+      <c r="K175" s="21"/>
+      <c r="L175" s="22"/>
+      <c r="M175" s="20"/>
+      <c r="N175" s="22"/>
+      <c r="O175" s="21"/>
+    </row>
+    <row r="176" ht="23" customHeight="1" spans="1:15">
+      <c r="A176" s="18"/>
+      <c r="B176" s="19"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="25"/>
+      <c r="E176" s="25"/>
+      <c r="F176" s="25"/>
+      <c r="G176" s="25"/>
+      <c r="H176" s="25"/>
+      <c r="I176" s="25"/>
+      <c r="J176" s="33"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="22"/>
+      <c r="M176" s="20"/>
+      <c r="N176" s="22"/>
+      <c r="O176" s="21"/>
+    </row>
+    <row r="177" ht="23" customHeight="1" spans="1:15">
+      <c r="A177" s="18"/>
+      <c r="B177" s="19"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="25"/>
+      <c r="E177" s="25"/>
+      <c r="F177" s="25"/>
+      <c r="G177" s="25"/>
+      <c r="H177" s="25"/>
+      <c r="I177" s="25"/>
+      <c r="J177" s="33"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="22"/>
+      <c r="M177" s="20"/>
+      <c r="N177" s="22"/>
+      <c r="O177" s="21"/>
+    </row>
+    <row r="178" ht="23" customHeight="1" spans="1:15">
+      <c r="A178" s="18"/>
+      <c r="B178" s="19"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="25"/>
+      <c r="E178" s="25"/>
+      <c r="F178" s="25"/>
+      <c r="G178" s="25"/>
+      <c r="H178" s="25"/>
+      <c r="I178" s="25"/>
+      <c r="J178" s="33"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="22"/>
+      <c r="M178" s="20"/>
+      <c r="N178" s="22"/>
+      <c r="O178" s="21"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="L2:O2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="N79:N178">
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1 N3:N78">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7:D178">
+      <formula1>INDIRECT(C5)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C178">
+      <formula1>target</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/test/resources/unittesting/artifact/script/unitTest_word.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_word.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -16,12 +16,12 @@
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
-    <definedName name="base">'#system'!$F$2:$F$45</definedName>
+    <definedName name="base">'#system'!$F$2:$F$47</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$16</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
     <definedName name="external">'#system'!$J$2:$J$7</definedName>
     <definedName name="image">'#system'!$K$2:$K$8</definedName>
     <definedName name="io">'#system'!$L$2:$L$32</definedName>
@@ -42,23 +42,24 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$33</definedName>
+    <definedName name="target">'#system'!$A$2:$A$34</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
     <definedName name="tn.5250">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$151</definedName>
+    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
     <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AE$2:$AE$17</definedName>
-    <definedName name="ws.async">'#system'!$AF$2:$AF$8</definedName>
-    <definedName name="xml">'#system'!$AG$2:$AG$27</definedName>
-    <definedName name="word">'#system'!$AD$2:$AD$9</definedName>
+    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
+    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
+    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
+    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
+    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="685">
   <si>
     <t>target</t>
   </si>
@@ -2047,18 +2048,102 @@
   <si>
     <t>remove protected</t>
   </si>
+  <si>
+    <t>webmail</t>
+  </si>
+  <si>
+    <t>assertVarsNotPresent(vars)</t>
+  </si>
+  <si>
+    <t>assertVarsPresent(vars)</t>
+  </si>
+  <si>
+    <t>check(name)</t>
+  </si>
+  <si>
+    <t>checkByLocator(locator)</t>
+  </si>
+  <si>
+    <t>clickMenuByLocator(locator,menu)</t>
+  </si>
+  <si>
+    <t>contextMenu(name,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>contextMenuByLocator(locator,menu,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>doubleClick(name)</t>
+  </si>
+  <si>
+    <t>doubleClickByLocator(locator)</t>
+  </si>
+  <si>
+    <t>rightClickElementOffset(name,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>rightClickOffset(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>saveAllTableRows(var,csv)</t>
+  </si>
+  <si>
+    <t>saveComboOptions(var,name)</t>
+  </si>
+  <si>
+    <t>saveComboOptionsByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>saveTableRows(var,contains,csv)</t>
+  </si>
+  <si>
+    <t>saveTableRowsRange(var,beginRow,endRow,csv)</t>
+  </si>
+  <si>
+    <t>screenshot(name,file)</t>
+  </si>
+  <si>
+    <t>screenshotByLocator(locator,file)</t>
+  </si>
+  <si>
+    <t>uncheck(name)</t>
+  </si>
+  <si>
+    <t>uncheckByLocator(locator)</t>
+  </si>
+  <si>
+    <t>renameSheet(file,worksheet,newName)</t>
+  </si>
+  <si>
+    <t>xls2xlsx(xlsFile,xlsxFile)</t>
+  </si>
+  <si>
+    <t>assertLocation(search)</t>
+  </si>
+  <si>
+    <t>openInTab(name,url)</t>
+  </si>
+  <si>
+    <t>delete(profile,id)</t>
+  </si>
+  <si>
+    <t>read(var,profile,id)</t>
+  </si>
+  <si>
+    <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="44">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2256,8 +2341,115 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="59">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2460,6 +2652,142 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2745,7 +3073,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2865,6 +3193,57 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -3225,18 +3604,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AI153"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0" tabSelected="false">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
+    <col min="1" max="18" customWidth="true" width="8.33333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3325,19 +3704,22 @@
         <v>28</v>
       </c>
       <c r="AD1" t="s">
+        <v>657</v>
+      </c>
+      <c r="AE1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:33">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3426,19 +3808,22 @@
         <v>60</v>
       </c>
       <c r="AD2" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE2" t="s">
         <v>61</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AG2" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AH2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:33">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3521,19 +3906,22 @@
         <v>90</v>
       </c>
       <c r="AD3" t="s">
+        <v>683</v>
+      </c>
+      <c r="AE3" t="s">
         <v>91</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>92</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AG3" t="s">
         <v>93</v>
       </c>
-      <c r="AG3" t="s">
+      <c r="AH3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:33">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3613,19 +4001,22 @@
         <v>119</v>
       </c>
       <c r="AD4" t="s">
+        <v>684</v>
+      </c>
+      <c r="AE4" t="s">
         <v>120</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AG4" t="s">
         <v>121</v>
       </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="5" spans="1:33">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -3692,20 +4083,20 @@
       <c r="AC5" t="s">
         <v>143</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>144</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
         <v>145</v>
       </c>
-      <c r="AF5" t="s">
+      <c r="AG5" t="s">
         <v>146</v>
       </c>
-      <c r="AG5" t="s">
+      <c r="AH5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:33">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -3766,20 +4157,20 @@
       <c r="AC6" t="s">
         <v>166</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>167</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>168</v>
       </c>
-      <c r="AF6" t="s">
+      <c r="AG6" t="s">
         <v>169</v>
       </c>
-      <c r="AG6" t="s">
+      <c r="AH6" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7" spans="1:33">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -3834,20 +4225,20 @@
       <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>187</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>188</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AG7" t="s">
         <v>189</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AH7" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="8" spans="1:33">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -3861,7 +4252,7 @@
         <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>194</v>
+        <v>678</v>
       </c>
       <c r="K8" t="s">
         <v>195</v>
@@ -3899,20 +4290,20 @@
       <c r="AC8" t="s">
         <v>205</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>206</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AF8" t="s">
         <v>207</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AG8" t="s">
         <v>208</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AH8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="9" spans="1:33">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3926,7 +4317,7 @@
         <v>212</v>
       </c>
       <c r="I9" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="L9" t="s">
         <v>214</v>
@@ -3958,17 +4349,17 @@
       <c r="AC9" t="s">
         <v>223</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>224</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>225</v>
       </c>
-      <c r="AG9" t="s">
+      <c r="AH9" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:33">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3979,7 +4370,7 @@
         <v>227</v>
       </c>
       <c r="I10" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="L10" t="s">
         <v>229</v>
@@ -4005,14 +4396,14 @@
       <c r="AC10" t="s">
         <v>236</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AF10" t="s">
         <v>237</v>
       </c>
-      <c r="AG10" t="s">
+      <c r="AH10" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="11" spans="1:33">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4023,7 +4414,7 @@
         <v>240</v>
       </c>
       <c r="I11" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="L11" t="s">
         <v>242</v>
@@ -4043,14 +4434,14 @@
       <c r="AA11" t="s">
         <v>247</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AF11" t="s">
         <v>248</v>
       </c>
-      <c r="AG11" t="s">
+      <c r="AH11" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="12" spans="1:33">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4452,7 @@
         <v>251</v>
       </c>
       <c r="I12" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="L12" t="s">
         <v>253</v>
@@ -4081,14 +4472,14 @@
       <c r="AA12" t="s">
         <v>258</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AF12" t="s">
         <v>259</v>
       </c>
-      <c r="AG12" t="s">
+      <c r="AH12" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:33">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -4099,7 +4490,7 @@
         <v>262</v>
       </c>
       <c r="I13" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="L13" t="s">
         <v>264</v>
@@ -4119,14 +4510,14 @@
       <c r="AA13" t="s">
         <v>269</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AF13" t="s">
         <v>270</v>
       </c>
-      <c r="AG13" t="s">
+      <c r="AH13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="14" spans="1:33">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -4137,7 +4528,7 @@
         <v>272</v>
       </c>
       <c r="I14" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="L14" t="s">
         <v>274</v>
@@ -4154,14 +4545,14 @@
       <c r="AA14" t="s">
         <v>278</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AF14" t="s">
         <v>279</v>
       </c>
-      <c r="AG14" t="s">
+      <c r="AH14" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="15" spans="1:33">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -4172,7 +4563,7 @@
         <v>282</v>
       </c>
       <c r="I15" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="L15" t="s">
         <v>284</v>
@@ -4189,14 +4580,14 @@
       <c r="AA15" t="s">
         <v>288</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>289</v>
       </c>
-      <c r="AG15" t="s">
+      <c r="AH15" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:33">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4598,7 @@
         <v>292</v>
       </c>
       <c r="I16" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="L16" t="s">
         <v>294</v>
@@ -4224,14 +4615,14 @@
       <c r="AA16" t="s">
         <v>298</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AF16" t="s">
         <v>299</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AH16" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -4241,6 +4632,9 @@
       <c r="H17" t="s">
         <v>302</v>
       </c>
+      <c r="I17" t="s">
+        <v>293</v>
+      </c>
       <c r="L17" t="s">
         <v>303</v>
       </c>
@@ -4253,14 +4647,14 @@
       <c r="AA17" t="s">
         <v>306</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AF17" t="s">
         <v>307</v>
       </c>
-      <c r="AG17" t="s">
+      <c r="AH17" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -4270,6 +4664,9 @@
       <c r="H18" t="s">
         <v>310</v>
       </c>
+      <c r="I18" t="s">
+        <v>679</v>
+      </c>
       <c r="L18" t="s">
         <v>311</v>
       </c>
@@ -4282,16 +4679,16 @@
       <c r="AA18" t="s">
         <v>314</v>
       </c>
-      <c r="AG18" t="s">
+      <c r="AH18" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>316</v>
+        <v>658</v>
       </c>
       <c r="H19" t="s">
         <v>317</v>
@@ -4305,16 +4702,16 @@
       <c r="AA19" t="s">
         <v>320</v>
       </c>
-      <c r="AG19" t="s">
+      <c r="AH19" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>322</v>
+        <v>659</v>
       </c>
       <c r="H20" t="s">
         <v>323</v>
@@ -4328,16 +4725,16 @@
       <c r="AA20" t="s">
         <v>326</v>
       </c>
-      <c r="AG20" t="s">
+      <c r="AH20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="H21" t="s">
         <v>329</v>
@@ -4351,16 +4748,16 @@
       <c r="AA21" t="s">
         <v>332</v>
       </c>
-      <c r="AG21" t="s">
+      <c r="AH21" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="F22" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="H22" t="s">
         <v>335</v>
@@ -4371,16 +4768,16 @@
       <c r="AA22" t="s">
         <v>337</v>
       </c>
-      <c r="AG22" t="s">
+      <c r="AH22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="H23" t="s">
         <v>340</v>
@@ -4391,16 +4788,16 @@
       <c r="AA23" t="s">
         <v>342</v>
       </c>
-      <c r="AG23" t="s">
+      <c r="AH23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="H24" t="s">
         <v>345</v>
@@ -4411,16 +4808,16 @@
       <c r="AA24" t="s">
         <v>347</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AH24" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="H25" t="s">
         <v>350</v>
@@ -4431,967 +4828,1025 @@
       <c r="AA25" t="s">
         <v>352</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AH25" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="H26" t="s">
-        <v>355</v>
+        <v>660</v>
       </c>
       <c r="L26" t="s">
         <v>356</v>
       </c>
       <c r="AA26" t="s">
-        <v>357</v>
-      </c>
-      <c r="AG26" t="s">
+        <v>680</v>
+      </c>
+      <c r="AH26" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="F27" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="H27" t="s">
-        <v>360</v>
+        <v>661</v>
       </c>
       <c r="L27" t="s">
         <v>361</v>
       </c>
       <c r="AA27" t="s">
-        <v>362</v>
-      </c>
-      <c r="AG27" t="s">
+        <v>357</v>
+      </c>
+      <c r="AH27" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="F28" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H28" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="L28" t="s">
         <v>366</v>
       </c>
       <c r="AA28" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H29" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="L29" t="s">
         <v>370</v>
       </c>
       <c r="AA29" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>657</v>
       </c>
       <c r="F30" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="H30" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L30" t="s">
         <v>374</v>
       </c>
       <c r="AA30" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H31" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L31" t="s">
         <v>378</v>
       </c>
       <c r="AA31" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="H32" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L32" t="s">
         <v>382</v>
       </c>
       <c r="AA32" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" t="s">
+        <v>376</v>
+      </c>
+      <c r="H33" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA33" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
-      <c r="A33" t="s">
+    <row r="34">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F34" t="s">
+        <v>380</v>
+      </c>
+      <c r="H34" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="F35" t="s">
         <v>384</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H35" t="s">
         <v>385</v>
       </c>
-      <c r="AA33" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="34" spans="6:27">
-      <c r="F34" t="s">
+      <c r="AA35" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="F36" t="s">
         <v>387</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H36" t="s">
         <v>388</v>
       </c>
-      <c r="AA34" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="35" spans="6:27">
-      <c r="F35" t="s">
+      <c r="AA36" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="s">
         <v>390</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H37" t="s">
         <v>391</v>
       </c>
-      <c r="AA35" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="36" spans="6:27">
-      <c r="F36" t="s">
+      <c r="AA37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="F38" t="s">
         <v>393</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H38" t="s">
         <v>394</v>
       </c>
-      <c r="AA36" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="37" spans="6:27">
-      <c r="F37" t="s">
+      <c r="AA38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="F39" t="s">
         <v>396</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H39" t="s">
         <v>397</v>
       </c>
-      <c r="AA37" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="38" spans="6:27">
-      <c r="F38" t="s">
+      <c r="AA39" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="F40" t="s">
         <v>399</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H40" t="s">
         <v>400</v>
       </c>
-      <c r="AA38" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="6:27">
-      <c r="F39" t="s">
+      <c r="AA40" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="F41" t="s">
         <v>402</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H41" t="s">
         <v>403</v>
       </c>
-      <c r="AA39" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="40" spans="6:27">
-      <c r="F40" t="s">
+      <c r="AA41" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="F42" t="s">
         <v>405</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H42" t="s">
         <v>406</v>
       </c>
-      <c r="AA40" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="41" spans="6:27">
-      <c r="F41" t="s">
+      <c r="AA42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="F43" t="s">
         <v>408</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H43" t="s">
+        <v>662</v>
+      </c>
+      <c r="AA43" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="F44" t="s">
+        <v>411</v>
+      </c>
+      <c r="H44" t="s">
         <v>409</v>
       </c>
-      <c r="AA41" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="6:27">
-      <c r="F42" t="s">
-        <v>411</v>
-      </c>
-      <c r="H42" t="s">
+      <c r="AA44" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="F45" t="s">
+        <v>414</v>
+      </c>
+      <c r="H45" t="s">
         <v>412</v>
       </c>
-      <c r="AA42" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="43" spans="6:27">
-      <c r="F43" t="s">
-        <v>414</v>
-      </c>
-      <c r="H43" t="s">
+      <c r="AA45" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="F46" t="s">
+        <v>417</v>
+      </c>
+      <c r="H46" t="s">
         <v>415</v>
       </c>
-      <c r="AA43" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="44" spans="6:27">
-      <c r="F44" t="s">
-        <v>417</v>
-      </c>
-      <c r="H44" t="s">
+      <c r="AA46" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="H47" t="s">
         <v>418</v>
       </c>
-      <c r="AA44" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="45" spans="6:27">
-      <c r="F45" t="s">
-        <v>420</v>
-      </c>
-      <c r="H45" t="s">
+      <c r="AA47" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="H48" t="s">
         <v>421</v>
       </c>
-      <c r="AA45" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="46" spans="8:27">
-      <c r="H46" t="s">
+      <c r="AA48" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="H49" t="s">
         <v>423</v>
       </c>
-      <c r="AA46" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47" spans="8:27">
-      <c r="H47" t="s">
+      <c r="AA49" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="H50" t="s">
         <v>425</v>
       </c>
-      <c r="AA47" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="48" spans="8:27">
-      <c r="H48" t="s">
+      <c r="AA50" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="H51" t="s">
         <v>427</v>
       </c>
-      <c r="AA48" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="49" spans="8:27">
-      <c r="H49" t="s">
+      <c r="AA51" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="H52" t="s">
         <v>429</v>
       </c>
-      <c r="AA49" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50" spans="8:27">
-      <c r="H50" t="s">
+      <c r="AA52" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="H53" t="s">
         <v>431</v>
       </c>
-      <c r="AA50" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="51" spans="8:27">
-      <c r="H51" t="s">
+      <c r="AA53" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="H54" t="s">
+        <v>663</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="H55" t="s">
+        <v>664</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="H56" t="s">
+        <v>665</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="H57" t="s">
+        <v>666</v>
+      </c>
+      <c r="AA57" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="H58" t="s">
         <v>433</v>
       </c>
-      <c r="AA51" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="52" spans="8:27">
-      <c r="H52" t="s">
+      <c r="AA58" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="H59" t="s">
         <v>435</v>
       </c>
-      <c r="AA52" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="8:27">
-      <c r="H53" t="s">
+      <c r="AA59" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="H60" t="s">
         <v>437</v>
       </c>
-      <c r="AA53" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="54" spans="8:27">
-      <c r="H54" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA54" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="55" spans="8:27">
-      <c r="H55" t="s">
+      <c r="AA60" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="H61" t="s">
         <v>441</v>
       </c>
-      <c r="AA55" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="56" spans="8:27">
-      <c r="H56" t="s">
+      <c r="AA61" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="H62" t="s">
         <v>443</v>
       </c>
-      <c r="AA56" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="57" spans="8:27">
-      <c r="H57" t="s">
+      <c r="AA62" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="H63" t="s">
         <v>445</v>
       </c>
-      <c r="AA57" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="58" spans="8:27">
-      <c r="H58" t="s">
+      <c r="AA63" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="H64" t="s">
         <v>447</v>
       </c>
-      <c r="AA58" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="59" spans="8:27">
-      <c r="H59" t="s">
+      <c r="AA64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="H65" t="s">
         <v>449</v>
       </c>
-      <c r="AA59" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="60" spans="8:27">
-      <c r="H60" t="s">
+      <c r="AA65" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="H66" t="s">
         <v>451</v>
       </c>
-      <c r="AA60" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="61" spans="8:27">
-      <c r="H61" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA61" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="62" spans="8:27">
-      <c r="H62" t="s">
+      <c r="AA66" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="H67" t="s">
+        <v>667</v>
+      </c>
+      <c r="AA67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="H68" t="s">
+        <v>668</v>
+      </c>
+      <c r="AA68" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="H69" t="s">
+        <v>669</v>
+      </c>
+      <c r="AA69" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="H70" t="s">
         <v>455</v>
       </c>
-      <c r="AA62" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="63" spans="8:27">
-      <c r="H63" t="s">
+      <c r="AA70" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="H71" t="s">
+        <v>670</v>
+      </c>
+      <c r="AA71" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="H72" t="s">
+        <v>671</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="H73" t="s">
         <v>457</v>
       </c>
-      <c r="AA63" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="64" spans="8:27">
-      <c r="H64" t="s">
+      <c r="AA73" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="H74" t="s">
         <v>459</v>
       </c>
-      <c r="AA64" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="65" spans="8:27">
-      <c r="H65" t="s">
+      <c r="AA74" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="H75" t="s">
         <v>461</v>
       </c>
-      <c r="AA65" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="66" spans="8:27">
-      <c r="H66" t="s">
+      <c r="AA75" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="H76" t="s">
         <v>463</v>
       </c>
-      <c r="AA66" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="67" spans="8:27">
-      <c r="H67" t="s">
+      <c r="AA76" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="H77" t="s">
         <v>465</v>
       </c>
-      <c r="AA67" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="68" spans="8:27">
-      <c r="H68" t="s">
+      <c r="AA77" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="H78" t="s">
         <v>467</v>
       </c>
-      <c r="AA68" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="69" spans="8:27">
-      <c r="H69" t="s">
+      <c r="AA78" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="H79" t="s">
         <v>469</v>
       </c>
-      <c r="AA69" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="70" spans="8:27">
-      <c r="H70" t="s">
+      <c r="AA79" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="H80" t="s">
         <v>471</v>
       </c>
-      <c r="AA70" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="71" spans="8:27">
-      <c r="H71" t="s">
+      <c r="AA80" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="H81" t="s">
         <v>473</v>
       </c>
-      <c r="AA71" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="72" spans="8:27">
-      <c r="H72" t="s">
+      <c r="AA81" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="H82" t="s">
         <v>475</v>
       </c>
-      <c r="AA72" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="73" spans="8:27">
-      <c r="H73" t="s">
+      <c r="AA82" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="H83" t="s">
         <v>477</v>
       </c>
-      <c r="AA73" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="74" spans="8:27">
-      <c r="H74" t="s">
-        <v>479</v>
-      </c>
-      <c r="AA74" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="75" spans="8:27">
-      <c r="H75" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA75" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="76" spans="8:27">
-      <c r="H76" t="s">
+      <c r="AA83" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="H84" t="s">
+        <v>672</v>
+      </c>
+      <c r="AA84" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="H85" t="s">
+        <v>673</v>
+      </c>
+      <c r="AA85" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="H86" t="s">
         <v>483</v>
       </c>
-      <c r="AA76" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="77" spans="8:27">
-      <c r="H77" t="s">
+      <c r="AA86" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="H87" t="s">
         <v>485</v>
       </c>
-      <c r="AA77" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="78" spans="8:27">
-      <c r="H78" t="s">
+      <c r="AA87" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="H88" t="s">
         <v>487</v>
       </c>
-      <c r="AA78" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="79" spans="8:27">
-      <c r="H79" t="s">
+      <c r="AA88" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="H89" t="s">
         <v>489</v>
       </c>
-      <c r="AA79" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="80" spans="8:27">
-      <c r="H80" t="s">
-        <v>491</v>
-      </c>
-      <c r="AA80" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="81" spans="8:27">
-      <c r="H81" t="s">
+      <c r="AA89" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="H90" t="s">
+        <v>674</v>
+      </c>
+      <c r="AA90" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="H91" t="s">
+        <v>675</v>
+      </c>
+      <c r="AA91" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="H92" t="s">
         <v>493</v>
       </c>
-      <c r="AA81" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="82" spans="8:27">
-      <c r="H82" t="s">
+      <c r="AA92" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="H93" t="s">
         <v>495</v>
       </c>
-      <c r="AA82" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="83" spans="8:27">
-      <c r="H83" t="s">
+      <c r="AA93" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="H94" t="s">
         <v>497</v>
       </c>
-      <c r="AA83" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="84" spans="8:27">
-      <c r="H84" t="s">
+      <c r="AA94" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="H95" t="s">
         <v>499</v>
       </c>
-      <c r="AA84" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="85" spans="8:27">
-      <c r="H85" t="s">
+      <c r="AA95" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="H96" t="s">
         <v>501</v>
       </c>
-      <c r="AA85" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="86" spans="8:27">
-      <c r="H86" t="s">
+      <c r="AA96" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="H97" t="s">
         <v>503</v>
       </c>
-      <c r="AA86" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="87" spans="8:27">
-      <c r="H87" t="s">
+      <c r="AA97" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="H98" t="s">
         <v>505</v>
       </c>
-      <c r="AA87" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="88" spans="8:27">
-      <c r="H88" t="s">
+      <c r="AA98" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="H99" t="s">
         <v>507</v>
       </c>
-      <c r="AA88" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="89" spans="8:27">
-      <c r="H89" t="s">
+      <c r="AA99" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="H100" t="s">
         <v>509</v>
       </c>
-      <c r="AA89" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="90" spans="8:27">
-      <c r="H90" t="s">
+      <c r="AA100" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="H101" t="s">
         <v>511</v>
       </c>
-      <c r="AA90" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="91" spans="8:27">
-      <c r="H91" t="s">
+      <c r="AA101" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="H102" t="s">
+        <v>676</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="H103" t="s">
+        <v>677</v>
+      </c>
+      <c r="AA103" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="H104" t="s">
         <v>513</v>
       </c>
-      <c r="AA91" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="92" spans="8:27">
-      <c r="H92" t="s">
+      <c r="AA104" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="H105" t="s">
         <v>515</v>
       </c>
-      <c r="AA92" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="93" spans="8:27">
-      <c r="H93" t="s">
+      <c r="AA105" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="H106" t="s">
         <v>517</v>
       </c>
-      <c r="AA93" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="94" spans="8:27">
-      <c r="H94" t="s">
+      <c r="AA106" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="H107" t="s">
         <v>519</v>
       </c>
-      <c r="AA94" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="95" spans="8:27">
-      <c r="H95" t="s">
+      <c r="AA107" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="H108" t="s">
         <v>521</v>
       </c>
-      <c r="AA95" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="96" spans="8:27">
-      <c r="H96" t="s">
+      <c r="AA108" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="H109" t="s">
         <v>523</v>
       </c>
-      <c r="AA96" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="97" spans="8:27">
-      <c r="H97" t="s">
+      <c r="AA109" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="H110" t="s">
         <v>525</v>
       </c>
-      <c r="AA97" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="98" spans="8:27">
-      <c r="H98" t="s">
+      <c r="AA110" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="H111" t="s">
         <v>527</v>
       </c>
-      <c r="AA98" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="99" spans="27:27">
-      <c r="AA99" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="100" spans="27:27">
-      <c r="AA100" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="101" spans="27:27">
-      <c r="AA101" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="102" spans="27:27">
-      <c r="AA102" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="103" spans="27:27">
-      <c r="AA103" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="104" spans="27:27">
-      <c r="AA104" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="105" spans="27:27">
-      <c r="AA105" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="106" spans="27:27">
-      <c r="AA106" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="107" spans="27:27">
-      <c r="AA107" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="108" spans="27:27">
-      <c r="AA108" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="109" spans="27:27">
-      <c r="AA109" t="s">
+      <c r="AA111" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="110" spans="27:27">
-      <c r="AA110" t="s">
+    <row r="112">
+      <c r="AA112" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="111" spans="27:27">
-      <c r="AA111" t="s">
+    <row r="113">
+      <c r="AA113" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="112" spans="27:27">
-      <c r="AA112" t="s">
+    <row r="114">
+      <c r="AA114" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="113" spans="27:27">
-      <c r="AA113" t="s">
+    <row r="115">
+      <c r="AA115" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="114" spans="27:27">
-      <c r="AA114" t="s">
+    <row r="116">
+      <c r="AA116" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="115" spans="27:27">
-      <c r="AA115" t="s">
+    <row r="117">
+      <c r="AA117" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="116" spans="27:27">
-      <c r="AA116" t="s">
+    <row r="118">
+      <c r="AA118" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="117" spans="27:27">
-      <c r="AA117" t="s">
+    <row r="119">
+      <c r="AA119" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="118" spans="27:27">
-      <c r="AA118" t="s">
+    <row r="120">
+      <c r="AA120" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="119" spans="27:27">
-      <c r="AA119" t="s">
+    <row r="121">
+      <c r="AA121" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="120" spans="27:27">
-      <c r="AA120" t="s">
+    <row r="122">
+      <c r="AA122" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="121" spans="27:27">
-      <c r="AA121" t="s">
+    <row r="123">
+      <c r="AA123" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="122" spans="27:27">
-      <c r="AA122" t="s">
+    <row r="124">
+      <c r="AA124" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="123" spans="27:27">
-      <c r="AA123" t="s">
+    <row r="125">
+      <c r="AA125" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="124" spans="27:27">
-      <c r="AA124" t="s">
+    <row r="126">
+      <c r="AA126" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="125" spans="27:27">
-      <c r="AA125" t="s">
+    <row r="127">
+      <c r="AA127" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="126" spans="27:27">
-      <c r="AA126" t="s">
+    <row r="128">
+      <c r="AA128" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="127" spans="27:27">
-      <c r="AA127" t="s">
+    <row r="129">
+      <c r="AA129" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="128" spans="27:27">
-      <c r="AA128" t="s">
+    <row r="130">
+      <c r="AA130" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="129" spans="27:27">
-      <c r="AA129" t="s">
+    <row r="131">
+      <c r="AA131" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="130" spans="27:27">
-      <c r="AA130" t="s">
+    <row r="132">
+      <c r="AA132" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="131" spans="27:27">
-      <c r="AA131" t="s">
+    <row r="133">
+      <c r="AA133" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="132" spans="27:27">
-      <c r="AA132" t="s">
+    <row r="134">
+      <c r="AA134" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="133" spans="27:27">
-      <c r="AA133" t="s">
+    <row r="135">
+      <c r="AA135" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="134" spans="27:27">
-      <c r="AA134" t="s">
+    <row r="136">
+      <c r="AA136" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="135" spans="27:27">
-      <c r="AA135" t="s">
+    <row r="137">
+      <c r="AA137" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="136" spans="27:27">
-      <c r="AA136" t="s">
+    <row r="138">
+      <c r="AA138" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="137" spans="27:27">
-      <c r="AA137" t="s">
+    <row r="139">
+      <c r="AA139" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="138" spans="27:27">
-      <c r="AA138" t="s">
+    <row r="140">
+      <c r="AA140" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="139" spans="27:27">
-      <c r="AA139" t="s">
+    <row r="141">
+      <c r="AA141" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="140" spans="27:27">
-      <c r="AA140" t="s">
+    <row r="142">
+      <c r="AA142" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="141" spans="27:27">
-      <c r="AA141" t="s">
+    <row r="143">
+      <c r="AA143" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="142" spans="27:27">
-      <c r="AA142" t="s">
+    <row r="144">
+      <c r="AA144" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="143" spans="27:27">
-      <c r="AA143" t="s">
+    <row r="145">
+      <c r="AA145" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="144" spans="27:27">
-      <c r="AA144" t="s">
+    <row r="146">
+      <c r="AA146" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="145" spans="27:27">
-      <c r="AA145" t="s">
+    <row r="147">
+      <c r="AA147" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="146" spans="27:27">
-      <c r="AA146" t="s">
+    <row r="148">
+      <c r="AA148" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="147" spans="27:27">
-      <c r="AA147" t="s">
+    <row r="149">
+      <c r="AA149" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="148" spans="27:27">
-      <c r="AA148" t="s">
+    <row r="150">
+      <c r="AA150" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="149" spans="27:27">
-      <c r="AA149" t="s">
+    <row r="151">
+      <c r="AA151" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="150" spans="27:27">
-      <c r="AA150" t="s">
+    <row r="152">
+      <c r="AA152" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="151" spans="27:27">
-      <c r="AA151" t="s">
+    <row r="153">
+      <c r="AA153" t="s">
         <v>581</v>
       </c>
     </row>
@@ -5404,30 +5859,30 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
       <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.75" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26" style="5" customWidth="1"/>
-    <col min="6" max="6" width="60.375" style="5" customWidth="1"/>
-    <col min="7" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.75" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="46.0" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="33.75" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="26.0" collapsed="false"/>
+    <col min="6" max="6" customWidth="true" style="5" width="60.375" collapsed="false"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:15">
@@ -9175,30 +9630,30 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O178"/>
+  <dimension ref="A1:P178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
       <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection/>
+      <selection activeCell="A5" sqref="A5"/>
       <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="38.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="5" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="5" customWidth="1"/>
-    <col min="6" max="7" width="21.75" style="5" customWidth="1"/>
-    <col min="8" max="9" width="20" style="5" customWidth="1"/>
-    <col min="10" max="10" width="20" style="6" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="7" customWidth="1"/>
-    <col min="12" max="12" width="12" style="8" customWidth="1"/>
-    <col min="13" max="13" width="12.5" style="9" customWidth="1"/>
-    <col min="14" max="14" width="19" style="8" customWidth="1"/>
-    <col min="15" max="15" width="49.8333333333333" style="7" customWidth="1"/>
-    <col min="16" max="16384" width="10.8333333333333" style="10"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.375" collapsed="false"/>
+    <col min="2" max="2" customWidth="true" style="3" width="38.75" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.0" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" style="5" width="33.75" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" style="5" width="24.5" collapsed="false"/>
+    <col min="6" max="7" customWidth="true" style="5" width="21.75" collapsed="false"/>
+    <col min="8" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="false"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" ht="23" customHeight="1" spans="1:15">

--- a/src/test/resources/unittesting/artifact/script/unitTest_word.xlsx
+++ b/src/test/resources/unittesting/artifact/script/unitTest_word.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView activeTab="1" firstSheet="1" tabRatio="500" windowHeight="12540" windowWidth="28125"/>
   </bookViews>
   <sheets>
-    <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
-    <sheet name="Scenario" sheetId="2" r:id="rId2"/>
-    <sheet name="showcase" sheetId="5" r:id="rId3"/>
+    <sheet name="#system" r:id="rId1" sheetId="4" state="hidden"/>
+    <sheet name="Scenario" r:id="rId2" sheetId="2"/>
+    <sheet name="showcase" r:id="rId3" sheetId="5"/>
   </sheets>
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
@@ -17,49 +17,52 @@
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
     <definedName name="base">'#system'!$F$2:$F$47</definedName>
-    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
+    <definedName name="csv">'#system'!$H$2:$H$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$H$2:$H$111</definedName>
-    <definedName name="excel">'#system'!$I$2:$I$18</definedName>
-    <definedName name="external">'#system'!$J$2:$J$7</definedName>
-    <definedName name="image">'#system'!$K$2:$K$8</definedName>
-    <definedName name="io">'#system'!$L$2:$L$32</definedName>
-    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
-    <definedName name="json">'#system'!$N$2:$N$18</definedName>
-    <definedName name="localdb">'#system'!$O$2:$O$13</definedName>
-    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
-    <definedName name="mail">'#system'!$Q$2:$Q$5</definedName>
+    <definedName name="desktop">'#system'!$I$2:$I$113</definedName>
+    <definedName name="excel">'#system'!$J$2:$J$18</definedName>
+    <definedName name="external">'#system'!$K$2:$K$7</definedName>
+    <definedName name="image">'#system'!$L$2:$L$8</definedName>
+    <definedName name="io">'#system'!$M$2:$M$33</definedName>
+    <definedName name="jms">'#system'!$O$2:$O$4</definedName>
+    <definedName name="json">'#system'!$P$2:$P$19</definedName>
+    <definedName name="localdb">'#system'!$Q$2:$Q$13</definedName>
+    <definedName name="macro">'#system'!$R$2:$R$4</definedName>
+    <definedName name="mail">'#system'!$S$2:$S$5</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$R$2:$R$16</definedName>
-    <definedName name="pdf">'#system'!$S$2:$S$21</definedName>
-    <definedName name="rdbms">'#system'!$T$2:$T$9</definedName>
-    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
-    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
-    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
-    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
-    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
-    <definedName name="step.inTime">'#system'!$Z$2:$Z$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$34</definedName>
+    <definedName name="number">'#system'!$U$2:$U$16</definedName>
+    <definedName name="pdf">'#system'!$V$2:$V$21</definedName>
+    <definedName name="rdbms">'#system'!$W$2:$W$9</definedName>
+    <definedName name="redis">'#system'!$X$2:$X$10</definedName>
+    <definedName name="sms">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="sound">'#system'!$Z$2:$Z$5</definedName>
+    <definedName name="ssh">'#system'!$AA$2:$AA$9</definedName>
+    <definedName name="step">'#system'!$AB$2:$AB$4</definedName>
+    <definedName name="step.inTime">'#system'!$AC$2:$AC$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$38</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
-    <definedName name="tn.5250">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="web">'#system'!$AA$2:$AA$153</definedName>
-    <definedName name="webalert">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="webcookie">'#system'!$AC$2:$AC$10</definedName>
-    <definedName name="ws">'#system'!$AF$2:$AF$17</definedName>
-    <definedName name="ws.async">'#system'!$AG$2:$AG$8</definedName>
-    <definedName name="xml">'#system'!$AH$2:$AH$27</definedName>
-    <definedName name="word">'#system'!$AE$2:$AE$9</definedName>
-    <definedName name="webmail">'#system'!$AD$2:$AD$4</definedName>
+    <definedName name="tn.5250">'#system'!$AD$2:$AD$44</definedName>
+    <definedName name="web">'#system'!$AE$2:$AE$160</definedName>
+    <definedName name="webalert">'#system'!$AF$2:$AF$8</definedName>
+    <definedName name="webcookie">'#system'!$AG$2:$AG$10</definedName>
+    <definedName name="ws">'#system'!$AJ$2:$AJ$20</definedName>
+    <definedName name="ws.async">'#system'!$AK$2:$AK$8</definedName>
+    <definedName name="xml">'#system'!$AL$2:$AL$27</definedName>
+    <definedName name="word">'#system'!$AI$2:$AI$9</definedName>
+    <definedName name="webmail">'#system'!$AH$2:$AH$6</definedName>
+    <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
+    <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
+    <definedName name="mobile">'#system'!$T$2:$T$51</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1454" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2235" uniqueCount="810">
   <si>
     <t>target</t>
   </si>
@@ -2131,6 +2134,381 @@
   </si>
   <si>
     <t>search(var,profile,searchCriteria,duration)</t>
+  </si>
+  <si>
+    <t>browserstack</t>
+  </si>
+  <si>
+    <t>javaui</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>tn.5250</t>
+  </si>
+  <si>
+    <t>deleteApp(profile,appId,resultVar)</t>
+  </si>
+  <si>
+    <t>listBrowsers(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>listDevices(profile,resultVar)</t>
+  </si>
+  <si>
+    <t>saveUploadApps(profile,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>updateSessionStatus(profile,status,reason,resultVar)</t>
+  </si>
+  <si>
+    <t>uploadApp(profile,app,customId,resultVar)</t>
+  </si>
+  <si>
+    <t>focusFirstTableRow()</t>
+  </si>
+  <si>
+    <t>focusLastTableRow()</t>
+  </si>
+  <si>
+    <t>assertFileContent(file,match,asLines)</t>
+  </si>
+  <si>
+    <t>assertEditable(name)</t>
+  </si>
+  <si>
+    <t>assertPresence(name)</t>
+  </si>
+  <si>
+    <t>assertText(name,text)</t>
+  </si>
+  <si>
+    <t>clickMenu(menus)</t>
+  </si>
+  <si>
+    <t>startApp(profile)</t>
+  </si>
+  <si>
+    <t>startLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>startLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>stopApp(profile)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent$nexial_core(portNumber)</t>
+  </si>
+  <si>
+    <t>stopLocalAgent(port)</t>
+  </si>
+  <si>
+    <t>typeText(name,text)</t>
+  </si>
+  <si>
+    <t>waitForWindowTitle(title)</t>
+  </si>
+  <si>
+    <t>sanitize(var,json)</t>
+  </si>
+  <si>
+    <t>assertAlertPresent(text)</t>
+  </si>
+  <si>
+    <t>assertAttribute(locator,attribute,text)</t>
+  </si>
+  <si>
+    <t>assertCount(locator,count)</t>
+  </si>
+  <si>
+    <t>assertElementNotVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertElementVisible(locator)</t>
+  </si>
+  <si>
+    <t>assertLocked()</t>
+  </si>
+  <si>
+    <t>assertTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>back()</t>
+  </si>
+  <si>
+    <t>clearAlert(option)</t>
+  </si>
+  <si>
+    <t>clearNotification()</t>
+  </si>
+  <si>
+    <t>clickByDisplayText(text)</t>
+  </si>
+  <si>
+    <t>clickUntilNotFound(locator,waitMs,max)</t>
+  </si>
+  <si>
+    <t>closeApp()</t>
+  </si>
+  <si>
+    <t>copyToLocal(file,folder)</t>
+  </si>
+  <si>
+    <t>doubleClick(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>forward()</t>
+  </si>
+  <si>
+    <t>hideKeyboard()</t>
+  </si>
+  <si>
+    <t>home()</t>
+  </si>
+  <si>
+    <t>launchApp(app)</t>
+  </si>
+  <si>
+    <t>lock()</t>
+  </si>
+  <si>
+    <t>longClick(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>orientation(mode)</t>
+  </si>
+  <si>
+    <t>postScreenshot$nexial_core(target,locator)</t>
+  </si>
+  <si>
+    <t>recentApps()</t>
+  </si>
+  <si>
+    <t>saveAlertText(var)</t>
+  </si>
+  <si>
+    <t>saveAttributes(var,locator,attribute)</t>
+  </si>
+  <si>
+    <t>saveLockStatus(var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>scroll(locator,direction)</t>
+  </si>
+  <si>
+    <t>scrollUntilFound(scrollTarget,direction,searchFor,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>select(locator,item)</t>
+  </si>
+  <si>
+    <t>selectLocalFile(device,folder,filename)</t>
+  </si>
+  <si>
+    <t>sendSms(phone,message)</t>
+  </si>
+  <si>
+    <t>shake()</t>
+  </si>
+  <si>
+    <t>shutdown(profile)</t>
+  </si>
+  <si>
+    <t>slide(start,end)</t>
+  </si>
+  <si>
+    <t>type(locator,text)</t>
+  </si>
+  <si>
+    <t>unlock()</t>
+  </si>
+  <si>
+    <t>use(profile)</t>
+  </si>
+  <si>
+    <t>zoom(start1,end1,start2,end2)</t>
+  </si>
+  <si>
+    <t>assertColumnNotPresent(column)</t>
+  </si>
+  <si>
+    <t>assertColumnPresent(column)</t>
+  </si>
+  <si>
+    <t>assertFieldMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotMatch(label,expects)</t>
+  </si>
+  <si>
+    <t>assertFieldNotPresent(label)</t>
+  </si>
+  <si>
+    <t>assertFieldPresent(label)</t>
+  </si>
+  <si>
+    <t>assertKeyboardLocked()</t>
+  </si>
+  <si>
+    <t>assertKeyboardNotLocked()</t>
+  </si>
+  <si>
+    <t>assertMessageMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertMessageNotMatch(expects)</t>
+  </si>
+  <si>
+    <t>assertScreenContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenMatch(text)</t>
+  </si>
+  <si>
+    <t>assertScreenNotContain(list,ordered)</t>
+  </si>
+  <si>
+    <t>assertScreenNotMatch(text)</t>
+  </si>
+  <si>
+    <t>assertTableMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTableNotMatch(column,text)</t>
+  </si>
+  <si>
+    <t>assertTablePresent()</t>
+  </si>
+  <si>
+    <t>assertTitle(expects)</t>
+  </si>
+  <si>
+    <t>assertTitleContain(expects)</t>
+  </si>
+  <si>
+    <t>clearField(label)</t>
+  </si>
+  <si>
+    <t>close(profile)</t>
+  </si>
+  <si>
+    <t>compare$nexial_core(expects,actual,expectMatch,messagePrefix)</t>
+  </si>
+  <si>
+    <t>focus(label)</t>
+  </si>
+  <si>
+    <t>inspectNestedScreen(titles)</t>
+  </si>
+  <si>
+    <t>inspectScreen()</t>
+  </si>
+  <si>
+    <t>open(profile)</t>
+  </si>
+  <si>
+    <t>saveDisplay(var,field)</t>
+  </si>
+  <si>
+    <t>saveDisplayFields(var)</t>
+  </si>
+  <si>
+    <t>saveInputFields(var)</t>
+  </si>
+  <si>
+    <t>saveMessage(var)</t>
+  </si>
+  <si>
+    <t>saveScreenText(var)</t>
+  </si>
+  <si>
+    <t>saveTableAsCSV(csv,maxPage)</t>
+  </si>
+  <si>
+    <t>saveTableMatchCount(var,column,text)</t>
+  </si>
+  <si>
+    <t>saveTableRow(var,criteria)</t>
+  </si>
+  <si>
+    <t>type(label,text)</t>
+  </si>
+  <si>
+    <t>typeKeys(keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedColumns(matches,keystrokes)</t>
+  </si>
+  <si>
+    <t>typeOnMatchedRow(column,match,keystrokes)</t>
+  </si>
+  <si>
+    <t>unlockKeyboard()</t>
+  </si>
+  <si>
+    <t>waitUntilMessagePresent(message,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilProcessed(maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTextPresent(text,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>waitUntilTitlePresent(title,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(locator,maxWaitMs)</t>
+  </si>
+  <si>
+    <t>assertElementsEnabled(prefix)</t>
+  </si>
+  <si>
+    <t>assertElementsVisible(prefix)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsAbsent(locator,options)</t>
+  </si>
+  <si>
+    <t>assertSelectOptionsPresent(locator,options)</t>
+  </si>
+  <si>
+    <t>clickIfPresent(locator)</t>
+  </si>
+  <si>
+    <t>saveCssValue(var,locator,property)</t>
+  </si>
+  <si>
+    <t>selectDropdown(locator,optLocator,optText)</t>
+  </si>
+  <si>
+    <t>toast(message,duration,darkMode)</t>
+  </si>
+  <si>
+    <t>waitForElementTextPresent(locator,text)</t>
+  </si>
+  <si>
+    <t>waitWhileElementNotPresent(locator,waitMs)</t>
+  </si>
+  <si>
+    <t>attachment(profile,id,attachment,saveTo)</t>
+  </si>
+  <si>
+    <t>attachments(profile,id,saveDir)</t>
+  </si>
+  <si>
+    <t>clearHeaders(headers)</t>
+  </si>
+  <si>
+    <t>graphql(url,body,var)</t>
+  </si>
+  <si>
+    <t>oauthProfile(var,profile)</t>
   </si>
 </sst>
 </file>
@@ -2143,7 +2521,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="44">
+  <fonts count="61">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2448,8 +2826,115 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="59">
+  <fills count="83">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2790,6 +3275,142 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -2929,373 +3550,424 @@
     </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="28" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="176">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="177">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="5" fillId="10" fontId="16" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="9" fillId="27" fontId="1" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="26" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="22" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="15" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="21" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="25" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="26" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="18" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="24" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="3" fillId="0" fontId="23" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="6" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="14" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="9" fontId="13" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="20" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="6" fontId="10" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="8" fillId="8" fontId="21" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="19" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyNumberFormat="0" applyProtection="0" borderId="4" fillId="8" fontId="12" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="10" fillId="0" fontId="22" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="7" fillId="0" fontId="20" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="13" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="18" fontId="19" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="16" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="7" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="25" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="12" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="17" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="30" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="15" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="11" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="14" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="5" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="24" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="23" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="29" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="31" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="32" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="33" fontId="8" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="34" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="69">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="10">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="10">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="2" fillId="2" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="37" fontId="27" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="40" fontId="29" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="30" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="31" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="49" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="49" fontId="33" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="52" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="52" fontId="35" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="36" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="43" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="43" fontId="37" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="40" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="58" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="58" fontId="41" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="46" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="46" fontId="42" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="55" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="55" fontId="43" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="61" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="64" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="73" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="76" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="67" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="82" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="70" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="79" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="31" name="40% - Accent1" xfId="1"/>
+    <cellStyle builtinId="3" name="Comma" xfId="2"/>
+    <cellStyle builtinId="6" name="Comma [0]" xfId="3"/>
+    <cellStyle builtinId="7" name="Currency [0]" xfId="4"/>
+    <cellStyle builtinId="4" name="Currency" xfId="5"/>
+    <cellStyle builtinId="5" name="Percent" xfId="6"/>
+    <cellStyle builtinId="23" name="Check Cell" xfId="7"/>
+    <cellStyle builtinId="17" name="Heading 2" xfId="8"/>
+    <cellStyle builtinId="10" name="Note" xfId="9"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="10"/>
+    <cellStyle builtinId="44" name="60% - Accent4" xfId="11"/>
+    <cellStyle builtinId="9" name="Followed Hyperlink" xfId="12"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="13"/>
+    <cellStyle builtinId="11" name="Warning Text" xfId="14"/>
+    <cellStyle builtinId="35" name="40% - Accent2" xfId="15"/>
+    <cellStyle builtinId="15" name="Title" xfId="16"/>
+    <cellStyle builtinId="53" name="CExplanatory Text" xfId="17"/>
+    <cellStyle builtinId="16" name="Heading 1" xfId="18"/>
+    <cellStyle builtinId="18" name="Heading 3" xfId="19"/>
+    <cellStyle builtinId="19" name="Heading 4" xfId="20"/>
+    <cellStyle builtinId="20" name="Input" xfId="21"/>
+    <cellStyle builtinId="40" name="60% - Accent3" xfId="22"/>
+    <cellStyle builtinId="26" name="Good" xfId="23"/>
+    <cellStyle builtinId="21" name="Output" xfId="24"/>
+    <cellStyle builtinId="30" name="20% - Accent1" xfId="25"/>
+    <cellStyle builtinId="22" name="Calculation" xfId="26"/>
+    <cellStyle builtinId="24" name="Linked Cell" xfId="27"/>
+    <cellStyle builtinId="25" name="Total" xfId="28"/>
+    <cellStyle builtinId="27" name="Bad" xfId="29"/>
+    <cellStyle builtinId="28" name="Neutral" xfId="30"/>
+    <cellStyle builtinId="29" name="Accent1" xfId="31"/>
+    <cellStyle builtinId="46" name="20% - Accent5" xfId="32"/>
+    <cellStyle builtinId="32" name="60% - Accent1" xfId="33"/>
+    <cellStyle builtinId="33" name="Accent2" xfId="34"/>
+    <cellStyle builtinId="34" name="20% - Accent2" xfId="35"/>
+    <cellStyle builtinId="50" name="20% - Accent6" xfId="36"/>
+    <cellStyle builtinId="36" name="60% - Accent2" xfId="37"/>
+    <cellStyle builtinId="37" name="Accent3" xfId="38"/>
+    <cellStyle builtinId="38" name="20% - Accent3" xfId="39"/>
+    <cellStyle builtinId="41" name="Accent4" xfId="40"/>
+    <cellStyle builtinId="42" name="20% - Accent4" xfId="41"/>
+    <cellStyle builtinId="43" name="40% - Accent4" xfId="42"/>
+    <cellStyle builtinId="45" name="Accent5" xfId="43"/>
+    <cellStyle builtinId="47" name="40% - Accent5" xfId="44"/>
+    <cellStyle builtinId="48" name="60% - Accent5" xfId="45"/>
+    <cellStyle builtinId="49" name="Accent6" xfId="46"/>
+    <cellStyle builtinId="51" name="40% - Accent6" xfId="47"/>
+    <cellStyle builtinId="52" name="60% - Accent6" xfId="48"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -3329,7 +4001,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <mruColors>
       <color rgb="00F8F7F9"/>
@@ -3351,10 +4023,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3518,21 +4190,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3549,7 +4221,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3602,11 +4274,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:AI153"/>
+  <dimension ref="A1:AM160"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0" tabSelected="false">
+    <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -3635,87 +4307,99 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>685</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
+        <v>686</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
+        <v>687</v>
+      </c>
+      <c r="U1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AC1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AD1" t="s">
+        <v>688</v>
+      </c>
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>657</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3739,87 +4423,99 @@
         <v>37</v>
       </c>
       <c r="G2" t="s">
+        <v>689</v>
+      </c>
+      <c r="H2" t="s">
         <v>38</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>40</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>41</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>42</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>43</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O2" t="s">
         <v>44</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>45</v>
       </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
         <v>46</v>
       </c>
-      <c r="P2" t="s">
+      <c r="R2" t="s">
         <v>47</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="S2" t="s">
         <v>48</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
+        <v>711</v>
+      </c>
+      <c r="U2" t="s">
         <v>49</v>
       </c>
-      <c r="S2" t="s">
+      <c r="V2" t="s">
         <v>50</v>
       </c>
-      <c r="T2" t="s">
+      <c r="W2" t="s">
         <v>51</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>52</v>
       </c>
-      <c r="V2" t="s">
+      <c r="Y2" t="s">
         <v>53</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Z2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="AA2" t="s">
         <v>55</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="AB2" t="s">
         <v>56</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AC2" t="s">
         <v>57</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AD2" t="s">
+        <v>751</v>
+      </c>
+      <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AF2" t="s">
         <v>59</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AG2" t="s">
         <v>60</v>
       </c>
-      <c r="AD2" t="s">
-        <v>682</v>
-      </c>
-      <c r="AE2" t="s">
+      <c r="AH2" t="s">
+        <v>805</v>
+      </c>
+      <c r="AI2" t="s">
         <v>61</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AJ2" t="s">
         <v>62</v>
       </c>
-      <c r="AG2" t="s">
+      <c r="AK2" t="s">
         <v>63</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AL2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3840,84 +4536,96 @@
         <v>68</v>
       </c>
       <c r="G3" t="s">
+        <v>690</v>
+      </c>
+      <c r="H3" t="s">
         <v>69</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>70</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>71</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>72</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>73</v>
       </c>
-      <c r="L3" t="s">
-        <v>74</v>
-      </c>
       <c r="M3" t="s">
+        <v>697</v>
+      </c>
+      <c r="N3" t="s">
+        <v>698</v>
+      </c>
+      <c r="O3" t="s">
         <v>75</v>
       </c>
-      <c r="N3" t="s">
+      <c r="P3" t="s">
         <v>76</v>
       </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>77</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>79</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
+        <v>712</v>
+      </c>
+      <c r="U3" t="s">
         <v>80</v>
       </c>
-      <c r="S3" t="s">
+      <c r="V3" t="s">
         <v>81</v>
       </c>
-      <c r="T3" t="s">
+      <c r="W3" t="s">
         <v>82</v>
       </c>
-      <c r="U3" t="s">
+      <c r="X3" t="s">
         <v>83</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Z3" t="s">
         <v>84</v>
       </c>
-      <c r="X3" t="s">
+      <c r="AA3" t="s">
         <v>85</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="AB3" t="s">
         <v>86</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AC3" t="s">
         <v>87</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AD3" t="s">
+        <v>752</v>
+      </c>
+      <c r="AE3" t="s">
         <v>88</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AF3" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AG3" t="s">
         <v>90</v>
       </c>
-      <c r="AD3" t="s">
-        <v>683</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
+        <v>806</v>
+      </c>
+      <c r="AI3" t="s">
         <v>91</v>
       </c>
-      <c r="AF3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" t="s">
+      <c r="AJ3" t="s">
+        <v>807</v>
+      </c>
+      <c r="AK3" t="s">
         <v>93</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AL3" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3935,84 +4643,96 @@
         <v>97</v>
       </c>
       <c r="G4" t="s">
+        <v>691</v>
+      </c>
+      <c r="H4" t="s">
         <v>98</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>99</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>100</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>101</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>102</v>
       </c>
-      <c r="L4" t="s">
-        <v>103</v>
-      </c>
       <c r="M4" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="s">
+        <v>173</v>
+      </c>
+      <c r="O4" t="s">
         <v>104</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>105</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
         <v>106</v>
       </c>
-      <c r="P4" t="s">
+      <c r="R4" t="s">
         <v>107</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="S4" t="s">
         <v>108</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
+        <v>713</v>
+      </c>
+      <c r="U4" t="s">
         <v>109</v>
       </c>
-      <c r="S4" t="s">
+      <c r="V4" t="s">
         <v>110</v>
       </c>
-      <c r="T4" t="s">
+      <c r="W4" t="s">
         <v>111</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>112</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Z4" t="s">
         <v>113</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>114</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>116</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" t="s">
+        <v>753</v>
+      </c>
+      <c r="AE4" t="s">
         <v>117</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AF4" t="s">
         <v>118</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" t="s">
         <v>119</v>
       </c>
-      <c r="AD4" t="s">
-        <v>684</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AH4" t="s">
+        <v>682</v>
+      </c>
+      <c r="AI4" t="s">
         <v>120</v>
       </c>
-      <c r="AF4" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AJ4" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK4" t="s">
         <v>121</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AL4" t="s">
         <v>122</v>
       </c>
     </row>
@@ -4030,69 +4750,84 @@
         <v>125</v>
       </c>
       <c r="G5" t="s">
+        <v>692</v>
+      </c>
+      <c r="H5" t="s">
         <v>126</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>127</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>128</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>129</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>130</v>
       </c>
-      <c r="L5" t="s">
-        <v>131</v>
+      <c r="M5" t="s">
+        <v>103</v>
       </c>
       <c r="N5" t="s">
+        <v>699</v>
+      </c>
+      <c r="P5" t="s">
         <v>132</v>
       </c>
-      <c r="O5" t="s">
+      <c r="Q5" t="s">
         <v>133</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="S5" t="s">
         <v>134</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>288</v>
+      </c>
+      <c r="U5" t="s">
         <v>135</v>
       </c>
-      <c r="S5" t="s">
+      <c r="V5" t="s">
         <v>136</v>
       </c>
-      <c r="T5" t="s">
+      <c r="W5" t="s">
         <v>137</v>
       </c>
-      <c r="U5" t="s">
+      <c r="X5" t="s">
         <v>138</v>
       </c>
-      <c r="W5" t="s">
+      <c r="Z5" t="s">
         <v>139</v>
       </c>
-      <c r="X5" t="s">
+      <c r="AA5" t="s">
         <v>140</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AD5" t="s">
+        <v>754</v>
+      </c>
+      <c r="AE5" t="s">
         <v>141</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AF5" t="s">
         <v>142</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AG5" t="s">
         <v>143</v>
       </c>
-      <c r="AE5" t="s">
+      <c r="AH5" t="s">
+        <v>683</v>
+      </c>
+      <c r="AI5" t="s">
         <v>144</v>
       </c>
-      <c r="AF5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG5" t="s">
+      <c r="AJ5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK5" t="s">
         <v>146</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AL5" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4110,69 +4845,84 @@
         <v>150</v>
       </c>
       <c r="G6" t="s">
+        <v>693</v>
+      </c>
+      <c r="H6" t="s">
         <v>151</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>152</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>153</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>154</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>155</v>
       </c>
-      <c r="L6" t="s">
-        <v>156</v>
+      <c r="M6" t="s">
+        <v>131</v>
       </c>
       <c r="N6" t="s">
+        <v>700</v>
+      </c>
+      <c r="P6" t="s">
         <v>157</v>
       </c>
-      <c r="O6" t="s">
+      <c r="Q6" t="s">
         <v>158</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
+        <v>298</v>
+      </c>
+      <c r="U6" t="s">
         <v>159</v>
       </c>
-      <c r="S6" t="s">
+      <c r="V6" t="s">
         <v>160</v>
       </c>
-      <c r="T6" t="s">
+      <c r="W6" t="s">
         <v>161</v>
       </c>
-      <c r="U6" t="s">
+      <c r="X6" t="s">
         <v>162</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AA6" t="s">
         <v>163</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AD6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AE6" t="s">
         <v>164</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AF6" t="s">
         <v>165</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AG6" t="s">
         <v>166</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
+        <v>684</v>
+      </c>
+      <c r="AI6" t="s">
         <v>167</v>
       </c>
-      <c r="AF6" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG6" t="s">
+      <c r="AJ6" t="s">
+        <v>145</v>
+      </c>
+      <c r="AK6" t="s">
         <v>169</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AL6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>685</v>
       </c>
       <c r="B7" t="s">
         <v>171</v>
@@ -4180,67 +4930,79 @@
       <c r="F7" t="s">
         <v>172</v>
       </c>
-      <c r="H7" t="s">
+      <c r="G7" t="s">
+        <v>694</v>
+      </c>
+      <c r="I7" t="s">
         <v>173</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>174</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>175</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>176</v>
       </c>
-      <c r="L7" t="s">
-        <v>177</v>
+      <c r="M7" t="s">
+        <v>156</v>
       </c>
       <c r="N7" t="s">
+        <v>377</v>
+      </c>
+      <c r="P7" t="s">
         <v>43</v>
       </c>
-      <c r="O7" t="s">
+      <c r="Q7" t="s">
         <v>178</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
+        <v>306</v>
+      </c>
+      <c r="U7" t="s">
         <v>179</v>
       </c>
-      <c r="S7" t="s">
+      <c r="V7" t="s">
         <v>180</v>
       </c>
-      <c r="T7" t="s">
+      <c r="W7" t="s">
         <v>181</v>
       </c>
-      <c r="U7" t="s">
+      <c r="X7" t="s">
         <v>182</v>
       </c>
-      <c r="X7" t="s">
+      <c r="AA7" t="s">
         <v>183</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AD7" t="s">
+        <v>756</v>
+      </c>
+      <c r="AE7" t="s">
         <v>184</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AF7" t="s">
         <v>185</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AG7" t="s">
         <v>186</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AI7" t="s">
         <v>187</v>
       </c>
-      <c r="AF7" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG7" t="s">
+      <c r="AJ7" t="s">
+        <v>808</v>
+      </c>
+      <c r="AK7" t="s">
         <v>189</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AL7" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>191</v>
@@ -4248,64 +5010,73 @@
       <c r="F8" t="s">
         <v>192</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>193</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>678</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>195</v>
       </c>
-      <c r="L8" t="s">
-        <v>38</v>
+      <c r="M8" t="s">
+        <v>177</v>
       </c>
       <c r="N8" t="s">
+        <v>701</v>
+      </c>
+      <c r="P8" t="s">
         <v>196</v>
       </c>
-      <c r="O8" t="s">
+      <c r="Q8" t="s">
         <v>197</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
+        <v>714</v>
+      </c>
+      <c r="U8" t="s">
         <v>198</v>
       </c>
-      <c r="S8" t="s">
+      <c r="V8" t="s">
         <v>199</v>
       </c>
-      <c r="T8" t="s">
+      <c r="W8" t="s">
         <v>200</v>
       </c>
-      <c r="U8" t="s">
+      <c r="X8" t="s">
         <v>201</v>
       </c>
-      <c r="X8" t="s">
+      <c r="AA8" t="s">
         <v>202</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AD8" t="s">
+        <v>757</v>
+      </c>
+      <c r="AE8" t="s">
         <v>203</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AF8" t="s">
         <v>204</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AG8" t="s">
         <v>205</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AI8" t="s">
         <v>206</v>
       </c>
-      <c r="AF8" t="s">
-        <v>207</v>
-      </c>
-      <c r="AG8" t="s">
+      <c r="AJ8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AK8" t="s">
         <v>208</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AL8" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>210</v>
@@ -4313,1579 +5084,1908 @@
       <c r="F9" t="s">
         <v>211</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>212</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>194</v>
       </c>
-      <c r="L9" t="s">
-        <v>214</v>
+      <c r="M9" t="s">
+        <v>38</v>
       </c>
       <c r="N9" t="s">
+        <v>702</v>
+      </c>
+      <c r="P9" t="s">
         <v>215</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>216</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
+        <v>314</v>
+      </c>
+      <c r="U9" t="s">
         <v>217</v>
       </c>
-      <c r="S9" t="s">
+      <c r="V9" t="s">
         <v>218</v>
       </c>
-      <c r="T9" t="s">
+      <c r="W9" t="s">
         <v>219</v>
       </c>
-      <c r="U9" t="s">
+      <c r="X9" t="s">
         <v>220</v>
       </c>
-      <c r="X9" t="s">
+      <c r="AA9" t="s">
         <v>221</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AD9" t="s">
+        <v>758</v>
+      </c>
+      <c r="AE9" t="s">
         <v>222</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AG9" t="s">
         <v>223</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AI9" t="s">
         <v>224</v>
       </c>
-      <c r="AF9" t="s">
-        <v>225</v>
-      </c>
-      <c r="AH9" t="s">
+      <c r="AJ9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AL9" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>227</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>213</v>
       </c>
-      <c r="L10" t="s">
-        <v>229</v>
+      <c r="M10" t="s">
+        <v>214</v>
       </c>
       <c r="N10" t="s">
+        <v>703</v>
+      </c>
+      <c r="P10" t="s">
         <v>230</v>
       </c>
-      <c r="O10" t="s">
+      <c r="Q10" t="s">
         <v>231</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>715</v>
+      </c>
+      <c r="U10" t="s">
         <v>232</v>
       </c>
-      <c r="S10" t="s">
+      <c r="V10" t="s">
         <v>233</v>
       </c>
-      <c r="U10" t="s">
+      <c r="X10" t="s">
         <v>234</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AD10" t="s">
+        <v>759</v>
+      </c>
+      <c r="AE10" t="s">
         <v>235</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AG10" t="s">
         <v>236</v>
       </c>
-      <c r="AF10" t="s">
-        <v>237</v>
-      </c>
-      <c r="AH10" t="s">
+      <c r="AJ10" t="s">
+        <v>207</v>
+      </c>
+      <c r="AL10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F11" t="s">
         <v>239</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>240</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>228</v>
       </c>
-      <c r="L11" t="s">
-        <v>242</v>
+      <c r="M11" t="s">
+        <v>229</v>
       </c>
       <c r="N11" t="s">
+        <v>704</v>
+      </c>
+      <c r="P11" t="s">
         <v>243</v>
       </c>
-      <c r="O11" t="s">
+      <c r="Q11" t="s">
         <v>244</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>320</v>
+      </c>
+      <c r="U11" t="s">
         <v>245</v>
       </c>
-      <c r="S11" t="s">
+      <c r="V11" t="s">
         <v>246</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AD11" t="s">
+        <v>760</v>
+      </c>
+      <c r="AE11" t="s">
         <v>247</v>
       </c>
-      <c r="AF11" t="s">
-        <v>248</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AL11" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
         <v>250</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>251</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>241</v>
       </c>
-      <c r="L12" t="s">
-        <v>253</v>
+      <c r="M12" t="s">
+        <v>242</v>
       </c>
       <c r="N12" t="s">
+        <v>705</v>
+      </c>
+      <c r="P12" t="s">
         <v>254</v>
       </c>
-      <c r="O12" t="s">
+      <c r="Q12" t="s">
         <v>255</v>
       </c>
-      <c r="R12" t="s">
+      <c r="T12" t="s">
+        <v>716</v>
+      </c>
+      <c r="U12" t="s">
         <v>256</v>
       </c>
-      <c r="S12" t="s">
+      <c r="V12" t="s">
         <v>257</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AD12" t="s">
+        <v>761</v>
+      </c>
+      <c r="AE12" t="s">
         <v>258</v>
       </c>
-      <c r="AF12" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
+        <v>237</v>
+      </c>
+      <c r="AL12" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
         <v>261</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>262</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>252</v>
       </c>
-      <c r="L13" t="s">
-        <v>264</v>
+      <c r="M13" t="s">
+        <v>253</v>
       </c>
       <c r="N13" t="s">
+        <v>706</v>
+      </c>
+      <c r="P13" t="s">
         <v>265</v>
       </c>
-      <c r="O13" t="s">
+      <c r="Q13" t="s">
         <v>266</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>717</v>
+      </c>
+      <c r="U13" t="s">
         <v>267</v>
       </c>
-      <c r="S13" t="s">
+      <c r="V13" t="s">
         <v>268</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AD13" t="s">
+        <v>762</v>
+      </c>
+      <c r="AE13" t="s">
         <v>269</v>
       </c>
-      <c r="AF13" t="s">
-        <v>270</v>
-      </c>
-      <c r="AH13" t="s">
+      <c r="AJ13" t="s">
+        <v>248</v>
+      </c>
+      <c r="AL13" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>686</v>
       </c>
       <c r="F14" t="s">
         <v>74</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>272</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>263</v>
       </c>
-      <c r="L14" t="s">
-        <v>274</v>
+      <c r="M14" t="s">
+        <v>264</v>
       </c>
       <c r="N14" t="s">
+        <v>707</v>
+      </c>
+      <c r="P14" t="s">
         <v>275</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
+        <v>718</v>
+      </c>
+      <c r="U14" t="s">
         <v>276</v>
       </c>
-      <c r="S14" t="s">
+      <c r="V14" t="s">
         <v>277</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AD14" t="s">
+        <v>763</v>
+      </c>
+      <c r="AE14" t="s">
         <v>278</v>
       </c>
-      <c r="AF14" t="s">
-        <v>279</v>
-      </c>
-      <c r="AH14" t="s">
+      <c r="AJ14" t="s">
+        <v>809</v>
+      </c>
+      <c r="AL14" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
         <v>281</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>282</v>
       </c>
-      <c r="I15" t="s">
+      <c r="J15" t="s">
         <v>273</v>
       </c>
-      <c r="L15" t="s">
-        <v>284</v>
+      <c r="M15" t="s">
+        <v>274</v>
       </c>
       <c r="N15" t="s">
-        <v>285</v>
-      </c>
-      <c r="R15" t="s">
+        <v>708</v>
+      </c>
+      <c r="P15" t="s">
+        <v>710</v>
+      </c>
+      <c r="T15" t="s">
+        <v>719</v>
+      </c>
+      <c r="U15" t="s">
         <v>286</v>
       </c>
-      <c r="S15" t="s">
+      <c r="V15" t="s">
         <v>287</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AD15" t="s">
+        <v>764</v>
+      </c>
+      <c r="AE15" t="s">
         <v>288</v>
       </c>
-      <c r="AF15" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH15" t="s">
+      <c r="AJ15" t="s">
+        <v>259</v>
+      </c>
+      <c r="AL15" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F16" t="s">
         <v>291</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>292</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>283</v>
       </c>
-      <c r="L16" t="s">
-        <v>294</v>
+      <c r="M16" t="s">
+        <v>284</v>
       </c>
       <c r="N16" t="s">
-        <v>295</v>
-      </c>
-      <c r="R16" t="s">
+        <v>709</v>
+      </c>
+      <c r="P16" t="s">
+        <v>285</v>
+      </c>
+      <c r="T16" t="s">
+        <v>720</v>
+      </c>
+      <c r="U16" t="s">
         <v>296</v>
       </c>
-      <c r="S16" t="s">
+      <c r="V16" t="s">
         <v>297</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AD16" t="s">
+        <v>765</v>
+      </c>
+      <c r="AE16" t="s">
         <v>298</v>
       </c>
-      <c r="AF16" t="s">
-        <v>299</v>
-      </c>
-      <c r="AH16" t="s">
+      <c r="AJ16" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL16" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F17" t="s">
         <v>301</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>302</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>293</v>
       </c>
-      <c r="L17" t="s">
-        <v>303</v>
-      </c>
-      <c r="N17" t="s">
-        <v>304</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="M17" t="s">
+        <v>294</v>
+      </c>
+      <c r="P17" t="s">
+        <v>295</v>
+      </c>
+      <c r="T17" t="s">
+        <v>438</v>
+      </c>
+      <c r="V17" t="s">
         <v>305</v>
       </c>
-      <c r="AA17" t="s">
-        <v>306</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>307</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AD17" t="s">
+        <v>766</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>794</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>279</v>
+      </c>
+      <c r="AL17" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
         <v>309</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>310</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>679</v>
       </c>
-      <c r="L18" t="s">
-        <v>311</v>
-      </c>
-      <c r="N18" t="s">
-        <v>312</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="M18" t="s">
+        <v>303</v>
+      </c>
+      <c r="P18" t="s">
+        <v>304</v>
+      </c>
+      <c r="T18" t="s">
+        <v>721</v>
+      </c>
+      <c r="V18" t="s">
         <v>313</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AD18" t="s">
+        <v>767</v>
+      </c>
+      <c r="AE18" t="s">
         <v>314</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AJ18" t="s">
+        <v>289</v>
+      </c>
+      <c r="AL18" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F19" t="s">
         <v>658</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>317</v>
       </c>
-      <c r="L19" t="s">
-        <v>318</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="M19" t="s">
+        <v>311</v>
+      </c>
+      <c r="P19" t="s">
+        <v>312</v>
+      </c>
+      <c r="T19" t="s">
+        <v>722</v>
+      </c>
+      <c r="V19" t="s">
         <v>319</v>
       </c>
-      <c r="AA19" t="s">
-        <v>320</v>
-      </c>
-      <c r="AH19" t="s">
+      <c r="AD19" t="s">
+        <v>768</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>795</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>299</v>
+      </c>
+      <c r="AL19" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>687</v>
       </c>
       <c r="F20" t="s">
         <v>659</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>323</v>
       </c>
-      <c r="L20" t="s">
-        <v>324</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="M20" t="s">
+        <v>318</v>
+      </c>
+      <c r="T20" t="s">
+        <v>723</v>
+      </c>
+      <c r="V20" t="s">
         <v>325</v>
       </c>
-      <c r="AA20" t="s">
-        <v>326</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AD20" t="s">
+        <v>769</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>320</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>307</v>
+      </c>
+      <c r="AL20" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>316</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>329</v>
       </c>
-      <c r="L21" t="s">
-        <v>330</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="M21" t="s">
+        <v>324</v>
+      </c>
+      <c r="T21" t="s">
+        <v>724</v>
+      </c>
+      <c r="V21" t="s">
         <v>331</v>
       </c>
-      <c r="AA21" t="s">
-        <v>332</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AD21" t="s">
+        <v>770</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>796</v>
+      </c>
+      <c r="AL21" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
         <v>322</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>335</v>
       </c>
-      <c r="L22" t="s">
-        <v>336</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>337</v>
-      </c>
-      <c r="AH22" t="s">
+      <c r="M22" t="s">
+        <v>330</v>
+      </c>
+      <c r="T22" t="s">
+        <v>725</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>771</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL22" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F23" t="s">
         <v>328</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>340</v>
       </c>
-      <c r="L23" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>342</v>
-      </c>
-      <c r="AH23" t="s">
+      <c r="M23" t="s">
+        <v>336</v>
+      </c>
+      <c r="T23" t="s">
+        <v>726</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>772</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>332</v>
+      </c>
+      <c r="AL23" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
         <v>334</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>345</v>
       </c>
-      <c r="L24" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>347</v>
-      </c>
-      <c r="AH24" t="s">
+      <c r="M24" t="s">
+        <v>341</v>
+      </c>
+      <c r="T24" t="s">
+        <v>727</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>773</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>337</v>
+      </c>
+      <c r="AL24" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
         <v>339</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>350</v>
       </c>
-      <c r="L25" t="s">
-        <v>351</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>352</v>
-      </c>
-      <c r="AH25" t="s">
+      <c r="M25" t="s">
+        <v>346</v>
+      </c>
+      <c r="T25" t="s">
+        <v>728</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>774</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL25" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
         <v>344</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>660</v>
       </c>
-      <c r="L26" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>680</v>
-      </c>
-      <c r="AH26" t="s">
+      <c r="M26" t="s">
+        <v>351</v>
+      </c>
+      <c r="T26" t="s">
+        <v>729</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>775</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AL26" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F27" t="s">
         <v>349</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>661</v>
       </c>
-      <c r="L27" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>357</v>
-      </c>
-      <c r="AH27" t="s">
+      <c r="M27" t="s">
+        <v>356</v>
+      </c>
+      <c r="T27" t="s">
+        <v>730</v>
+      </c>
+      <c r="AD27" t="s">
+        <v>776</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>352</v>
+      </c>
+      <c r="AL27" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
         <v>354</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>355</v>
       </c>
-      <c r="L28" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>362</v>
+      <c r="M28" t="s">
+        <v>361</v>
+      </c>
+      <c r="T28" t="s">
+        <v>731</v>
+      </c>
+      <c r="AD28" t="s">
+        <v>777</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F29" t="s">
         <v>359</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>360</v>
       </c>
-      <c r="L29" t="s">
-        <v>370</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>367</v>
+      <c r="M29" t="s">
+        <v>366</v>
+      </c>
+      <c r="T29" t="s">
+        <v>732</v>
+      </c>
+      <c r="AD29" t="s">
+        <v>778</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>657</v>
+        <v>688</v>
       </c>
       <c r="F30" t="s">
         <v>364</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>365</v>
       </c>
-      <c r="L30" t="s">
-        <v>374</v>
-      </c>
-      <c r="AA30" t="s">
-        <v>371</v>
+      <c r="M30" t="s">
+        <v>370</v>
+      </c>
+      <c r="T30" t="s">
+        <v>733</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>779</v>
+      </c>
+      <c r="AE30" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F31" t="s">
         <v>368</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>369</v>
       </c>
-      <c r="L31" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA31" t="s">
-        <v>375</v>
+      <c r="M31" t="s">
+        <v>374</v>
+      </c>
+      <c r="T31" t="s">
+        <v>734</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>780</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F32" t="s">
         <v>372</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>373</v>
       </c>
-      <c r="L32" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA32" t="s">
-        <v>379</v>
+      <c r="M32" t="s">
+        <v>378</v>
+      </c>
+      <c r="T32" t="s">
+        <v>735</v>
+      </c>
+      <c r="AD32" t="s">
+        <v>781</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F33" t="s">
         <v>376</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>377</v>
       </c>
-      <c r="AA33" t="s">
-        <v>383</v>
+      <c r="M33" t="s">
+        <v>382</v>
+      </c>
+      <c r="T33" t="s">
+        <v>736</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>782</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>32</v>
+        <v>657</v>
       </c>
       <c r="F34" t="s">
         <v>380</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>381</v>
       </c>
-      <c r="AA34" t="s">
-        <v>386</v>
+      <c r="T34" t="s">
+        <v>518</v>
+      </c>
+      <c r="AD34" t="s">
+        <v>783</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
       <c r="F35" t="s">
         <v>384</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>385</v>
       </c>
-      <c r="AA35" t="s">
-        <v>389</v>
+      <c r="T35" t="s">
+        <v>737</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>784</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
       <c r="F36" t="s">
         <v>387</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>388</v>
       </c>
-      <c r="AA36" t="s">
-        <v>392</v>
+      <c r="T36" t="s">
+        <v>536</v>
+      </c>
+      <c r="AD36" t="s">
+        <v>785</v>
+      </c>
+      <c r="AE36" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
       <c r="F37" t="s">
         <v>390</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>391</v>
       </c>
-      <c r="AA37" t="s">
-        <v>395</v>
+      <c r="T37" t="s">
+        <v>537</v>
+      </c>
+      <c r="AD37" t="s">
+        <v>786</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
       <c r="F38" t="s">
         <v>393</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>394</v>
       </c>
-      <c r="AA38" t="s">
-        <v>398</v>
+      <c r="T38" t="s">
+        <v>738</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>787</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="s">
         <v>396</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>397</v>
       </c>
-      <c r="AA39" t="s">
-        <v>401</v>
+      <c r="T39" t="s">
+        <v>739</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>788</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="40">
       <c r="F40" t="s">
         <v>399</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>400</v>
       </c>
-      <c r="AA40" t="s">
-        <v>404</v>
+      <c r="T40" t="s">
+        <v>740</v>
+      </c>
+      <c r="AD40" t="s">
+        <v>789</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="s">
         <v>402</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>403</v>
       </c>
-      <c r="AA41" t="s">
-        <v>407</v>
+      <c r="T41" t="s">
+        <v>741</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>790</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="42">
       <c r="F42" t="s">
         <v>405</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>406</v>
       </c>
-      <c r="AA42" t="s">
-        <v>410</v>
+      <c r="T42" t="s">
+        <v>742</v>
+      </c>
+      <c r="AD42" t="s">
+        <v>791</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="43">
       <c r="F43" t="s">
         <v>408</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>662</v>
       </c>
-      <c r="AA43" t="s">
-        <v>413</v>
+      <c r="T43" t="s">
+        <v>743</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>792</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="s">
         <v>411</v>
       </c>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>409</v>
       </c>
-      <c r="AA44" t="s">
-        <v>416</v>
+      <c r="T44" t="s">
+        <v>744</v>
+      </c>
+      <c r="AD44" t="s">
+        <v>793</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="45">
       <c r="F45" t="s">
         <v>414</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>412</v>
       </c>
-      <c r="AA45" t="s">
-        <v>419</v>
+      <c r="T45" t="s">
+        <v>745</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="s">
         <v>417</v>
       </c>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>415</v>
       </c>
-      <c r="AA46" t="s">
-        <v>422</v>
+      <c r="T46" t="s">
+        <v>746</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="47">
       <c r="F47" t="s">
         <v>420</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>418</v>
       </c>
-      <c r="AA47" t="s">
+      <c r="T47" t="s">
+        <v>747</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="I48" t="s">
+        <v>421</v>
+      </c>
+      <c r="T48" t="s">
+        <v>748</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="I49" t="s">
+        <v>423</v>
+      </c>
+      <c r="T49" t="s">
+        <v>749</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="I50" t="s">
+        <v>425</v>
+      </c>
+      <c r="T50" t="s">
+        <v>573</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="I51" t="s">
+        <v>427</v>
+      </c>
+      <c r="T51" t="s">
+        <v>750</v>
+      </c>
+      <c r="AE51" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="48">
-      <c r="H48" t="s">
-        <v>421</v>
-      </c>
-      <c r="AA48" t="s">
+    <row r="52">
+      <c r="I52" t="s">
+        <v>429</v>
+      </c>
+      <c r="AE52" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="49">
-      <c r="H49" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA49" t="s">
+    <row r="53">
+      <c r="I53" t="s">
+        <v>431</v>
+      </c>
+      <c r="AE53" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="50">
-      <c r="H50" t="s">
-        <v>425</v>
-      </c>
-      <c r="AA50" t="s">
+    <row r="54">
+      <c r="I54" t="s">
+        <v>663</v>
+      </c>
+      <c r="AE54" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="51">
-      <c r="H51" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA51" t="s">
+    <row r="55">
+      <c r="I55" t="s">
+        <v>664</v>
+      </c>
+      <c r="AE55" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="52">
-      <c r="H52" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA52" t="s">
+    <row r="56">
+      <c r="I56" t="s">
+        <v>665</v>
+      </c>
+      <c r="AE56" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="53">
-      <c r="H53" t="s">
-        <v>431</v>
-      </c>
-      <c r="AA53" t="s">
+    <row r="57">
+      <c r="I57" t="s">
+        <v>666</v>
+      </c>
+      <c r="AE57" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="54">
-      <c r="H54" t="s">
-        <v>663</v>
-      </c>
-      <c r="AA54" t="s">
+    <row r="58">
+      <c r="I58" t="s">
+        <v>433</v>
+      </c>
+      <c r="AE58" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="55">
-      <c r="H55" t="s">
-        <v>664</v>
-      </c>
-      <c r="AA55" t="s">
+    <row r="59">
+      <c r="I59" t="s">
+        <v>435</v>
+      </c>
+      <c r="AE59" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="56">
-      <c r="H56" t="s">
-        <v>665</v>
-      </c>
-      <c r="AA56" t="s">
+    <row r="60">
+      <c r="I60" t="s">
+        <v>437</v>
+      </c>
+      <c r="AE60" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="57">
-      <c r="H57" t="s">
-        <v>666</v>
-      </c>
-      <c r="AA57" t="s">
+    <row r="61">
+      <c r="I61" t="s">
+        <v>695</v>
+      </c>
+      <c r="AE61" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="58">
-      <c r="H58" t="s">
-        <v>433</v>
-      </c>
-      <c r="AA58" t="s">
+    <row r="62">
+      <c r="I62" t="s">
+        <v>696</v>
+      </c>
+      <c r="AE62" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="59">
-      <c r="H59" t="s">
-        <v>435</v>
-      </c>
-      <c r="AA59" t="s">
+    <row r="63">
+      <c r="I63" t="s">
+        <v>441</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="I64" t="s">
+        <v>443</v>
+      </c>
+      <c r="AE64" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="60">
-      <c r="H60" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA60" t="s">
+    <row r="65">
+      <c r="I65" t="s">
+        <v>445</v>
+      </c>
+      <c r="AE65" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="61">
-      <c r="H61" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA61" t="s">
+    <row r="66">
+      <c r="I66" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE66" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="62">
-      <c r="H62" t="s">
-        <v>443</v>
-      </c>
-      <c r="AA62" t="s">
+    <row r="67">
+      <c r="I67" t="s">
+        <v>449</v>
+      </c>
+      <c r="AE67" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="63">
-      <c r="H63" t="s">
-        <v>445</v>
-      </c>
-      <c r="AA63" t="s">
+    <row r="68">
+      <c r="I68" t="s">
+        <v>451</v>
+      </c>
+      <c r="AE68" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="64">
-      <c r="H64" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA64" t="s">
+    <row r="69">
+      <c r="I69" t="s">
+        <v>667</v>
+      </c>
+      <c r="AE69" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="65">
-      <c r="H65" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA65" t="s">
+    <row r="70">
+      <c r="I70" t="s">
+        <v>668</v>
+      </c>
+      <c r="AE70" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="66">
-      <c r="H66" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA66" t="s">
+    <row r="71">
+      <c r="I71" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE71" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="67">
-      <c r="H67" t="s">
-        <v>667</v>
-      </c>
-      <c r="AA67" t="s">
+    <row r="72">
+      <c r="I72" t="s">
+        <v>455</v>
+      </c>
+      <c r="AE72" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="68">
-      <c r="H68" t="s">
-        <v>668</v>
-      </c>
-      <c r="AA68" t="s">
+    <row r="73">
+      <c r="I73" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE73" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="69">
-      <c r="H69" t="s">
-        <v>669</v>
-      </c>
-      <c r="AA69" t="s">
+    <row r="74">
+      <c r="I74" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE74" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="70">
-      <c r="H70" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA70" t="s">
+    <row r="75">
+      <c r="I75" t="s">
+        <v>457</v>
+      </c>
+      <c r="AE75" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="71">
-      <c r="H71" t="s">
-        <v>670</v>
-      </c>
-      <c r="AA71" t="s">
+    <row r="76">
+      <c r="I76" t="s">
+        <v>459</v>
+      </c>
+      <c r="AE76" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="72">
-      <c r="H72" t="s">
-        <v>671</v>
-      </c>
-      <c r="AA72" t="s">
+    <row r="77">
+      <c r="I77" t="s">
+        <v>461</v>
+      </c>
+      <c r="AE77" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="73">
-      <c r="H73" t="s">
-        <v>457</v>
-      </c>
-      <c r="AA73" t="s">
+    <row r="78">
+      <c r="I78" t="s">
+        <v>463</v>
+      </c>
+      <c r="AE78" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="74">
-      <c r="H74" t="s">
-        <v>459</v>
-      </c>
-      <c r="AA74" t="s">
+    <row r="79">
+      <c r="I79" t="s">
+        <v>465</v>
+      </c>
+      <c r="AE79" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="75">
-      <c r="H75" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA75" t="s">
+    <row r="80">
+      <c r="I80" t="s">
+        <v>467</v>
+      </c>
+      <c r="AE80" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="76">
-      <c r="H76" t="s">
-        <v>463</v>
-      </c>
-      <c r="AA76" t="s">
+    <row r="81">
+      <c r="I81" t="s">
+        <v>469</v>
+      </c>
+      <c r="AE81" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="77">
-      <c r="H77" t="s">
-        <v>465</v>
-      </c>
-      <c r="AA77" t="s">
+    <row r="82">
+      <c r="I82" t="s">
+        <v>471</v>
+      </c>
+      <c r="AE82" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="78">
-      <c r="H78" t="s">
-        <v>467</v>
-      </c>
-      <c r="AA78" t="s">
+    <row r="83">
+      <c r="I83" t="s">
+        <v>473</v>
+      </c>
+      <c r="AE83" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="79">
-      <c r="H79" t="s">
-        <v>469</v>
-      </c>
-      <c r="AA79" t="s">
+    <row r="84">
+      <c r="I84" t="s">
+        <v>475</v>
+      </c>
+      <c r="AE84" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="80">
-      <c r="H80" t="s">
-        <v>471</v>
-      </c>
-      <c r="AA80" t="s">
+    <row r="85">
+      <c r="I85" t="s">
+        <v>477</v>
+      </c>
+      <c r="AE85" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="81">
-      <c r="H81" t="s">
-        <v>473</v>
-      </c>
-      <c r="AA81" t="s">
+    <row r="86">
+      <c r="I86" t="s">
+        <v>672</v>
+      </c>
+      <c r="AE86" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="82">
-      <c r="H82" t="s">
-        <v>475</v>
-      </c>
-      <c r="AA82" t="s">
+    <row r="87">
+      <c r="I87" t="s">
+        <v>673</v>
+      </c>
+      <c r="AE87" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="83">
-      <c r="H83" t="s">
-        <v>477</v>
-      </c>
-      <c r="AA83" t="s">
+    <row r="88">
+      <c r="I88" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE88" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="84">
-      <c r="H84" t="s">
-        <v>672</v>
-      </c>
-      <c r="AA84" t="s">
+    <row r="89">
+      <c r="I89" t="s">
+        <v>485</v>
+      </c>
+      <c r="AE89" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="85">
-      <c r="H85" t="s">
-        <v>673</v>
-      </c>
-      <c r="AA85" t="s">
+    <row r="90">
+      <c r="I90" t="s">
+        <v>487</v>
+      </c>
+      <c r="AE90" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="86">
-      <c r="H86" t="s">
-        <v>483</v>
-      </c>
-      <c r="AA86" t="s">
+    <row r="91">
+      <c r="I91" t="s">
+        <v>489</v>
+      </c>
+      <c r="AE91" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="87">
-      <c r="H87" t="s">
-        <v>485</v>
-      </c>
-      <c r="AA87" t="s">
+    <row r="92">
+      <c r="I92" t="s">
+        <v>674</v>
+      </c>
+      <c r="AE92" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="88">
-      <c r="H88" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA88" t="s">
+    <row r="93">
+      <c r="I93" t="s">
+        <v>675</v>
+      </c>
+      <c r="AE93" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="89">
-      <c r="H89" t="s">
-        <v>489</v>
-      </c>
-      <c r="AA89" t="s">
+    <row r="94">
+      <c r="I94" t="s">
+        <v>493</v>
+      </c>
+      <c r="AE94" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="90">
-      <c r="H90" t="s">
-        <v>674</v>
-      </c>
-      <c r="AA90" t="s">
+    <row r="95">
+      <c r="I95" t="s">
+        <v>495</v>
+      </c>
+      <c r="AE95" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="91">
-      <c r="H91" t="s">
-        <v>675</v>
-      </c>
-      <c r="AA91" t="s">
+    <row r="96">
+      <c r="I96" t="s">
+        <v>497</v>
+      </c>
+      <c r="AE96" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="92">
-      <c r="H92" t="s">
-        <v>493</v>
-      </c>
-      <c r="AA92" t="s">
+    <row r="97">
+      <c r="I97" t="s">
+        <v>499</v>
+      </c>
+      <c r="AE97" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="93">
-      <c r="H93" t="s">
-        <v>495</v>
-      </c>
-      <c r="AA93" t="s">
+    <row r="98">
+      <c r="I98" t="s">
+        <v>501</v>
+      </c>
+      <c r="AE98" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="94">
-      <c r="H94" t="s">
-        <v>497</v>
-      </c>
-      <c r="AA94" t="s">
+    <row r="99">
+      <c r="I99" t="s">
+        <v>503</v>
+      </c>
+      <c r="AE99" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="95">
-      <c r="H95" t="s">
-        <v>499</v>
-      </c>
-      <c r="AA95" t="s">
+    <row r="100">
+      <c r="I100" t="s">
+        <v>505</v>
+      </c>
+      <c r="AE100" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="96">
-      <c r="H96" t="s">
-        <v>501</v>
-      </c>
-      <c r="AA96" t="s">
+    <row r="101">
+      <c r="I101" t="s">
+        <v>507</v>
+      </c>
+      <c r="AE101" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="I102" t="s">
+        <v>509</v>
+      </c>
+      <c r="AE102" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="97">
-      <c r="H97" t="s">
-        <v>503</v>
-      </c>
-      <c r="AA97" t="s">
+    <row r="103">
+      <c r="I103" t="s">
+        <v>511</v>
+      </c>
+      <c r="AE103" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="98">
-      <c r="H98" t="s">
-        <v>505</v>
-      </c>
-      <c r="AA98" t="s">
+    <row r="104">
+      <c r="I104" t="s">
+        <v>676</v>
+      </c>
+      <c r="AE104" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="99">
-      <c r="H99" t="s">
-        <v>507</v>
-      </c>
-      <c r="AA99" t="s">
+    <row r="105">
+      <c r="I105" t="s">
+        <v>677</v>
+      </c>
+      <c r="AE105" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="100">
-      <c r="H100" t="s">
-        <v>509</v>
-      </c>
-      <c r="AA100" t="s">
+    <row r="106">
+      <c r="I106" t="s">
+        <v>513</v>
+      </c>
+      <c r="AE106" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="101">
-      <c r="H101" t="s">
-        <v>511</v>
-      </c>
-      <c r="AA101" t="s">
+    <row r="107">
+      <c r="I107" t="s">
+        <v>515</v>
+      </c>
+      <c r="AE107" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="102">
-      <c r="H102" t="s">
-        <v>676</v>
-      </c>
-      <c r="AA102" t="s">
+    <row r="108">
+      <c r="I108" t="s">
+        <v>517</v>
+      </c>
+      <c r="AE108" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="103">
-      <c r="H103" t="s">
-        <v>677</v>
-      </c>
-      <c r="AA103" t="s">
+    <row r="109">
+      <c r="I109" t="s">
+        <v>519</v>
+      </c>
+      <c r="AE109" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="104">
-      <c r="H104" t="s">
-        <v>513</v>
-      </c>
-      <c r="AA104" t="s">
+    <row r="110">
+      <c r="I110" t="s">
+        <v>521</v>
+      </c>
+      <c r="AE110" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="105">
-      <c r="H105" t="s">
-        <v>515</v>
-      </c>
-      <c r="AA105" t="s">
+    <row r="111">
+      <c r="I111" t="s">
+        <v>523</v>
+      </c>
+      <c r="AE111" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="106">
-      <c r="H106" t="s">
-        <v>517</v>
-      </c>
-      <c r="AA106" t="s">
+    <row r="112">
+      <c r="I112" t="s">
+        <v>525</v>
+      </c>
+      <c r="AE112" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="107">
-      <c r="H107" t="s">
-        <v>519</v>
-      </c>
-      <c r="AA107" t="s">
+    <row r="113">
+      <c r="I113" t="s">
+        <v>527</v>
+      </c>
+      <c r="AE113" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="108">
-      <c r="H108" t="s">
-        <v>521</v>
-      </c>
-      <c r="AA108" t="s">
+    <row r="114">
+      <c r="AE114" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="109">
-      <c r="H109" t="s">
-        <v>523</v>
-      </c>
-      <c r="AA109" t="s">
+    <row r="115">
+      <c r="AE115" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="110">
-      <c r="H110" t="s">
-        <v>525</v>
-      </c>
-      <c r="AA110" t="s">
+    <row r="116">
+      <c r="AE116" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="111">
-      <c r="H111" t="s">
-        <v>527</v>
-      </c>
-      <c r="AA111" t="s">
+    <row r="117">
+      <c r="AE117" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="112">
-      <c r="AA112" t="s">
+    <row r="118">
+      <c r="AE118" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="113">
-      <c r="AA113" t="s">
+    <row r="119">
+      <c r="AE119" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="114">
-      <c r="AA114" t="s">
+    <row r="120">
+      <c r="AE120" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="115">
-      <c r="AA115" t="s">
+    <row r="121">
+      <c r="AE121" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="116">
-      <c r="AA116" t="s">
+    <row r="122">
+      <c r="AE122" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="117">
-      <c r="AA117" t="s">
+    <row r="123">
+      <c r="AE123" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="118">
-      <c r="AA118" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="AA119" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="AA120" t="s">
+    <row r="124">
+      <c r="AE124" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="121">
-      <c r="AA121" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="AA122" t="s">
+    <row r="125">
+      <c r="AE125" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="123">
-      <c r="AA123" t="s">
+    <row r="126">
+      <c r="AE126" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="124">
-      <c r="AA124" t="s">
+    <row r="127">
+      <c r="AE127" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="125">
-      <c r="AA125" t="s">
+    <row r="128">
+      <c r="AE128" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="AE129" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="126">
-      <c r="AA126" t="s">
+    <row r="130">
+      <c r="AE130" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="127">
-      <c r="AA127" t="s">
+    <row r="131">
+      <c r="AE131" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="128">
-      <c r="AA128" t="s">
+    <row r="132">
+      <c r="AE132" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="129">
-      <c r="AA129" t="s">
+    <row r="133">
+      <c r="AE133" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="130">
-      <c r="AA130" t="s">
+    <row r="134">
+      <c r="AE134" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="131">
-      <c r="AA131" t="s">
+    <row r="135">
+      <c r="AE135" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="132">
-      <c r="AA132" t="s">
+    <row r="136">
+      <c r="AE136" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="133">
-      <c r="AA133" t="s">
+    <row r="137">
+      <c r="AE137" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="134">
-      <c r="AA134" t="s">
+    <row r="138">
+      <c r="AE138" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="135">
-      <c r="AA135" t="s">
+    <row r="139">
+      <c r="AE139" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="AE140" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="136">
-      <c r="AA136" t="s">
+    <row r="141">
+      <c r="AE141" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="137">
-      <c r="AA137" t="s">
+    <row r="142">
+      <c r="AE142" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="138">
-      <c r="AA138" t="s">
+    <row r="143">
+      <c r="AE143" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="139">
-      <c r="AA139" t="s">
+    <row r="144">
+      <c r="AE144" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="140">
-      <c r="AA140" t="s">
+    <row r="145">
+      <c r="AE145" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="141">
-      <c r="AA141" t="s">
+    <row r="146">
+      <c r="AE146" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="142">
-      <c r="AA142" t="s">
+    <row r="147">
+      <c r="AE147" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="143">
-      <c r="AA143" t="s">
+    <row r="148">
+      <c r="AE148" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="144">
-      <c r="AA144" t="s">
+    <row r="149">
+      <c r="AE149" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="145">
-      <c r="AA145" t="s">
+    <row r="150">
+      <c r="AE150" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="146">
-      <c r="AA146" t="s">
+    <row r="151">
+      <c r="AE151" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="AE152" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="147">
-      <c r="AA147" t="s">
+    <row r="153">
+      <c r="AE153" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="148">
-      <c r="AA148" t="s">
+    <row r="154">
+      <c r="AE154" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="149">
-      <c r="AA149" t="s">
+    <row r="155">
+      <c r="AE155" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="150">
-      <c r="AA150" t="s">
+    <row r="156">
+      <c r="AE156" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="151">
-      <c r="AA151" t="s">
+    <row r="157">
+      <c r="AE157" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="152">
-      <c r="AA152" t="s">
+    <row r="158">
+      <c r="AE158" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="153">
-      <c r="AA153" t="s">
+    <row r="159">
+      <c r="AE159" t="s">
         <v>581</v>
       </c>
     </row>
+    <row r="160">
+      <c r="AE160" t="s">
+        <v>804</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:P201"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" tabSelected="true">
-      <pane ySplit="4" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="true" workbookViewId="0" zoomScale="100">
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A20" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <selection activeCell="E30" pane="bottomLeft" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="17.75" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="46.0" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="33.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="26.0" collapsed="false"/>
-    <col min="6" max="6" customWidth="true" style="5" width="60.375" collapsed="false"/>
-    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.75" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="46.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="33.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="26.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="5" width="60.375" collapsed="true"/>
+    <col min="7" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>582</v>
       </c>
@@ -5916,7 +7016,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>589</v>
       </c>
@@ -5937,7 +7037,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="10" r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -5954,7 +7054,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="23" t="s">
         <v>591</v>
       </c>
@@ -5999,7 +7099,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>604</v>
       </c>
@@ -6026,7 +7126,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="6" spans="1:15">
       <c r="A6" s="18" t="s">
         <v>607</v>
       </c>
@@ -6053,7 +7153,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="7" spans="1:15">
       <c r="A7" s="18"/>
       <c r="B7" s="19" t="s">
         <v>610</v>
@@ -6080,7 +7180,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="8" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19" t="s">
         <v>613</v>
@@ -6107,7 +7207,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="9" spans="1:15">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="24" t="s">
@@ -6132,7 +7232,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" ht="42.75" spans="1:15">
+    <row ht="42.75" r="10" spans="1:15">
       <c r="A10" s="18"/>
       <c r="B10" s="19" t="s">
         <v>616</v>
@@ -6159,7 +7259,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="11" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19" t="s">
         <v>618</v>
@@ -6186,7 +7286,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="12" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19" t="s">
         <v>620</v>
@@ -6213,7 +7313,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="13" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19" t="s">
         <v>622</v>
@@ -6240,7 +7340,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="14" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="19" t="s">
         <v>624</v>
@@ -6267,7 +7367,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="15" spans="1:15">
       <c r="A15" s="18" t="s">
         <v>626</v>
       </c>
@@ -6294,7 +7394,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="16" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19" t="s">
         <v>628</v>
@@ -6321,7 +7421,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" ht="75" spans="1:15">
+    <row ht="75" r="17" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19" t="s">
         <v>630</v>
@@ -6348,7 +7448,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="60" spans="1:15">
+    <row ht="60" r="18" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
         <v>632</v>
@@ -6375,7 +7475,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" ht="135" spans="1:15">
+    <row ht="135" r="19" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
         <v>632</v>
@@ -6402,7 +7502,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" ht="75" spans="1:15">
+    <row ht="75" r="20" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19" t="s">
         <v>635</v>
@@ -6429,7 +7529,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="21" spans="1:15">
       <c r="A21" s="18" t="s">
         <v>637</v>
       </c>
@@ -6456,7 +7556,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="105" spans="1:15">
+    <row ht="105" r="22" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19" t="s">
         <v>635</v>
@@ -6483,7 +7583,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" ht="21" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="21" r="23" spans="1:15">
       <c r="A23" s="18" t="s">
         <v>640</v>
       </c>
@@ -6510,7 +7610,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="24" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24" t="s">
@@ -6535,7 +7635,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="25" spans="1:15">
       <c r="A25" s="18"/>
       <c r="B25" s="19" t="s">
         <v>644</v>
@@ -6560,7 +7660,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="26" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19" t="s">
         <v>645</v>
@@ -6587,7 +7687,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="27" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19" t="s">
         <v>647</v>
@@ -6612,7 +7712,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="28" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24" t="s">
@@ -6635,7 +7735,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="29" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="34" t="s">
         <v>648</v>
@@ -6660,7 +7760,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="30" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24"/>
@@ -6677,7 +7777,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="31" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="24"/>
@@ -6694,7 +7794,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="32" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
@@ -6711,7 +7811,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="33" spans="1:15">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="24"/>
@@ -6728,7 +7828,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="34" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="24"/>
@@ -6745,7 +7845,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="35" spans="1:15">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="24"/>
@@ -6762,7 +7862,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="36" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="24"/>
@@ -6779,7 +7879,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="37" spans="1:15">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
@@ -6796,7 +7896,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="38" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="24"/>
@@ -6813,7 +7913,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="39" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="24"/>
@@ -6830,7 +7930,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="40" spans="1:15">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="24"/>
@@ -6847,7 +7947,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="41" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="24"/>
@@ -6864,7 +7964,7 @@
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="42" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="24"/>
@@ -6881,7 +7981,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="43" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="24"/>
@@ -6898,7 +7998,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="21"/>
     </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="44" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="24"/>
@@ -6915,7 +8015,7 @@
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="45" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="24"/>
@@ -6932,7 +8032,7 @@
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="46" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="24"/>
@@ -6949,7 +8049,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="47" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="24"/>
@@ -6966,7 +8066,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="48" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="24"/>
@@ -6983,7 +8083,7 @@
       <c r="N48" s="22"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="49" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="24"/>
@@ -7000,7 +8100,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="50" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="24"/>
@@ -7017,7 +8117,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="51" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="24"/>
@@ -7034,7 +8134,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="21"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="52" spans="1:15">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="24"/>
@@ -7051,7 +8151,7 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="53" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="24"/>
@@ -7068,7 +8168,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="21"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="54" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="24"/>
@@ -7085,7 +8185,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="21"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="55" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="24"/>
@@ -7102,7 +8202,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="56" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="24"/>
@@ -7119,7 +8219,7 @@
       <c r="N56" s="22"/>
       <c r="O56" s="21"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="57" spans="1:15">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="24"/>
@@ -7136,7 +8236,7 @@
       <c r="N57" s="22"/>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="58" spans="1:15">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="24"/>
@@ -7153,7 +8253,7 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="59" spans="1:15">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="24"/>
@@ -7170,7 +8270,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="21"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="60" spans="1:15">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="24"/>
@@ -7187,7 +8287,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="61" spans="1:15">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="24"/>
@@ -7204,7 +8304,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="62" spans="1:15">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="24"/>
@@ -7221,7 +8321,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="21"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="63" spans="1:15">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="24"/>
@@ -7238,7 +8338,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="21"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="64" spans="1:15">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="24"/>
@@ -7255,7 +8355,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="21"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="65" spans="1:15">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="24"/>
@@ -7272,7 +8372,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="21"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="66" spans="1:15">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="24"/>
@@ -7289,7 +8389,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="67" spans="1:15">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
@@ -7306,7 +8406,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="68" spans="1:15">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="24"/>
@@ -7323,7 +8423,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="69" spans="1:15">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="24"/>
@@ -7340,7 +8440,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="70" spans="1:15">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="24"/>
@@ -7357,7 +8457,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="71" spans="1:15">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="24"/>
@@ -7374,7 +8474,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="72" spans="1:15">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="24"/>
@@ -7391,7 +8491,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="73" spans="1:15">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="24"/>
@@ -7408,7 +8508,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="74" spans="1:15">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="24"/>
@@ -7425,7 +8525,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="75" spans="1:15">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="24"/>
@@ -7442,7 +8542,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="76" spans="1:15">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="24"/>
@@ -7459,7 +8559,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="77" spans="1:15">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="24"/>
@@ -7476,7 +8576,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="78" spans="1:15">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="24"/>
@@ -7493,7 +8593,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="79" spans="1:15">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="24"/>
@@ -7510,7 +8610,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="80" spans="1:15">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="24"/>
@@ -7527,7 +8627,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="81" spans="1:15">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="24"/>
@@ -7544,7 +8644,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="82" spans="1:15">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="24"/>
@@ -7561,7 +8661,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="83" spans="1:15">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="24"/>
@@ -7578,7 +8678,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="84" spans="1:15">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="24"/>
@@ -7595,7 +8695,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="85" spans="1:15">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="24"/>
@@ -7612,7 +8712,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="86" spans="1:15">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="24"/>
@@ -7629,7 +8729,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="87" spans="1:15">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="24"/>
@@ -7646,7 +8746,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="88" spans="1:15">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="24"/>
@@ -7663,7 +8763,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="89" spans="1:15">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="24"/>
@@ -7680,7 +8780,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="90" spans="1:15">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="24"/>
@@ -7697,7 +8797,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="91" spans="1:15">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="24"/>
@@ -7714,7 +8814,7 @@
       <c r="N91" s="22"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="92" spans="1:15">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="24"/>
@@ -7731,7 +8831,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="21"/>
     </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="93" spans="1:15">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="24"/>
@@ -7748,7 +8848,7 @@
       <c r="N93" s="22"/>
       <c r="O93" s="21"/>
     </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="94" spans="1:15">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="24"/>
@@ -7765,7 +8865,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="21"/>
     </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="95" spans="1:15">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="24"/>
@@ -7782,7 +8882,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="21"/>
     </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="96" spans="1:15">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="24"/>
@@ -7799,7 +8899,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="97" spans="1:15">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="24"/>
@@ -7816,7 +8916,7 @@
       <c r="N97" s="22"/>
       <c r="O97" s="21"/>
     </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="98" spans="1:15">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="24"/>
@@ -7833,7 +8933,7 @@
       <c r="N98" s="22"/>
       <c r="O98" s="21"/>
     </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="99" spans="1:15">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="24"/>
@@ -7850,7 +8950,7 @@
       <c r="N99" s="22"/>
       <c r="O99" s="21"/>
     </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="100" spans="1:15">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="24"/>
@@ -7867,7 +8967,7 @@
       <c r="N100" s="22"/>
       <c r="O100" s="21"/>
     </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="101" spans="1:15">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="24"/>
@@ -7884,7 +8984,7 @@
       <c r="N101" s="22"/>
       <c r="O101" s="21"/>
     </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="102" spans="1:15">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="24"/>
@@ -7901,7 +9001,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="21"/>
     </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="103" spans="1:15">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="24"/>
@@ -7918,7 +9018,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="21"/>
     </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="104" spans="1:15">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="24"/>
@@ -7935,7 +9035,7 @@
       <c r="N104" s="22"/>
       <c r="O104" s="21"/>
     </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="105" spans="1:15">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
       <c r="C105" s="24"/>
@@ -7952,7 +9052,7 @@
       <c r="N105" s="22"/>
       <c r="O105" s="21"/>
     </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="106" spans="1:15">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
       <c r="C106" s="24"/>
@@ -7969,7 +9069,7 @@
       <c r="N106" s="22"/>
       <c r="O106" s="21"/>
     </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="24"/>
@@ -7986,7 +9086,7 @@
       <c r="N107" s="22"/>
       <c r="O107" s="21"/>
     </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
       <c r="C108" s="24"/>
@@ -8003,7 +9103,7 @@
       <c r="N108" s="22"/>
       <c r="O108" s="21"/>
     </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="24"/>
@@ -8020,7 +9120,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="21"/>
     </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
       <c r="C110" s="24"/>
@@ -8037,7 +9137,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="21"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="24"/>
@@ -8054,7 +9154,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="21"/>
     </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="24"/>
@@ -8071,7 +9171,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="21"/>
     </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="24"/>
@@ -8088,7 +9188,7 @@
       <c r="N113" s="22"/>
       <c r="O113" s="21"/>
     </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="24"/>
@@ -8105,7 +9205,7 @@
       <c r="N114" s="22"/>
       <c r="O114" s="21"/>
     </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="C115" s="24"/>
@@ -8122,7 +9222,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="21"/>
     </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="24"/>
@@ -8139,7 +9239,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="21"/>
     </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="117" spans="1:15">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="24"/>
@@ -8156,7 +9256,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="21"/>
     </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="118" spans="1:15">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="C118" s="24"/>
@@ -8173,7 +9273,7 @@
       <c r="N118" s="22"/>
       <c r="O118" s="21"/>
     </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="119" spans="1:15">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="24"/>
@@ -8190,7 +9290,7 @@
       <c r="N119" s="22"/>
       <c r="O119" s="21"/>
     </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="120" spans="1:15">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="24"/>
@@ -8207,7 +9307,7 @@
       <c r="N120" s="22"/>
       <c r="O120" s="21"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="121" spans="1:15">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="24"/>
@@ -8224,7 +9324,7 @@
       <c r="N121" s="22"/>
       <c r="O121" s="21"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="122" spans="1:15">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="24"/>
@@ -8241,7 +9341,7 @@
       <c r="N122" s="22"/>
       <c r="O122" s="21"/>
     </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="123" spans="1:15">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="24"/>
@@ -8258,7 +9358,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="21"/>
     </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="124" spans="1:15">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="24"/>
@@ -8275,7 +9375,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="21"/>
     </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="125" spans="1:15">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="24"/>
@@ -8292,7 +9392,7 @@
       <c r="N125" s="22"/>
       <c r="O125" s="21"/>
     </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="126" spans="1:15">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="24"/>
@@ -8309,7 +9409,7 @@
       <c r="N126" s="22"/>
       <c r="O126" s="21"/>
     </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="127" spans="1:15">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="24"/>
@@ -8326,7 +9426,7 @@
       <c r="N127" s="22"/>
       <c r="O127" s="21"/>
     </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="128" spans="1:15">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="24"/>
@@ -8343,7 +9443,7 @@
       <c r="N128" s="22"/>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="129" spans="1:15">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="24"/>
@@ -8360,7 +9460,7 @@
       <c r="N129" s="22"/>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="130" spans="1:15">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="24"/>
@@ -8377,7 +9477,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="131" spans="1:15">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="24"/>
@@ -8394,7 +9494,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="132" spans="1:15">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="24"/>
@@ -8411,7 +9511,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="133" spans="1:15">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
       <c r="C133" s="24"/>
@@ -8428,7 +9528,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="134" spans="1:15">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="24"/>
@@ -8445,7 +9545,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="21"/>
     </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="135" spans="1:15">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="C135" s="24"/>
@@ -8462,7 +9562,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="136" spans="1:15">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="24"/>
@@ -8479,7 +9579,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="137" spans="1:15">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="C137" s="24"/>
@@ -8496,7 +9596,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="138" spans="1:15">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="C138" s="24"/>
@@ -8513,7 +9613,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="139" spans="1:15">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="C139" s="24"/>
@@ -8530,7 +9630,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="140" spans="1:15">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="C140" s="24"/>
@@ -8547,7 +9647,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="141" spans="1:15">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
       <c r="C141" s="24"/>
@@ -8564,7 +9664,7 @@
       <c r="N141" s="22"/>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="142" spans="1:15">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
       <c r="C142" s="24"/>
@@ -8581,7 +9681,7 @@
       <c r="N142" s="22"/>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="143" spans="1:15">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
       <c r="C143" s="24"/>
@@ -8598,7 +9698,7 @@
       <c r="N143" s="22"/>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="144" spans="1:15">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
       <c r="C144" s="24"/>
@@ -8615,7 +9715,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="145" spans="1:15">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="24"/>
@@ -8632,7 +9732,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="21"/>
     </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="146" spans="1:15">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="24"/>
@@ -8649,7 +9749,7 @@
       <c r="N146" s="22"/>
       <c r="O146" s="21"/>
     </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="147" spans="1:15">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
       <c r="C147" s="24"/>
@@ -8666,7 +9766,7 @@
       <c r="N147" s="22"/>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="148" spans="1:15">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="24"/>
@@ -8683,7 +9783,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="149" spans="1:15">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="24"/>
@@ -8700,7 +9800,7 @@
       <c r="N149" s="22"/>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="150" spans="1:15">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="24"/>
@@ -8717,7 +9817,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="151" spans="1:15">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
       <c r="C151" s="24"/>
@@ -8734,7 +9834,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="152" spans="1:15">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="24"/>
@@ -8751,7 +9851,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="153" spans="1:15">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="24"/>
@@ -8768,7 +9868,7 @@
       <c r="N153" s="22"/>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="154" spans="1:15">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
       <c r="C154" s="24"/>
@@ -8785,7 +9885,7 @@
       <c r="N154" s="22"/>
       <c r="O154" s="21"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="155" spans="1:15">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
       <c r="C155" s="24"/>
@@ -8802,7 +9902,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="21"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="156" spans="1:15">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
       <c r="C156" s="24"/>
@@ -8819,7 +9919,7 @@
       <c r="N156" s="22"/>
       <c r="O156" s="21"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="157" spans="1:15">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
       <c r="C157" s="24"/>
@@ -8836,7 +9936,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="21"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="158" spans="1:15">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
       <c r="C158" s="24"/>
@@ -8853,7 +9953,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="21"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="159" spans="1:15">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="24"/>
@@ -8870,7 +9970,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="21"/>
     </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="160" spans="1:15">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
       <c r="C160" s="24"/>
@@ -8887,7 +9987,7 @@
       <c r="N160" s="22"/>
       <c r="O160" s="21"/>
     </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="161" spans="1:15">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
       <c r="C161" s="24"/>
@@ -8904,7 +10004,7 @@
       <c r="N161" s="22"/>
       <c r="O161" s="21"/>
     </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="162" spans="1:15">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
       <c r="C162" s="24"/>
@@ -8921,7 +10021,7 @@
       <c r="N162" s="22"/>
       <c r="O162" s="21"/>
     </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="163" spans="1:15">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
       <c r="C163" s="24"/>
@@ -8938,7 +10038,7 @@
       <c r="N163" s="22"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="164" spans="1:15">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
       <c r="C164" s="24"/>
@@ -8955,7 +10055,7 @@
       <c r="N164" s="22"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="165" spans="1:15">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
       <c r="C165" s="24"/>
@@ -8972,7 +10072,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="166" spans="1:15">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
       <c r="C166" s="24"/>
@@ -8989,7 +10089,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="167" spans="1:15">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
       <c r="C167" s="24"/>
@@ -9006,7 +10106,7 @@
       <c r="N167" s="22"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="168" spans="1:15">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="24"/>
@@ -9023,7 +10123,7 @@
       <c r="N168" s="22"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="169" spans="1:15">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
       <c r="C169" s="24"/>
@@ -9040,7 +10140,7 @@
       <c r="N169" s="22"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="170" spans="1:15">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
       <c r="C170" s="24"/>
@@ -9057,7 +10157,7 @@
       <c r="N170" s="22"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="171" spans="1:15">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
       <c r="C171" s="24"/>
@@ -9074,7 +10174,7 @@
       <c r="N171" s="22"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="172" spans="1:15">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="24"/>
@@ -9091,7 +10191,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="173" spans="1:15">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
       <c r="C173" s="24"/>
@@ -9108,7 +10208,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="174" spans="1:15">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="24"/>
@@ -9125,7 +10225,7 @@
       <c r="N174" s="22"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="175" spans="1:15">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="24"/>
@@ -9142,7 +10242,7 @@
       <c r="N175" s="22"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="176" spans="1:15">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="24"/>
@@ -9159,7 +10259,7 @@
       <c r="N176" s="22"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="177" spans="1:15">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
       <c r="C177" s="24"/>
@@ -9176,7 +10276,7 @@
       <c r="N177" s="22"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="178" spans="1:15">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="24"/>
@@ -9193,7 +10293,7 @@
       <c r="N178" s="22"/>
       <c r="O178" s="21"/>
     </row>
-    <row r="179" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="179" spans="1:15">
       <c r="A179" s="18"/>
       <c r="B179" s="19"/>
       <c r="C179" s="24"/>
@@ -9210,7 +10310,7 @@
       <c r="N179" s="22"/>
       <c r="O179" s="21"/>
     </row>
-    <row r="180" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="180" spans="1:15">
       <c r="A180" s="18"/>
       <c r="B180" s="19"/>
       <c r="C180" s="24"/>
@@ -9227,7 +10327,7 @@
       <c r="N180" s="22"/>
       <c r="O180" s="21"/>
     </row>
-    <row r="181" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="181" spans="1:15">
       <c r="A181" s="18"/>
       <c r="B181" s="19"/>
       <c r="C181" s="24"/>
@@ -9244,7 +10344,7 @@
       <c r="N181" s="22"/>
       <c r="O181" s="21"/>
     </row>
-    <row r="182" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="182" spans="1:15">
       <c r="A182" s="18"/>
       <c r="B182" s="19"/>
       <c r="C182" s="24"/>
@@ -9261,7 +10361,7 @@
       <c r="N182" s="22"/>
       <c r="O182" s="21"/>
     </row>
-    <row r="183" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="183" spans="1:15">
       <c r="A183" s="18"/>
       <c r="B183" s="19"/>
       <c r="C183" s="24"/>
@@ -9278,7 +10378,7 @@
       <c r="N183" s="22"/>
       <c r="O183" s="21"/>
     </row>
-    <row r="184" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="184" spans="1:15">
       <c r="A184" s="18"/>
       <c r="B184" s="19"/>
       <c r="C184" s="24"/>
@@ -9295,7 +10395,7 @@
       <c r="N184" s="22"/>
       <c r="O184" s="21"/>
     </row>
-    <row r="185" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="185" spans="1:15">
       <c r="A185" s="18"/>
       <c r="B185" s="19"/>
       <c r="C185" s="24"/>
@@ -9312,7 +10412,7 @@
       <c r="N185" s="22"/>
       <c r="O185" s="21"/>
     </row>
-    <row r="186" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="186" spans="1:15">
       <c r="A186" s="18"/>
       <c r="B186" s="19"/>
       <c r="C186" s="24"/>
@@ -9329,7 +10429,7 @@
       <c r="N186" s="22"/>
       <c r="O186" s="21"/>
     </row>
-    <row r="187" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="187" spans="1:15">
       <c r="A187" s="18"/>
       <c r="B187" s="19"/>
       <c r="C187" s="24"/>
@@ -9346,7 +10446,7 @@
       <c r="N187" s="22"/>
       <c r="O187" s="21"/>
     </row>
-    <row r="188" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="188" spans="1:15">
       <c r="A188" s="18"/>
       <c r="B188" s="19"/>
       <c r="C188" s="24"/>
@@ -9363,7 +10463,7 @@
       <c r="N188" s="22"/>
       <c r="O188" s="21"/>
     </row>
-    <row r="189" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="189" spans="1:15">
       <c r="A189" s="18"/>
       <c r="B189" s="19"/>
       <c r="C189" s="24"/>
@@ -9380,7 +10480,7 @@
       <c r="N189" s="22"/>
       <c r="O189" s="21"/>
     </row>
-    <row r="190" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="190" spans="1:15">
       <c r="A190" s="18"/>
       <c r="B190" s="19"/>
       <c r="C190" s="24"/>
@@ -9397,7 +10497,7 @@
       <c r="N190" s="22"/>
       <c r="O190" s="21"/>
     </row>
-    <row r="191" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="191" spans="1:15">
       <c r="A191" s="18"/>
       <c r="B191" s="19"/>
       <c r="C191" s="24"/>
@@ -9414,7 +10514,7 @@
       <c r="N191" s="22"/>
       <c r="O191" s="21"/>
     </row>
-    <row r="192" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="192" spans="1:15">
       <c r="A192" s="18"/>
       <c r="B192" s="19"/>
       <c r="C192" s="24"/>
@@ -9431,7 +10531,7 @@
       <c r="N192" s="22"/>
       <c r="O192" s="21"/>
     </row>
-    <row r="193" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="193" spans="1:15">
       <c r="A193" s="18"/>
       <c r="B193" s="19"/>
       <c r="C193" s="24"/>
@@ -9448,7 +10548,7 @@
       <c r="N193" s="22"/>
       <c r="O193" s="21"/>
     </row>
-    <row r="194" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="194" spans="1:15">
       <c r="A194" s="18"/>
       <c r="B194" s="19"/>
       <c r="C194" s="24"/>
@@ -9465,7 +10565,7 @@
       <c r="N194" s="22"/>
       <c r="O194" s="21"/>
     </row>
-    <row r="195" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="195" spans="1:15">
       <c r="A195" s="18"/>
       <c r="B195" s="19"/>
       <c r="C195" s="24"/>
@@ -9482,7 +10582,7 @@
       <c r="N195" s="22"/>
       <c r="O195" s="21"/>
     </row>
-    <row r="196" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="196" spans="1:15">
       <c r="A196" s="18"/>
       <c r="B196" s="19"/>
       <c r="C196" s="24"/>
@@ -9499,7 +10599,7 @@
       <c r="N196" s="22"/>
       <c r="O196" s="21"/>
     </row>
-    <row r="197" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="197" spans="1:15">
       <c r="A197" s="18"/>
       <c r="B197" s="19"/>
       <c r="C197" s="24"/>
@@ -9516,7 +10616,7 @@
       <c r="N197" s="22"/>
       <c r="O197" s="21"/>
     </row>
-    <row r="198" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="198" spans="1:15">
       <c r="A198" s="18"/>
       <c r="B198" s="19"/>
       <c r="C198" s="24"/>
@@ -9533,7 +10633,7 @@
       <c r="N198" s="22"/>
       <c r="O198" s="21"/>
     </row>
-    <row r="199" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="199" spans="1:15">
       <c r="A199" s="18"/>
       <c r="B199" s="19"/>
       <c r="C199" s="24"/>
@@ -9550,7 +10650,7 @@
       <c r="N199" s="22"/>
       <c r="O199" s="21"/>
     </row>
-    <row r="200" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="200" spans="1:15">
       <c r="A200" s="18"/>
       <c r="B200" s="19"/>
       <c r="C200" s="24"/>
@@ -9567,7 +10667,7 @@
       <c r="N200" s="22"/>
       <c r="O200" s="21"/>
     </row>
-    <row r="201" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="201" spans="1:15">
       <c r="A201" s="18"/>
       <c r="B201" s="19"/>
       <c r="C201" s="24"/>
@@ -9585,7 +10685,7 @@
       <c r="O201" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -9593,70 +10693,70 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N102:N201">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N102,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N102,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N102,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N101">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="10" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="10" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="12" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D5:D22 D24:D201">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D23 D5:D22 D24:D201" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23 C5:C22 C24:C201">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23 C5:C22 C24:C201" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
   <dimension ref="A1:P178"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="100">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane activePane="bottomLeft" state="frozen" topLeftCell="A10" ySplit="4"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="bottomLeft" activeCell="F21" sqref="F21"/>
+      <selection activeCell="F21" pane="bottomLeft" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="17.375" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" style="3" width="38.75" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" style="4" width="10.0" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" style="5" width="33.75" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" style="5" width="24.5" collapsed="false"/>
-    <col min="6" max="7" customWidth="true" style="5" width="21.75" collapsed="false"/>
-    <col min="8" max="9" customWidth="true" style="5" width="20.0" collapsed="false"/>
-    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="false"/>
-    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="false"/>
-    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="false"/>
-    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="false"/>
-    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="false"/>
-    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="false"/>
-    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="false"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="38.75" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="10.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="5" width="33.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="5" width="24.5" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="5" width="21.75" collapsed="true"/>
+    <col min="8" max="9" customWidth="true" style="5" width="20.0" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="6" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="7" width="1.66666666666667" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="8" width="12.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="9" width="12.5" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="8" width="19.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="7" width="49.8333333333333" collapsed="true"/>
+    <col min="16" max="16384" style="10" width="10.8333333333333" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="1" spans="1:15">
       <c r="A1" s="11" t="s">
         <v>582</v>
       </c>
@@ -9687,7 +10787,7 @@
       <c r="N1" s="13"/>
       <c r="O1" s="27"/>
     </row>
-    <row r="2" ht="93" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="93" r="2" spans="1:15">
       <c r="A2" s="14" t="s">
         <v>589</v>
       </c>
@@ -9708,7 +10808,7 @@
       <c r="N2" s="29"/>
       <c r="O2" s="29"/>
     </row>
-    <row r="3" ht="10" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="10" r="3" spans="1:15">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="20"/>
@@ -9725,7 +10825,7 @@
       <c r="N3" s="22"/>
       <c r="O3" s="21"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="24" customHeight="1" spans="1:15">
+    <row customFormat="1" customHeight="1" ht="24" r="4" s="1" spans="1:15">
       <c r="A4" s="23" t="s">
         <v>591</v>
       </c>
@@ -9770,7 +10870,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="5" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="5" spans="1:15">
       <c r="A5" s="18" t="s">
         <v>604</v>
       </c>
@@ -9797,7 +10897,7 @@
       <c r="N5" s="22"/>
       <c r="O5" s="21"/>
     </row>
-    <row r="6" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="6" spans="1:15">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="24" t="s">
@@ -9822,7 +10922,7 @@
       <c r="N6" s="22"/>
       <c r="O6" s="21"/>
     </row>
-    <row r="7" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="7" spans="1:15">
       <c r="A7" s="18" t="s">
         <v>650</v>
       </c>
@@ -9849,7 +10949,7 @@
       <c r="N7" s="22"/>
       <c r="O7" s="21"/>
     </row>
-    <row r="8" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="8" spans="1:15">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="24" t="s">
@@ -9876,7 +10976,7 @@
       <c r="N8" s="22"/>
       <c r="O8" s="21"/>
     </row>
-    <row r="9" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="9" spans="1:15">
       <c r="A9" s="18" t="s">
         <v>654</v>
       </c>
@@ -9903,7 +11003,7 @@
       <c r="N9" s="22"/>
       <c r="O9" s="21"/>
     </row>
-    <row r="10" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="10" spans="1:15">
       <c r="A10" s="18" t="s">
         <v>656</v>
       </c>
@@ -9928,7 +11028,7 @@
       <c r="N10" s="22"/>
       <c r="O10" s="21"/>
     </row>
-    <row r="11" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="11" spans="1:15">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="24"/>
@@ -9945,7 +11045,7 @@
       <c r="N11" s="22"/>
       <c r="O11" s="21"/>
     </row>
-    <row r="12" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="12" spans="1:15">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="24"/>
@@ -9962,7 +11062,7 @@
       <c r="N12" s="22"/>
       <c r="O12" s="21"/>
     </row>
-    <row r="13" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="13" spans="1:15">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="24"/>
@@ -9979,7 +11079,7 @@
       <c r="N13" s="22"/>
       <c r="O13" s="21"/>
     </row>
-    <row r="14" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="14" spans="1:15">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="24"/>
@@ -9996,7 +11096,7 @@
       <c r="N14" s="22"/>
       <c r="O14" s="21"/>
     </row>
-    <row r="15" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="15" spans="1:15">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="24"/>
@@ -10013,7 +11113,7 @@
       <c r="N15" s="22"/>
       <c r="O15" s="21"/>
     </row>
-    <row r="16" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="16" spans="1:15">
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="24"/>
@@ -10030,7 +11130,7 @@
       <c r="N16" s="22"/>
       <c r="O16" s="21"/>
     </row>
-    <row r="17" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="17" spans="1:15">
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="24"/>
@@ -10047,7 +11147,7 @@
       <c r="N17" s="22"/>
       <c r="O17" s="21"/>
     </row>
-    <row r="18" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="18" spans="1:15">
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="24"/>
@@ -10064,7 +11164,7 @@
       <c r="N18" s="22"/>
       <c r="O18" s="21"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="19" spans="1:15">
       <c r="A19" s="18"/>
       <c r="B19" s="19"/>
       <c r="C19" s="24"/>
@@ -10081,7 +11181,7 @@
       <c r="N19" s="22"/>
       <c r="O19" s="21"/>
     </row>
-    <row r="20" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="20" spans="1:15">
       <c r="A20" s="18"/>
       <c r="B20" s="19"/>
       <c r="C20" s="24"/>
@@ -10098,7 +11198,7 @@
       <c r="N20" s="22"/>
       <c r="O20" s="21"/>
     </row>
-    <row r="21" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="21" spans="1:15">
       <c r="A21" s="18"/>
       <c r="B21" s="19"/>
       <c r="C21" s="24"/>
@@ -10115,7 +11215,7 @@
       <c r="N21" s="22"/>
       <c r="O21" s="21"/>
     </row>
-    <row r="22" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="22" spans="1:15">
       <c r="A22" s="18"/>
       <c r="B22" s="19"/>
       <c r="C22" s="24"/>
@@ -10132,7 +11232,7 @@
       <c r="N22" s="22"/>
       <c r="O22" s="21"/>
     </row>
-    <row r="23" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="23" spans="1:15">
       <c r="A23" s="18"/>
       <c r="B23" s="19"/>
       <c r="C23" s="24"/>
@@ -10149,7 +11249,7 @@
       <c r="N23" s="22"/>
       <c r="O23" s="21"/>
     </row>
-    <row r="24" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="24" spans="1:15">
       <c r="A24" s="18"/>
       <c r="B24" s="19"/>
       <c r="C24" s="24"/>
@@ -10166,7 +11266,7 @@
       <c r="N24" s="22"/>
       <c r="O24" s="21"/>
     </row>
-    <row r="25" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="25" spans="1:15">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="24"/>
@@ -10183,7 +11283,7 @@
       <c r="N25" s="22"/>
       <c r="O25" s="21"/>
     </row>
-    <row r="26" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="26" spans="1:15">
       <c r="A26" s="18"/>
       <c r="B26" s="19"/>
       <c r="C26" s="24"/>
@@ -10200,7 +11300,7 @@
       <c r="N26" s="22"/>
       <c r="O26" s="21"/>
     </row>
-    <row r="27" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="27" spans="1:15">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="24"/>
@@ -10217,7 +11317,7 @@
       <c r="N27" s="22"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="28" spans="1:15">
       <c r="A28" s="18"/>
       <c r="B28" s="19"/>
       <c r="C28" s="24"/>
@@ -10234,7 +11334,7 @@
       <c r="N28" s="22"/>
       <c r="O28" s="21"/>
     </row>
-    <row r="29" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="29" spans="1:15">
       <c r="A29" s="18"/>
       <c r="B29" s="19"/>
       <c r="C29" s="24"/>
@@ -10251,7 +11351,7 @@
       <c r="N29" s="22"/>
       <c r="O29" s="21"/>
     </row>
-    <row r="30" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="30" spans="1:15">
       <c r="A30" s="18"/>
       <c r="B30" s="19"/>
       <c r="C30" s="24"/>
@@ -10268,7 +11368,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="21"/>
     </row>
-    <row r="31" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="31" spans="1:15">
       <c r="A31" s="18"/>
       <c r="B31" s="19"/>
       <c r="C31" s="24"/>
@@ -10285,7 +11385,7 @@
       <c r="N31" s="22"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="32" spans="1:15">
       <c r="A32" s="18"/>
       <c r="B32" s="19"/>
       <c r="C32" s="24"/>
@@ -10302,7 +11402,7 @@
       <c r="N32" s="22"/>
       <c r="O32" s="21"/>
     </row>
-    <row r="33" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="33" spans="1:15">
       <c r="A33" s="18"/>
       <c r="B33" s="19"/>
       <c r="C33" s="24"/>
@@ -10319,7 +11419,7 @@
       <c r="N33" s="22"/>
       <c r="O33" s="21"/>
     </row>
-    <row r="34" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="34" spans="1:15">
       <c r="A34" s="18"/>
       <c r="B34" s="19"/>
       <c r="C34" s="24"/>
@@ -10336,7 +11436,7 @@
       <c r="N34" s="22"/>
       <c r="O34" s="21"/>
     </row>
-    <row r="35" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="35" spans="1:15">
       <c r="A35" s="18"/>
       <c r="B35" s="19"/>
       <c r="C35" s="24"/>
@@ -10353,7 +11453,7 @@
       <c r="N35" s="22"/>
       <c r="O35" s="21"/>
     </row>
-    <row r="36" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="36" spans="1:15">
       <c r="A36" s="18"/>
       <c r="B36" s="19"/>
       <c r="C36" s="24"/>
@@ -10370,7 +11470,7 @@
       <c r="N36" s="22"/>
       <c r="O36" s="21"/>
     </row>
-    <row r="37" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="37" spans="1:15">
       <c r="A37" s="18"/>
       <c r="B37" s="19"/>
       <c r="C37" s="24"/>
@@ -10387,7 +11487,7 @@
       <c r="N37" s="22"/>
       <c r="O37" s="21"/>
     </row>
-    <row r="38" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="38" spans="1:15">
       <c r="A38" s="18"/>
       <c r="B38" s="19"/>
       <c r="C38" s="24"/>
@@ -10404,7 +11504,7 @@
       <c r="N38" s="22"/>
       <c r="O38" s="21"/>
     </row>
-    <row r="39" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="39" spans="1:15">
       <c r="A39" s="18"/>
       <c r="B39" s="19"/>
       <c r="C39" s="24"/>
@@ -10421,7 +11521,7 @@
       <c r="N39" s="22"/>
       <c r="O39" s="21"/>
     </row>
-    <row r="40" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="40" spans="1:15">
       <c r="A40" s="18"/>
       <c r="B40" s="19"/>
       <c r="C40" s="24"/>
@@ -10438,7 +11538,7 @@
       <c r="N40" s="22"/>
       <c r="O40" s="21"/>
     </row>
-    <row r="41" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="41" spans="1:15">
       <c r="A41" s="18"/>
       <c r="B41" s="19"/>
       <c r="C41" s="24"/>
@@ -10455,7 +11555,7 @@
       <c r="N41" s="22"/>
       <c r="O41" s="21"/>
     </row>
-    <row r="42" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="42" spans="1:15">
       <c r="A42" s="18"/>
       <c r="B42" s="19"/>
       <c r="C42" s="24"/>
@@ -10472,7 +11572,7 @@
       <c r="N42" s="22"/>
       <c r="O42" s="21"/>
     </row>
-    <row r="43" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="43" spans="1:15">
       <c r="A43" s="18"/>
       <c r="B43" s="19"/>
       <c r="C43" s="24"/>
@@ -10489,7 +11589,7 @@
       <c r="N43" s="22"/>
       <c r="O43" s="21"/>
     </row>
-    <row r="44" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="44" spans="1:15">
       <c r="A44" s="18"/>
       <c r="B44" s="19"/>
       <c r="C44" s="24"/>
@@ -10506,7 +11606,7 @@
       <c r="N44" s="22"/>
       <c r="O44" s="21"/>
     </row>
-    <row r="45" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="45" spans="1:15">
       <c r="A45" s="18"/>
       <c r="B45" s="19"/>
       <c r="C45" s="24"/>
@@ -10523,7 +11623,7 @@
       <c r="N45" s="22"/>
       <c r="O45" s="21"/>
     </row>
-    <row r="46" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="46" spans="1:15">
       <c r="A46" s="18"/>
       <c r="B46" s="19"/>
       <c r="C46" s="24"/>
@@ -10540,7 +11640,7 @@
       <c r="N46" s="22"/>
       <c r="O46" s="21"/>
     </row>
-    <row r="47" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="47" spans="1:15">
       <c r="A47" s="18"/>
       <c r="B47" s="19"/>
       <c r="C47" s="24"/>
@@ -10557,7 +11657,7 @@
       <c r="N47" s="22"/>
       <c r="O47" s="21"/>
     </row>
-    <row r="48" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="48" spans="1:15">
       <c r="A48" s="18"/>
       <c r="B48" s="19"/>
       <c r="C48" s="24"/>
@@ -10574,7 +11674,7 @@
       <c r="N48" s="22"/>
       <c r="O48" s="21"/>
     </row>
-    <row r="49" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="49" spans="1:15">
       <c r="A49" s="18"/>
       <c r="B49" s="19"/>
       <c r="C49" s="24"/>
@@ -10591,7 +11691,7 @@
       <c r="N49" s="22"/>
       <c r="O49" s="21"/>
     </row>
-    <row r="50" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="50" spans="1:15">
       <c r="A50" s="18"/>
       <c r="B50" s="19"/>
       <c r="C50" s="24"/>
@@ -10608,7 +11708,7 @@
       <c r="N50" s="22"/>
       <c r="O50" s="21"/>
     </row>
-    <row r="51" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="51" spans="1:15">
       <c r="A51" s="18"/>
       <c r="B51" s="19"/>
       <c r="C51" s="24"/>
@@ -10625,7 +11725,7 @@
       <c r="N51" s="22"/>
       <c r="O51" s="21"/>
     </row>
-    <row r="52" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="52" spans="1:15">
       <c r="A52" s="18"/>
       <c r="B52" s="19"/>
       <c r="C52" s="24"/>
@@ -10642,7 +11742,7 @@
       <c r="N52" s="22"/>
       <c r="O52" s="21"/>
     </row>
-    <row r="53" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="53" spans="1:15">
       <c r="A53" s="18"/>
       <c r="B53" s="19"/>
       <c r="C53" s="24"/>
@@ -10659,7 +11759,7 @@
       <c r="N53" s="22"/>
       <c r="O53" s="21"/>
     </row>
-    <row r="54" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="54" spans="1:15">
       <c r="A54" s="18"/>
       <c r="B54" s="19"/>
       <c r="C54" s="24"/>
@@ -10676,7 +11776,7 @@
       <c r="N54" s="22"/>
       <c r="O54" s="21"/>
     </row>
-    <row r="55" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="55" spans="1:15">
       <c r="A55" s="18"/>
       <c r="B55" s="19"/>
       <c r="C55" s="24"/>
@@ -10693,7 +11793,7 @@
       <c r="N55" s="22"/>
       <c r="O55" s="21"/>
     </row>
-    <row r="56" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="56" spans="1:15">
       <c r="A56" s="18"/>
       <c r="B56" s="19"/>
       <c r="C56" s="24"/>
@@ -10710,7 +11810,7 @@
       <c r="N56" s="22"/>
       <c r="O56" s="21"/>
     </row>
-    <row r="57" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="57" spans="1:15">
       <c r="A57" s="18"/>
       <c r="B57" s="19"/>
       <c r="C57" s="24"/>
@@ -10727,7 +11827,7 @@
       <c r="N57" s="22"/>
       <c r="O57" s="21"/>
     </row>
-    <row r="58" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="58" spans="1:15">
       <c r="A58" s="18"/>
       <c r="B58" s="19"/>
       <c r="C58" s="24"/>
@@ -10744,7 +11844,7 @@
       <c r="N58" s="22"/>
       <c r="O58" s="21"/>
     </row>
-    <row r="59" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="59" spans="1:15">
       <c r="A59" s="18"/>
       <c r="B59" s="19"/>
       <c r="C59" s="24"/>
@@ -10761,7 +11861,7 @@
       <c r="N59" s="22"/>
       <c r="O59" s="21"/>
     </row>
-    <row r="60" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="60" spans="1:15">
       <c r="A60" s="18"/>
       <c r="B60" s="19"/>
       <c r="C60" s="24"/>
@@ -10778,7 +11878,7 @@
       <c r="N60" s="22"/>
       <c r="O60" s="21"/>
     </row>
-    <row r="61" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="61" spans="1:15">
       <c r="A61" s="18"/>
       <c r="B61" s="19"/>
       <c r="C61" s="24"/>
@@ -10795,7 +11895,7 @@
       <c r="N61" s="22"/>
       <c r="O61" s="21"/>
     </row>
-    <row r="62" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="62" spans="1:15">
       <c r="A62" s="18"/>
       <c r="B62" s="19"/>
       <c r="C62" s="24"/>
@@ -10812,7 +11912,7 @@
       <c r="N62" s="22"/>
       <c r="O62" s="21"/>
     </row>
-    <row r="63" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="63" spans="1:15">
       <c r="A63" s="18"/>
       <c r="B63" s="19"/>
       <c r="C63" s="24"/>
@@ -10829,7 +11929,7 @@
       <c r="N63" s="22"/>
       <c r="O63" s="21"/>
     </row>
-    <row r="64" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="64" spans="1:15">
       <c r="A64" s="18"/>
       <c r="B64" s="19"/>
       <c r="C64" s="24"/>
@@ -10846,7 +11946,7 @@
       <c r="N64" s="22"/>
       <c r="O64" s="21"/>
     </row>
-    <row r="65" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="65" spans="1:15">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="24"/>
@@ -10863,7 +11963,7 @@
       <c r="N65" s="22"/>
       <c r="O65" s="21"/>
     </row>
-    <row r="66" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="66" spans="1:15">
       <c r="A66" s="18"/>
       <c r="B66" s="19"/>
       <c r="C66" s="24"/>
@@ -10880,7 +11980,7 @@
       <c r="N66" s="22"/>
       <c r="O66" s="21"/>
     </row>
-    <row r="67" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="67" spans="1:15">
       <c r="A67" s="18"/>
       <c r="B67" s="19"/>
       <c r="C67" s="24"/>
@@ -10897,7 +11997,7 @@
       <c r="N67" s="22"/>
       <c r="O67" s="21"/>
     </row>
-    <row r="68" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="68" spans="1:15">
       <c r="A68" s="18"/>
       <c r="B68" s="19"/>
       <c r="C68" s="24"/>
@@ -10914,7 +12014,7 @@
       <c r="N68" s="22"/>
       <c r="O68" s="21"/>
     </row>
-    <row r="69" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="69" spans="1:15">
       <c r="A69" s="18"/>
       <c r="B69" s="19"/>
       <c r="C69" s="24"/>
@@ -10931,7 +12031,7 @@
       <c r="N69" s="22"/>
       <c r="O69" s="21"/>
     </row>
-    <row r="70" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="70" spans="1:15">
       <c r="A70" s="18"/>
       <c r="B70" s="19"/>
       <c r="C70" s="24"/>
@@ -10948,7 +12048,7 @@
       <c r="N70" s="22"/>
       <c r="O70" s="21"/>
     </row>
-    <row r="71" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="71" spans="1:15">
       <c r="A71" s="18"/>
       <c r="B71" s="19"/>
       <c r="C71" s="24"/>
@@ -10965,7 +12065,7 @@
       <c r="N71" s="22"/>
       <c r="O71" s="21"/>
     </row>
-    <row r="72" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="72" spans="1:15">
       <c r="A72" s="18"/>
       <c r="B72" s="19"/>
       <c r="C72" s="24"/>
@@ -10982,7 +12082,7 @@
       <c r="N72" s="22"/>
       <c r="O72" s="21"/>
     </row>
-    <row r="73" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="73" spans="1:15">
       <c r="A73" s="18"/>
       <c r="B73" s="19"/>
       <c r="C73" s="24"/>
@@ -10999,7 +12099,7 @@
       <c r="N73" s="22"/>
       <c r="O73" s="21"/>
     </row>
-    <row r="74" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="74" spans="1:15">
       <c r="A74" s="18"/>
       <c r="B74" s="19"/>
       <c r="C74" s="24"/>
@@ -11016,7 +12116,7 @@
       <c r="N74" s="22"/>
       <c r="O74" s="21"/>
     </row>
-    <row r="75" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="75" spans="1:15">
       <c r="A75" s="18"/>
       <c r="B75" s="19"/>
       <c r="C75" s="24"/>
@@ -11033,7 +12133,7 @@
       <c r="N75" s="22"/>
       <c r="O75" s="21"/>
     </row>
-    <row r="76" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="76" spans="1:15">
       <c r="A76" s="18"/>
       <c r="B76" s="19"/>
       <c r="C76" s="24"/>
@@ -11050,7 +12150,7 @@
       <c r="N76" s="22"/>
       <c r="O76" s="21"/>
     </row>
-    <row r="77" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="77" spans="1:15">
       <c r="A77" s="18"/>
       <c r="B77" s="19"/>
       <c r="C77" s="24"/>
@@ -11067,7 +12167,7 @@
       <c r="N77" s="22"/>
       <c r="O77" s="21"/>
     </row>
-    <row r="78" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="78" spans="1:15">
       <c r="A78" s="18"/>
       <c r="B78" s="19"/>
       <c r="C78" s="24"/>
@@ -11084,7 +12184,7 @@
       <c r="N78" s="22"/>
       <c r="O78" s="21"/>
     </row>
-    <row r="79" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="79" spans="1:15">
       <c r="A79" s="18"/>
       <c r="B79" s="19"/>
       <c r="C79" s="24"/>
@@ -11101,7 +12201,7 @@
       <c r="N79" s="22"/>
       <c r="O79" s="21"/>
     </row>
-    <row r="80" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="80" spans="1:15">
       <c r="A80" s="18"/>
       <c r="B80" s="19"/>
       <c r="C80" s="24"/>
@@ -11118,7 +12218,7 @@
       <c r="N80" s="22"/>
       <c r="O80" s="21"/>
     </row>
-    <row r="81" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="81" spans="1:15">
       <c r="A81" s="18"/>
       <c r="B81" s="19"/>
       <c r="C81" s="24"/>
@@ -11135,7 +12235,7 @@
       <c r="N81" s="22"/>
       <c r="O81" s="21"/>
     </row>
-    <row r="82" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="82" spans="1:15">
       <c r="A82" s="18"/>
       <c r="B82" s="19"/>
       <c r="C82" s="24"/>
@@ -11152,7 +12252,7 @@
       <c r="N82" s="22"/>
       <c r="O82" s="21"/>
     </row>
-    <row r="83" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="83" spans="1:15">
       <c r="A83" s="18"/>
       <c r="B83" s="19"/>
       <c r="C83" s="24"/>
@@ -11169,7 +12269,7 @@
       <c r="N83" s="22"/>
       <c r="O83" s="21"/>
     </row>
-    <row r="84" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="84" spans="1:15">
       <c r="A84" s="18"/>
       <c r="B84" s="19"/>
       <c r="C84" s="24"/>
@@ -11186,7 +12286,7 @@
       <c r="N84" s="22"/>
       <c r="O84" s="21"/>
     </row>
-    <row r="85" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="85" spans="1:15">
       <c r="A85" s="18"/>
       <c r="B85" s="19"/>
       <c r="C85" s="24"/>
@@ -11203,7 +12303,7 @@
       <c r="N85" s="22"/>
       <c r="O85" s="21"/>
     </row>
-    <row r="86" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="86" spans="1:15">
       <c r="A86" s="18"/>
       <c r="B86" s="19"/>
       <c r="C86" s="24"/>
@@ -11220,7 +12320,7 @@
       <c r="N86" s="22"/>
       <c r="O86" s="21"/>
     </row>
-    <row r="87" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="87" spans="1:15">
       <c r="A87" s="18"/>
       <c r="B87" s="19"/>
       <c r="C87" s="24"/>
@@ -11237,7 +12337,7 @@
       <c r="N87" s="22"/>
       <c r="O87" s="21"/>
     </row>
-    <row r="88" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="88" spans="1:15">
       <c r="A88" s="18"/>
       <c r="B88" s="19"/>
       <c r="C88" s="24"/>
@@ -11254,7 +12354,7 @@
       <c r="N88" s="22"/>
       <c r="O88" s="21"/>
     </row>
-    <row r="89" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="89" spans="1:15">
       <c r="A89" s="18"/>
       <c r="B89" s="19"/>
       <c r="C89" s="24"/>
@@ -11271,7 +12371,7 @@
       <c r="N89" s="22"/>
       <c r="O89" s="21"/>
     </row>
-    <row r="90" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="90" spans="1:15">
       <c r="A90" s="18"/>
       <c r="B90" s="19"/>
       <c r="C90" s="24"/>
@@ -11288,7 +12388,7 @@
       <c r="N90" s="22"/>
       <c r="O90" s="21"/>
     </row>
-    <row r="91" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="91" spans="1:15">
       <c r="A91" s="18"/>
       <c r="B91" s="19"/>
       <c r="C91" s="24"/>
@@ -11305,7 +12405,7 @@
       <c r="N91" s="22"/>
       <c r="O91" s="21"/>
     </row>
-    <row r="92" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="92" spans="1:15">
       <c r="A92" s="18"/>
       <c r="B92" s="19"/>
       <c r="C92" s="24"/>
@@ -11322,7 +12422,7 @@
       <c r="N92" s="22"/>
       <c r="O92" s="21"/>
     </row>
-    <row r="93" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="93" spans="1:15">
       <c r="A93" s="18"/>
       <c r="B93" s="19"/>
       <c r="C93" s="24"/>
@@ -11339,7 +12439,7 @@
       <c r="N93" s="22"/>
       <c r="O93" s="21"/>
     </row>
-    <row r="94" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="94" spans="1:15">
       <c r="A94" s="18"/>
       <c r="B94" s="19"/>
       <c r="C94" s="24"/>
@@ -11356,7 +12456,7 @@
       <c r="N94" s="22"/>
       <c r="O94" s="21"/>
     </row>
-    <row r="95" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="95" spans="1:15">
       <c r="A95" s="18"/>
       <c r="B95" s="19"/>
       <c r="C95" s="24"/>
@@ -11373,7 +12473,7 @@
       <c r="N95" s="22"/>
       <c r="O95" s="21"/>
     </row>
-    <row r="96" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="96" spans="1:15">
       <c r="A96" s="18"/>
       <c r="B96" s="19"/>
       <c r="C96" s="24"/>
@@ -11390,7 +12490,7 @@
       <c r="N96" s="22"/>
       <c r="O96" s="21"/>
     </row>
-    <row r="97" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="97" spans="1:15">
       <c r="A97" s="18"/>
       <c r="B97" s="19"/>
       <c r="C97" s="24"/>
@@ -11407,7 +12507,7 @@
       <c r="N97" s="22"/>
       <c r="O97" s="21"/>
     </row>
-    <row r="98" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="98" spans="1:15">
       <c r="A98" s="18"/>
       <c r="B98" s="19"/>
       <c r="C98" s="24"/>
@@ -11424,7 +12524,7 @@
       <c r="N98" s="22"/>
       <c r="O98" s="21"/>
     </row>
-    <row r="99" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="99" spans="1:15">
       <c r="A99" s="18"/>
       <c r="B99" s="19"/>
       <c r="C99" s="24"/>
@@ -11441,7 +12541,7 @@
       <c r="N99" s="22"/>
       <c r="O99" s="21"/>
     </row>
-    <row r="100" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="100" spans="1:15">
       <c r="A100" s="18"/>
       <c r="B100" s="19"/>
       <c r="C100" s="24"/>
@@ -11458,7 +12558,7 @@
       <c r="N100" s="22"/>
       <c r="O100" s="21"/>
     </row>
-    <row r="101" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="101" spans="1:15">
       <c r="A101" s="18"/>
       <c r="B101" s="19"/>
       <c r="C101" s="24"/>
@@ -11475,7 +12575,7 @@
       <c r="N101" s="22"/>
       <c r="O101" s="21"/>
     </row>
-    <row r="102" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="102" spans="1:15">
       <c r="A102" s="18"/>
       <c r="B102" s="19"/>
       <c r="C102" s="24"/>
@@ -11492,7 +12592,7 @@
       <c r="N102" s="22"/>
       <c r="O102" s="21"/>
     </row>
-    <row r="103" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="103" spans="1:15">
       <c r="A103" s="18"/>
       <c r="B103" s="19"/>
       <c r="C103" s="24"/>
@@ -11509,7 +12609,7 @@
       <c r="N103" s="22"/>
       <c r="O103" s="21"/>
     </row>
-    <row r="104" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="104" spans="1:15">
       <c r="A104" s="18"/>
       <c r="B104" s="19"/>
       <c r="C104" s="24"/>
@@ -11526,7 +12626,7 @@
       <c r="N104" s="22"/>
       <c r="O104" s="21"/>
     </row>
-    <row r="105" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="105" spans="1:15">
       <c r="A105" s="18"/>
       <c r="B105" s="19"/>
       <c r="C105" s="24"/>
@@ -11543,7 +12643,7 @@
       <c r="N105" s="22"/>
       <c r="O105" s="21"/>
     </row>
-    <row r="106" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="106" spans="1:15">
       <c r="A106" s="18"/>
       <c r="B106" s="19"/>
       <c r="C106" s="24"/>
@@ -11560,7 +12660,7 @@
       <c r="N106" s="22"/>
       <c r="O106" s="21"/>
     </row>
-    <row r="107" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="107" spans="1:15">
       <c r="A107" s="18"/>
       <c r="B107" s="19"/>
       <c r="C107" s="24"/>
@@ -11577,7 +12677,7 @@
       <c r="N107" s="22"/>
       <c r="O107" s="21"/>
     </row>
-    <row r="108" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="108" spans="1:15">
       <c r="A108" s="18"/>
       <c r="B108" s="19"/>
       <c r="C108" s="24"/>
@@ -11594,7 +12694,7 @@
       <c r="N108" s="22"/>
       <c r="O108" s="21"/>
     </row>
-    <row r="109" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="109" spans="1:15">
       <c r="A109" s="18"/>
       <c r="B109" s="19"/>
       <c r="C109" s="24"/>
@@ -11611,7 +12711,7 @@
       <c r="N109" s="22"/>
       <c r="O109" s="21"/>
     </row>
-    <row r="110" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="110" spans="1:15">
       <c r="A110" s="18"/>
       <c r="B110" s="19"/>
       <c r="C110" s="24"/>
@@ -11628,7 +12728,7 @@
       <c r="N110" s="22"/>
       <c r="O110" s="21"/>
     </row>
-    <row r="111" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="111" spans="1:15">
       <c r="A111" s="18"/>
       <c r="B111" s="19"/>
       <c r="C111" s="24"/>
@@ -11645,7 +12745,7 @@
       <c r="N111" s="22"/>
       <c r="O111" s="21"/>
     </row>
-    <row r="112" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="112" spans="1:15">
       <c r="A112" s="18"/>
       <c r="B112" s="19"/>
       <c r="C112" s="24"/>
@@ -11662,7 +12762,7 @@
       <c r="N112" s="22"/>
       <c r="O112" s="21"/>
     </row>
-    <row r="113" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="113" spans="1:15">
       <c r="A113" s="18"/>
       <c r="B113" s="19"/>
       <c r="C113" s="24"/>
@@ -11679,7 +12779,7 @@
       <c r="N113" s="22"/>
       <c r="O113" s="21"/>
     </row>
-    <row r="114" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="114" spans="1:15">
       <c r="A114" s="18"/>
       <c r="B114" s="19"/>
       <c r="C114" s="24"/>
@@ -11696,7 +12796,7 @@
       <c r="N114" s="22"/>
       <c r="O114" s="21"/>
     </row>
-    <row r="115" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="115" spans="1:15">
       <c r="A115" s="18"/>
       <c r="B115" s="19"/>
       <c r="C115" s="24"/>
@@ -11713,7 +12813,7 @@
       <c r="N115" s="22"/>
       <c r="O115" s="21"/>
     </row>
-    <row r="116" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="116" spans="1:15">
       <c r="A116" s="18"/>
       <c r="B116" s="19"/>
       <c r="C116" s="24"/>
@@ -11730,7 +12830,7 @@
       <c r="N116" s="22"/>
       <c r="O116" s="21"/>
     </row>
-    <row r="117" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="117" spans="1:15">
       <c r="A117" s="18"/>
       <c r="B117" s="19"/>
       <c r="C117" s="24"/>
@@ -11747,7 +12847,7 @@
       <c r="N117" s="22"/>
       <c r="O117" s="21"/>
     </row>
-    <row r="118" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="118" spans="1:15">
       <c r="A118" s="18"/>
       <c r="B118" s="19"/>
       <c r="C118" s="24"/>
@@ -11764,7 +12864,7 @@
       <c r="N118" s="22"/>
       <c r="O118" s="21"/>
     </row>
-    <row r="119" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="119" spans="1:15">
       <c r="A119" s="18"/>
       <c r="B119" s="19"/>
       <c r="C119" s="24"/>
@@ -11781,7 +12881,7 @@
       <c r="N119" s="22"/>
       <c r="O119" s="21"/>
     </row>
-    <row r="120" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="120" spans="1:15">
       <c r="A120" s="18"/>
       <c r="B120" s="19"/>
       <c r="C120" s="24"/>
@@ -11798,7 +12898,7 @@
       <c r="N120" s="22"/>
       <c r="O120" s="21"/>
     </row>
-    <row r="121" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="121" spans="1:15">
       <c r="A121" s="18"/>
       <c r="B121" s="19"/>
       <c r="C121" s="24"/>
@@ -11815,7 +12915,7 @@
       <c r="N121" s="22"/>
       <c r="O121" s="21"/>
     </row>
-    <row r="122" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="122" spans="1:15">
       <c r="A122" s="18"/>
       <c r="B122" s="19"/>
       <c r="C122" s="24"/>
@@ -11832,7 +12932,7 @@
       <c r="N122" s="22"/>
       <c r="O122" s="21"/>
     </row>
-    <row r="123" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="123" spans="1:15">
       <c r="A123" s="18"/>
       <c r="B123" s="19"/>
       <c r="C123" s="24"/>
@@ -11849,7 +12949,7 @@
       <c r="N123" s="22"/>
       <c r="O123" s="21"/>
     </row>
-    <row r="124" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="124" spans="1:15">
       <c r="A124" s="18"/>
       <c r="B124" s="19"/>
       <c r="C124" s="24"/>
@@ -11866,7 +12966,7 @@
       <c r="N124" s="22"/>
       <c r="O124" s="21"/>
     </row>
-    <row r="125" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="125" spans="1:15">
       <c r="A125" s="18"/>
       <c r="B125" s="19"/>
       <c r="C125" s="24"/>
@@ -11883,7 +12983,7 @@
       <c r="N125" s="22"/>
       <c r="O125" s="21"/>
     </row>
-    <row r="126" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="126" spans="1:15">
       <c r="A126" s="18"/>
       <c r="B126" s="19"/>
       <c r="C126" s="24"/>
@@ -11900,7 +13000,7 @@
       <c r="N126" s="22"/>
       <c r="O126" s="21"/>
     </row>
-    <row r="127" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="127" spans="1:15">
       <c r="A127" s="18"/>
       <c r="B127" s="19"/>
       <c r="C127" s="24"/>
@@ -11917,7 +13017,7 @@
       <c r="N127" s="22"/>
       <c r="O127" s="21"/>
     </row>
-    <row r="128" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="128" spans="1:15">
       <c r="A128" s="18"/>
       <c r="B128" s="19"/>
       <c r="C128" s="24"/>
@@ -11934,7 +13034,7 @@
       <c r="N128" s="22"/>
       <c r="O128" s="21"/>
     </row>
-    <row r="129" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="129" spans="1:15">
       <c r="A129" s="18"/>
       <c r="B129" s="19"/>
       <c r="C129" s="24"/>
@@ -11951,7 +13051,7 @@
       <c r="N129" s="22"/>
       <c r="O129" s="21"/>
     </row>
-    <row r="130" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="130" spans="1:15">
       <c r="A130" s="18"/>
       <c r="B130" s="19"/>
       <c r="C130" s="24"/>
@@ -11968,7 +13068,7 @@
       <c r="N130" s="22"/>
       <c r="O130" s="21"/>
     </row>
-    <row r="131" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="131" spans="1:15">
       <c r="A131" s="18"/>
       <c r="B131" s="19"/>
       <c r="C131" s="24"/>
@@ -11985,7 +13085,7 @@
       <c r="N131" s="22"/>
       <c r="O131" s="21"/>
     </row>
-    <row r="132" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="132" spans="1:15">
       <c r="A132" s="18"/>
       <c r="B132" s="19"/>
       <c r="C132" s="24"/>
@@ -12002,7 +13102,7 @@
       <c r="N132" s="22"/>
       <c r="O132" s="21"/>
     </row>
-    <row r="133" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="133" spans="1:15">
       <c r="A133" s="18"/>
       <c r="B133" s="19"/>
       <c r="C133" s="24"/>
@@ -12019,7 +13119,7 @@
       <c r="N133" s="22"/>
       <c r="O133" s="21"/>
     </row>
-    <row r="134" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="134" spans="1:15">
       <c r="A134" s="18"/>
       <c r="B134" s="19"/>
       <c r="C134" s="24"/>
@@ -12036,7 +13136,7 @@
       <c r="N134" s="22"/>
       <c r="O134" s="21"/>
     </row>
-    <row r="135" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="135" spans="1:15">
       <c r="A135" s="18"/>
       <c r="B135" s="19"/>
       <c r="C135" s="24"/>
@@ -12053,7 +13153,7 @@
       <c r="N135" s="22"/>
       <c r="O135" s="21"/>
     </row>
-    <row r="136" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="136" spans="1:15">
       <c r="A136" s="18"/>
       <c r="B136" s="19"/>
       <c r="C136" s="24"/>
@@ -12070,7 +13170,7 @@
       <c r="N136" s="22"/>
       <c r="O136" s="21"/>
     </row>
-    <row r="137" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="137" spans="1:15">
       <c r="A137" s="18"/>
       <c r="B137" s="19"/>
       <c r="C137" s="24"/>
@@ -12087,7 +13187,7 @@
       <c r="N137" s="22"/>
       <c r="O137" s="21"/>
     </row>
-    <row r="138" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="138" spans="1:15">
       <c r="A138" s="18"/>
       <c r="B138" s="19"/>
       <c r="C138" s="24"/>
@@ -12104,7 +13204,7 @@
       <c r="N138" s="22"/>
       <c r="O138" s="21"/>
     </row>
-    <row r="139" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="139" spans="1:15">
       <c r="A139" s="18"/>
       <c r="B139" s="19"/>
       <c r="C139" s="24"/>
@@ -12121,7 +13221,7 @@
       <c r="N139" s="22"/>
       <c r="O139" s="21"/>
     </row>
-    <row r="140" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="140" spans="1:15">
       <c r="A140" s="18"/>
       <c r="B140" s="19"/>
       <c r="C140" s="24"/>
@@ -12138,7 +13238,7 @@
       <c r="N140" s="22"/>
       <c r="O140" s="21"/>
     </row>
-    <row r="141" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="141" spans="1:15">
       <c r="A141" s="18"/>
       <c r="B141" s="19"/>
       <c r="C141" s="24"/>
@@ -12155,7 +13255,7 @@
       <c r="N141" s="22"/>
       <c r="O141" s="21"/>
     </row>
-    <row r="142" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="142" spans="1:15">
       <c r="A142" s="18"/>
       <c r="B142" s="19"/>
       <c r="C142" s="24"/>
@@ -12172,7 +13272,7 @@
       <c r="N142" s="22"/>
       <c r="O142" s="21"/>
     </row>
-    <row r="143" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="143" spans="1:15">
       <c r="A143" s="18"/>
       <c r="B143" s="19"/>
       <c r="C143" s="24"/>
@@ -12189,7 +13289,7 @@
       <c r="N143" s="22"/>
       <c r="O143" s="21"/>
     </row>
-    <row r="144" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="144" spans="1:15">
       <c r="A144" s="18"/>
       <c r="B144" s="19"/>
       <c r="C144" s="24"/>
@@ -12206,7 +13306,7 @@
       <c r="N144" s="22"/>
       <c r="O144" s="21"/>
     </row>
-    <row r="145" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="145" spans="1:15">
       <c r="A145" s="18"/>
       <c r="B145" s="19"/>
       <c r="C145" s="24"/>
@@ -12223,7 +13323,7 @@
       <c r="N145" s="22"/>
       <c r="O145" s="21"/>
     </row>
-    <row r="146" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="146" spans="1:15">
       <c r="A146" s="18"/>
       <c r="B146" s="19"/>
       <c r="C146" s="24"/>
@@ -12240,7 +13340,7 @@
       <c r="N146" s="22"/>
       <c r="O146" s="21"/>
     </row>
-    <row r="147" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="147" spans="1:15">
       <c r="A147" s="18"/>
       <c r="B147" s="19"/>
       <c r="C147" s="24"/>
@@ -12257,7 +13357,7 @@
       <c r="N147" s="22"/>
       <c r="O147" s="21"/>
     </row>
-    <row r="148" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="148" spans="1:15">
       <c r="A148" s="18"/>
       <c r="B148" s="19"/>
       <c r="C148" s="24"/>
@@ -12274,7 +13374,7 @@
       <c r="N148" s="22"/>
       <c r="O148" s="21"/>
     </row>
-    <row r="149" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="149" spans="1:15">
       <c r="A149" s="18"/>
       <c r="B149" s="19"/>
       <c r="C149" s="24"/>
@@ -12291,7 +13391,7 @@
       <c r="N149" s="22"/>
       <c r="O149" s="21"/>
     </row>
-    <row r="150" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="150" spans="1:15">
       <c r="A150" s="18"/>
       <c r="B150" s="19"/>
       <c r="C150" s="24"/>
@@ -12308,7 +13408,7 @@
       <c r="N150" s="22"/>
       <c r="O150" s="21"/>
     </row>
-    <row r="151" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="151" spans="1:15">
       <c r="A151" s="18"/>
       <c r="B151" s="19"/>
       <c r="C151" s="24"/>
@@ -12325,7 +13425,7 @@
       <c r="N151" s="22"/>
       <c r="O151" s="21"/>
     </row>
-    <row r="152" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="152" spans="1:15">
       <c r="A152" s="18"/>
       <c r="B152" s="19"/>
       <c r="C152" s="24"/>
@@ -12342,7 +13442,7 @@
       <c r="N152" s="22"/>
       <c r="O152" s="21"/>
     </row>
-    <row r="153" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="153" spans="1:15">
       <c r="A153" s="18"/>
       <c r="B153" s="19"/>
       <c r="C153" s="24"/>
@@ -12359,7 +13459,7 @@
       <c r="N153" s="22"/>
       <c r="O153" s="21"/>
     </row>
-    <row r="154" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="154" spans="1:15">
       <c r="A154" s="18"/>
       <c r="B154" s="19"/>
       <c r="C154" s="24"/>
@@ -12376,7 +13476,7 @@
       <c r="N154" s="22"/>
       <c r="O154" s="21"/>
     </row>
-    <row r="155" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="155" spans="1:15">
       <c r="A155" s="18"/>
       <c r="B155" s="19"/>
       <c r="C155" s="24"/>
@@ -12393,7 +13493,7 @@
       <c r="N155" s="22"/>
       <c r="O155" s="21"/>
     </row>
-    <row r="156" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="156" spans="1:15">
       <c r="A156" s="18"/>
       <c r="B156" s="19"/>
       <c r="C156" s="24"/>
@@ -12410,7 +13510,7 @@
       <c r="N156" s="22"/>
       <c r="O156" s="21"/>
     </row>
-    <row r="157" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="157" spans="1:15">
       <c r="A157" s="18"/>
       <c r="B157" s="19"/>
       <c r="C157" s="24"/>
@@ -12427,7 +13527,7 @@
       <c r="N157" s="22"/>
       <c r="O157" s="21"/>
     </row>
-    <row r="158" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="158" spans="1:15">
       <c r="A158" s="18"/>
       <c r="B158" s="19"/>
       <c r="C158" s="24"/>
@@ -12444,7 +13544,7 @@
       <c r="N158" s="22"/>
       <c r="O158" s="21"/>
     </row>
-    <row r="159" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="159" spans="1:15">
       <c r="A159" s="18"/>
       <c r="B159" s="19"/>
       <c r="C159" s="24"/>
@@ -12461,7 +13561,7 @@
       <c r="N159" s="22"/>
       <c r="O159" s="21"/>
     </row>
-    <row r="160" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="160" spans="1:15">
       <c r="A160" s="18"/>
       <c r="B160" s="19"/>
       <c r="C160" s="24"/>
@@ -12478,7 +13578,7 @@
       <c r="N160" s="22"/>
       <c r="O160" s="21"/>
     </row>
-    <row r="161" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="161" spans="1:15">
       <c r="A161" s="18"/>
       <c r="B161" s="19"/>
       <c r="C161" s="24"/>
@@ -12495,7 +13595,7 @@
       <c r="N161" s="22"/>
       <c r="O161" s="21"/>
     </row>
-    <row r="162" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="162" spans="1:15">
       <c r="A162" s="18"/>
       <c r="B162" s="19"/>
       <c r="C162" s="24"/>
@@ -12512,7 +13612,7 @@
       <c r="N162" s="22"/>
       <c r="O162" s="21"/>
     </row>
-    <row r="163" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="163" spans="1:15">
       <c r="A163" s="18"/>
       <c r="B163" s="19"/>
       <c r="C163" s="24"/>
@@ -12529,7 +13629,7 @@
       <c r="N163" s="22"/>
       <c r="O163" s="21"/>
     </row>
-    <row r="164" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="164" spans="1:15">
       <c r="A164" s="18"/>
       <c r="B164" s="19"/>
       <c r="C164" s="24"/>
@@ -12546,7 +13646,7 @@
       <c r="N164" s="22"/>
       <c r="O164" s="21"/>
     </row>
-    <row r="165" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="165" spans="1:15">
       <c r="A165" s="18"/>
       <c r="B165" s="19"/>
       <c r="C165" s="24"/>
@@ -12563,7 +13663,7 @@
       <c r="N165" s="22"/>
       <c r="O165" s="21"/>
     </row>
-    <row r="166" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="166" spans="1:15">
       <c r="A166" s="18"/>
       <c r="B166" s="19"/>
       <c r="C166" s="24"/>
@@ -12580,7 +13680,7 @@
       <c r="N166" s="22"/>
       <c r="O166" s="21"/>
     </row>
-    <row r="167" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="167" spans="1:15">
       <c r="A167" s="18"/>
       <c r="B167" s="19"/>
       <c r="C167" s="24"/>
@@ -12597,7 +13697,7 @@
       <c r="N167" s="22"/>
       <c r="O167" s="21"/>
     </row>
-    <row r="168" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="168" spans="1:15">
       <c r="A168" s="18"/>
       <c r="B168" s="19"/>
       <c r="C168" s="24"/>
@@ -12614,7 +13714,7 @@
       <c r="N168" s="22"/>
       <c r="O168" s="21"/>
     </row>
-    <row r="169" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="169" spans="1:15">
       <c r="A169" s="18"/>
       <c r="B169" s="19"/>
       <c r="C169" s="24"/>
@@ -12631,7 +13731,7 @@
       <c r="N169" s="22"/>
       <c r="O169" s="21"/>
     </row>
-    <row r="170" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="170" spans="1:15">
       <c r="A170" s="18"/>
       <c r="B170" s="19"/>
       <c r="C170" s="24"/>
@@ -12648,7 +13748,7 @@
       <c r="N170" s="22"/>
       <c r="O170" s="21"/>
     </row>
-    <row r="171" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="171" spans="1:15">
       <c r="A171" s="18"/>
       <c r="B171" s="19"/>
       <c r="C171" s="24"/>
@@ -12665,7 +13765,7 @@
       <c r="N171" s="22"/>
       <c r="O171" s="21"/>
     </row>
-    <row r="172" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="172" spans="1:15">
       <c r="A172" s="18"/>
       <c r="B172" s="19"/>
       <c r="C172" s="24"/>
@@ -12682,7 +13782,7 @@
       <c r="N172" s="22"/>
       <c r="O172" s="21"/>
     </row>
-    <row r="173" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="173" spans="1:15">
       <c r="A173" s="18"/>
       <c r="B173" s="19"/>
       <c r="C173" s="24"/>
@@ -12699,7 +13799,7 @@
       <c r="N173" s="22"/>
       <c r="O173" s="21"/>
     </row>
-    <row r="174" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="174" spans="1:15">
       <c r="A174" s="18"/>
       <c r="B174" s="19"/>
       <c r="C174" s="24"/>
@@ -12716,7 +13816,7 @@
       <c r="N174" s="22"/>
       <c r="O174" s="21"/>
     </row>
-    <row r="175" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="175" spans="1:15">
       <c r="A175" s="18"/>
       <c r="B175" s="19"/>
       <c r="C175" s="24"/>
@@ -12733,7 +13833,7 @@
       <c r="N175" s="22"/>
       <c r="O175" s="21"/>
     </row>
-    <row r="176" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="176" spans="1:15">
       <c r="A176" s="18"/>
       <c r="B176" s="19"/>
       <c r="C176" s="24"/>
@@ -12750,7 +13850,7 @@
       <c r="N176" s="22"/>
       <c r="O176" s="21"/>
     </row>
-    <row r="177" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="177" spans="1:15">
       <c r="A177" s="18"/>
       <c r="B177" s="19"/>
       <c r="C177" s="24"/>
@@ -12767,7 +13867,7 @@
       <c r="N177" s="22"/>
       <c r="O177" s="21"/>
     </row>
-    <row r="178" ht="23" customHeight="1" spans="1:15">
+    <row customHeight="1" ht="23" r="178" spans="1:15">
       <c r="A178" s="18"/>
       <c r="B178" s="19"/>
       <c r="C178" s="24"/>
@@ -12785,7 +13885,7 @@
       <c r="O178" s="21"/>
     </row>
   </sheetData>
-  <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
+  <sheetProtection deleteRows="0" insertHyperlinks="0" insertRows="0"/>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="L1:O1"/>
@@ -12793,36 +13893,36 @@
     <mergeCell ref="L2:O2"/>
   </mergeCells>
   <conditionalFormatting sqref="N79:N178">
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="1" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N79,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="2" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N79,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="3" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N79,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1 N3:N78">
-    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule dxfId="0" operator="equal" priority="4" stopIfTrue="1" text="WARN" type="beginsWith">
       <formula>LEFT(N1,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule dxfId="1" operator="equal" priority="5" stopIfTrue="1" text="FAIL" type="beginsWith">
       <formula>LEFT(N1,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule dxfId="2" operator="equal" priority="6" stopIfTrue="1" text="PASS" type="beginsWith">
       <formula>LEFT(N1,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D5 D6 D7:D178">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D5 D6 D7:D178" type="list">
       <formula1>INDIRECT(C5)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7:C178">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5 C6 C7:C178" type="list">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter/>
 </worksheet>
 </file>